--- a/BaseDados/Dados BD.xlsx
+++ b/BaseDados/Dados BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\BaseDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FD6181-1CE4-49AA-9C8B-C87F610BD06F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC960A-4531-4007-98D1-DDA249FBFE88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{657CB9A2-C43B-426B-A736-BB7BF31CC9FD}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{657CB9A2-C43B-426B-A736-BB7BF31CC9FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Organização_BD" sheetId="7" r:id="rId1"/>
@@ -2905,6 +2905,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3758,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4059,28 +4062,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4128,10 +4113,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4150,18 +4149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4185,13 +4172,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4206,32 +4214,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -4582,16 +4579,16 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125" t="s">
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="121"/>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
         <v>897</v>
@@ -4724,11 +4721,11 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4781,7 +4778,7 @@
       <c r="H13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="123" t="str">
+      <c r="J13" s="117" t="str">
         <f>CONCATENATE(C13,", ",D13,", ",E13,", ",F13,", ",G13,", ",H13)</f>
         <v>111222666, José Fontes, jose@marceloadvogados.pt, Vice-Presidente, 222333777, Gestor</v>
       </c>
@@ -4809,7 +4806,7 @@
       <c r="H14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="123" t="str">
+      <c r="J14" s="117" t="str">
         <f t="shared" ref="J14:J18" si="0">CONCATENATE(C14,", ",D14,", ",E14,", ",F14,", ",G14,", ",H14)</f>
         <v>111222666, Francisca Cardoso, francisca@marceloadvogados.pt, Assistente, 222333774, Colaborador</v>
       </c>
@@ -4837,7 +4834,7 @@
       <c r="H15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="123" t="str">
+      <c r="J15" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222666, Tomás Fonseca, tomas@marceloadvogados.pt, Despachante, 222333775, Colaborador</v>
       </c>
@@ -4865,7 +4862,7 @@
       <c r="H16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="123" t="str">
+      <c r="J16" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Sofia Barcelos, sofia@inesengenharia.com, Vice-Presidente, 212333999, Gestor</v>
       </c>
@@ -4893,7 +4890,7 @@
       <c r="H17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="123" t="str">
+      <c r="J17" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Matilde Oliveira, matilde@inesengenharia.com, Gestora de Projetos, 212333991, Colaborador</v>
       </c>
@@ -4921,7 +4918,7 @@
       <c r="H18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="123" t="str">
+      <c r="J18" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Eduardo Lima, eduardo@inesengenharia.com, Coordenador de Mecânica, 212333994, Colaborador</v>
       </c>
@@ -4964,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0B51F-9A9B-43A7-AEF3-1AEE9AD71D25}">
   <dimension ref="B3:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -4984,13 +4981,13 @@
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="123" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -5007,12 +5004,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
@@ -6280,13 +6277,13 @@
     </row>
     <row r="45" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
-      <c r="C45" s="133" t="s">
+      <c r="C45" s="123" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
     </row>
     <row r="46" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -6328,7 +6325,7 @@
       <c r="B49" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="158" t="s">
+      <c r="C49" s="154" t="s">
         <v>728</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -6348,7 +6345,7 @@
       <c r="B50" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="158"/>
+      <c r="C50" s="154"/>
       <c r="D50" s="40" t="s">
         <v>643</v>
       </c>
@@ -6706,7 +6703,7 @@
       <c r="B68" s="40" t="s">
         <v>817</v>
       </c>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="154" t="s">
         <v>632</v>
       </c>
       <c r="D68" s="40" t="s">
@@ -6726,7 +6723,7 @@
       <c r="B69" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="C69" s="158"/>
+      <c r="C69" s="154"/>
       <c r="D69" s="40" t="s">
         <v>645</v>
       </c>
@@ -6804,7 +6801,7 @@
       <c r="B73" s="40" t="s">
         <v>815</v>
       </c>
-      <c r="C73" s="158" t="s">
+      <c r="C73" s="154" t="s">
         <v>627</v>
       </c>
       <c r="D73" s="40" t="s">
@@ -6824,7 +6821,7 @@
       <c r="B74" s="40" t="s">
         <v>816</v>
       </c>
-      <c r="C74" s="158"/>
+      <c r="C74" s="154"/>
       <c r="D74" s="40" t="s">
         <v>644</v>
       </c>
@@ -6900,13 +6897,13 @@
     </row>
     <row r="81" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
-      <c r="C81" s="133" t="s">
+      <c r="C81" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="123"/>
+      <c r="F81" s="123"/>
+      <c r="G81" s="123"/>
     </row>
     <row r="82" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
@@ -6945,7 +6942,7 @@
       <c r="B85" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="151" t="s">
+      <c r="C85" s="146" t="s">
         <v>626</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -6960,7 +6957,7 @@
       <c r="B86" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="153"/>
+      <c r="C86" s="148"/>
       <c r="D86" s="10" t="s">
         <v>374</v>
       </c>
@@ -7101,7 +7098,7 @@
       <c r="B105" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="152" t="s">
+      <c r="C105" s="147" t="s">
         <v>627</v>
       </c>
       <c r="D105" s="54" t="s">
@@ -7116,7 +7113,7 @@
       <c r="B106" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="153"/>
+      <c r="C106" s="148"/>
       <c r="D106" s="10" t="s">
         <v>266</v>
       </c>
@@ -7129,7 +7126,7 @@
       <c r="B107" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="154" t="s">
+      <c r="C107" s="149" t="s">
         <v>628</v>
       </c>
       <c r="D107" s="54" t="s">
@@ -7144,7 +7141,7 @@
       <c r="B108" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="153"/>
+      <c r="C108" s="148"/>
       <c r="D108" s="10" t="s">
         <v>284</v>
       </c>
@@ -7157,7 +7154,7 @@
       <c r="B109" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="154" t="s">
+      <c r="C109" s="149" t="s">
         <v>629</v>
       </c>
       <c r="D109" s="54" t="s">
@@ -7172,7 +7169,7 @@
       <c r="B110" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="153"/>
+      <c r="C110" s="148"/>
       <c r="D110" s="10" t="s">
         <v>373</v>
       </c>
@@ -7185,7 +7182,7 @@
       <c r="B111" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="154" t="s">
+      <c r="C111" s="149" t="s">
         <v>630</v>
       </c>
       <c r="D111" s="54" t="s">
@@ -7200,7 +7197,7 @@
       <c r="B112" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="153"/>
+      <c r="C112" s="148"/>
       <c r="D112" s="10" t="s">
         <v>341</v>
       </c>
@@ -7213,7 +7210,7 @@
       <c r="B113" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="154" t="s">
+      <c r="C113" s="149" t="s">
         <v>631</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -7228,7 +7225,7 @@
       <c r="B114" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="153"/>
+      <c r="C114" s="148"/>
       <c r="D114" s="10" t="s">
         <v>374</v>
       </c>
@@ -7241,7 +7238,7 @@
       <c r="B115" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="147" t="s">
         <v>632</v>
       </c>
       <c r="D115" s="54" t="s">
@@ -7256,7 +7253,7 @@
       <c r="B116" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C116" s="153"/>
+      <c r="C116" s="148"/>
       <c r="D116" s="10" t="s">
         <v>438</v>
       </c>
@@ -7269,7 +7266,7 @@
       <c r="B117" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C117" s="154" t="s">
+      <c r="C117" s="149" t="s">
         <v>633</v>
       </c>
       <c r="D117" s="54" t="s">
@@ -7284,7 +7281,7 @@
       <c r="B118" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="C118" s="153"/>
+      <c r="C118" s="148"/>
       <c r="D118" s="10" t="s">
         <v>337</v>
       </c>
@@ -7297,7 +7294,7 @@
       <c r="B119" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="C119" s="154" t="s">
+      <c r="C119" s="149" t="s">
         <v>634</v>
       </c>
       <c r="D119" s="54" t="s">
@@ -7312,7 +7309,7 @@
       <c r="B120" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C120" s="153"/>
+      <c r="C120" s="148"/>
       <c r="D120" s="10" t="s">
         <v>445</v>
       </c>
@@ -7325,7 +7322,7 @@
       <c r="B121" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C121" s="154" t="s">
+      <c r="C121" s="149" t="s">
         <v>635</v>
       </c>
       <c r="D121" s="54" t="s">
@@ -7340,7 +7337,7 @@
       <c r="B122" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C122" s="153"/>
+      <c r="C122" s="148"/>
       <c r="D122" s="10" t="s">
         <v>295</v>
       </c>
@@ -7351,11 +7348,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C107:C108"/>
@@ -7368,6 +7360,11 @@
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -7511,11 +7508,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7584,11 +7581,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7764,11 +7761,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8015,7 +8012,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="124" t="s">
         <v>481</v>
       </c>
       <c r="C33" s="12">
@@ -8039,7 +8036,7 @@
       <c r="A34">
         <v>46</v>
       </c>
-      <c r="B34" s="135"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="40">
         <v>2</v>
       </c>
@@ -8058,7 +8055,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="136"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="9">
         <v>3</v>
       </c>
@@ -8080,7 +8077,7 @@
       <c r="A36">
         <v>48</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="133" t="s">
         <v>485</v>
       </c>
       <c r="C36" s="7">
@@ -8101,7 +8098,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="135"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="40">
         <v>2</v>
       </c>
@@ -8120,7 +8117,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="136"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="9">
         <v>3</v>
       </c>
@@ -8139,7 +8136,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="124" t="s">
         <v>481</v>
       </c>
       <c r="C39" s="12">
@@ -8159,7 +8156,7 @@
       <c r="A40">
         <v>52</v>
       </c>
-      <c r="B40" s="135"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="55">
         <v>2</v>
       </c>
@@ -8174,7 +8171,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="136"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="9">
         <v>3</v>
       </c>
@@ -8227,14 +8224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2570F754-5158-4E4C-959B-5538D140A16D}">
   <dimension ref="A3:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A64"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="124" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="118" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -8247,13 +8244,13 @@
   <sheetData>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="123" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -8270,12 +8267,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
@@ -8323,7 +8320,7 @@
       <c r="C7" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="120" t="s">
         <v>913</v>
       </c>
       <c r="E7" s="40">
@@ -8365,7 +8362,7 @@
       <c r="C8" s="40" t="s">
         <v>912</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="120" t="s">
         <v>914</v>
       </c>
       <c r="E8" s="40">
@@ -8407,7 +8404,7 @@
       <c r="C9" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="120" t="s">
         <v>915</v>
       </c>
       <c r="E9" s="40">
@@ -8431,7 +8428,7 @@
       <c r="K9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="113">
         <v>49</v>
       </c>
       <c r="M9" t="str">
@@ -8446,7 +8443,7 @@
       <c r="C10" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="120" t="s">
         <v>916</v>
       </c>
       <c r="E10" s="40">
@@ -8470,7 +8467,7 @@
       <c r="K10" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="L10" s="119">
+      <c r="L10" s="113">
         <v>50</v>
       </c>
       <c r="M10" t="str">
@@ -8485,7 +8482,7 @@
       <c r="C11" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="120" t="s">
         <v>917</v>
       </c>
       <c r="E11" s="40">
@@ -8509,7 +8506,7 @@
       <c r="K11" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="L11" s="119">
+      <c r="L11" s="113">
         <v>51</v>
       </c>
       <c r="M11" t="str">
@@ -8524,7 +8521,7 @@
       <c r="C12" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="120" t="s">
         <v>918</v>
       </c>
       <c r="E12" s="40">
@@ -8548,7 +8545,7 @@
       <c r="K12" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="113">
         <v>52</v>
       </c>
       <c r="M12" t="str">
@@ -8563,7 +8560,7 @@
       <c r="C13" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="120" t="s">
         <v>919</v>
       </c>
       <c r="E13" s="40">
@@ -8587,7 +8584,7 @@
       <c r="K13" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="113">
         <v>53</v>
       </c>
       <c r="M13" t="str">
@@ -8602,7 +8599,7 @@
       <c r="C14" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="120" t="s">
         <v>920</v>
       </c>
       <c r="E14" s="40">
@@ -8626,7 +8623,7 @@
       <c r="K14" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="113">
         <v>54</v>
       </c>
       <c r="M14" t="str">
@@ -8641,7 +8638,7 @@
       <c r="C15" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="120" t="s">
         <v>921</v>
       </c>
       <c r="E15" s="40">
@@ -8665,7 +8662,7 @@
       <c r="K15" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="113">
         <v>55</v>
       </c>
       <c r="M15" t="str">
@@ -8683,7 +8680,7 @@
       <c r="C16" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="120" t="s">
         <v>922</v>
       </c>
       <c r="E16" s="40">
@@ -8707,7 +8704,7 @@
       <c r="K16" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="L16" s="119">
+      <c r="L16" s="113">
         <v>56</v>
       </c>
       <c r="M16" t="str">
@@ -8725,7 +8722,7 @@
       <c r="C17" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="120" t="s">
         <v>923</v>
       </c>
       <c r="E17" s="40">
@@ -8749,7 +8746,7 @@
       <c r="K17" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="L17" s="119">
+      <c r="L17" s="113">
         <v>57</v>
       </c>
       <c r="M17" t="str">
@@ -8764,7 +8761,7 @@
       <c r="C18" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="120" t="s">
         <v>924</v>
       </c>
       <c r="E18" s="40">
@@ -8788,7 +8785,7 @@
       <c r="K18" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="L18" s="119">
+      <c r="L18" s="113">
         <v>58</v>
       </c>
       <c r="M18" t="str">
@@ -8803,7 +8800,7 @@
       <c r="C19" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="120" t="s">
         <v>925</v>
       </c>
       <c r="E19" s="40">
@@ -8827,7 +8824,7 @@
       <c r="K19" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="L19" s="119">
+      <c r="L19" s="113">
         <v>59</v>
       </c>
       <c r="M19" t="str">
@@ -8842,7 +8839,7 @@
       <c r="C20" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="120" t="s">
         <v>926</v>
       </c>
       <c r="E20" s="40">
@@ -8866,7 +8863,7 @@
       <c r="K20" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="113">
         <v>60</v>
       </c>
       <c r="M20" t="str">
@@ -8881,7 +8878,7 @@
       <c r="C21" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="120" t="s">
         <v>927</v>
       </c>
       <c r="E21" s="40">
@@ -8905,7 +8902,7 @@
       <c r="K21" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="L21" s="119">
+      <c r="L21" s="113">
         <v>61</v>
       </c>
       <c r="M21" t="str">
@@ -8920,7 +8917,7 @@
       <c r="C22" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="D22" s="160" t="s">
+      <c r="D22" s="120" t="s">
         <v>928</v>
       </c>
       <c r="E22" s="40">
@@ -8944,7 +8941,7 @@
       <c r="K22" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="L22" s="119">
+      <c r="L22" s="113">
         <v>62</v>
       </c>
       <c r="M22" t="str">
@@ -8959,7 +8956,7 @@
       <c r="C23" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="120" t="s">
         <v>929</v>
       </c>
       <c r="E23" s="40">
@@ -8983,7 +8980,7 @@
       <c r="K23" s="40" t="s">
         <v>792</v>
       </c>
-      <c r="L23" s="119">
+      <c r="L23" s="113">
         <v>63</v>
       </c>
       <c r="M23" t="str">
@@ -8998,7 +8995,7 @@
       <c r="C24" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="D24" s="160" t="s">
+      <c r="D24" s="120" t="s">
         <v>930</v>
       </c>
       <c r="E24" s="40">
@@ -9022,7 +9019,7 @@
       <c r="K24" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="L24" s="119">
+      <c r="L24" s="113">
         <v>64</v>
       </c>
       <c r="M24" t="str">
@@ -9037,7 +9034,7 @@
       <c r="C25" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="D25" s="160" t="s">
+      <c r="D25" s="120" t="s">
         <v>931</v>
       </c>
       <c r="E25" s="40">
@@ -9061,7 +9058,7 @@
       <c r="K25" s="40" t="s">
         <v>794</v>
       </c>
-      <c r="L25" s="119">
+      <c r="L25" s="113">
         <v>65</v>
       </c>
       <c r="M25" t="str">
@@ -9079,7 +9076,7 @@
       <c r="C26" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="120" t="s">
         <v>932</v>
       </c>
       <c r="E26" s="40">
@@ -9103,7 +9100,7 @@
       <c r="K26" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="L26" s="119">
+      <c r="L26" s="113">
         <v>66</v>
       </c>
       <c r="M26" t="str">
@@ -9121,7 +9118,7 @@
       <c r="C27" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="120" t="s">
         <v>933</v>
       </c>
       <c r="E27" s="40">
@@ -9145,7 +9142,7 @@
       <c r="K27" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="L27" s="119">
+      <c r="L27" s="113">
         <v>67</v>
       </c>
       <c r="M27" t="str">
@@ -9160,7 +9157,7 @@
       <c r="C28" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="120" t="s">
         <v>934</v>
       </c>
       <c r="E28" s="40">
@@ -9184,7 +9181,7 @@
       <c r="K28" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="L28" s="119">
+      <c r="L28" s="113">
         <v>68</v>
       </c>
       <c r="M28" t="str">
@@ -9199,7 +9196,7 @@
       <c r="C29" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="160" t="s">
+      <c r="D29" s="120" t="s">
         <v>935</v>
       </c>
       <c r="E29" s="40">
@@ -9223,7 +9220,7 @@
       <c r="K29" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="L29" s="119">
+      <c r="L29" s="113">
         <v>69</v>
       </c>
       <c r="M29" t="str">
@@ -9238,7 +9235,7 @@
       <c r="C30" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="120" t="s">
         <v>936</v>
       </c>
       <c r="E30" s="40">
@@ -9262,7 +9259,7 @@
       <c r="K30" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="L30" s="119">
+      <c r="L30" s="113">
         <v>70</v>
       </c>
       <c r="M30" t="str">
@@ -9277,7 +9274,7 @@
       <c r="C31" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="120" t="s">
         <v>937</v>
       </c>
       <c r="E31" s="40">
@@ -9301,7 +9298,7 @@
       <c r="K31" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="L31" s="119">
+      <c r="L31" s="113">
         <v>71</v>
       </c>
       <c r="M31" t="str">
@@ -9316,7 +9313,7 @@
       <c r="C32" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="D32" s="160" t="s">
+      <c r="D32" s="120" t="s">
         <v>938</v>
       </c>
       <c r="E32" s="40">
@@ -9340,7 +9337,7 @@
       <c r="K32" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="L32" s="119">
+      <c r="L32" s="113">
         <v>72</v>
       </c>
       <c r="M32" t="str">
@@ -9355,7 +9352,7 @@
       <c r="C33" s="40" t="s">
         <v>734</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="120" t="s">
         <v>939</v>
       </c>
       <c r="E33" s="40">
@@ -9379,7 +9376,7 @@
       <c r="K33" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="L33" s="119">
+      <c r="L33" s="113">
         <v>73</v>
       </c>
       <c r="M33" t="str">
@@ -9397,7 +9394,7 @@
       <c r="C34" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="120" t="s">
         <v>940</v>
       </c>
       <c r="E34" s="40">
@@ -9421,7 +9418,7 @@
       <c r="K34" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="L34" s="119">
+      <c r="L34" s="113">
         <v>74</v>
       </c>
       <c r="M34" t="str">
@@ -9439,7 +9436,7 @@
       <c r="C35" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="120" t="s">
         <v>941</v>
       </c>
       <c r="E35" s="40">
@@ -9463,7 +9460,7 @@
       <c r="K35" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="L35" s="119">
+      <c r="L35" s="113">
         <v>75</v>
       </c>
       <c r="M35" t="str">
@@ -9481,7 +9478,7 @@
       <c r="C36" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="120" t="s">
         <v>942</v>
       </c>
       <c r="E36" s="40">
@@ -9505,7 +9502,7 @@
       <c r="K36" s="40" t="s">
         <v>613</v>
       </c>
-      <c r="L36" s="119">
+      <c r="L36" s="113">
         <v>76</v>
       </c>
       <c r="M36" t="str">
@@ -9528,13 +9525,13 @@
     </row>
     <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="133" t="s">
+      <c r="C39" s="123" t="s">
         <v>625</v>
       </c>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -9585,7 +9582,7 @@
       <c r="B43" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="160" t="s">
+      <c r="C43" s="120" t="s">
         <v>728</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -9612,7 +9609,7 @@
       <c r="B44" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="160" t="s">
+      <c r="C44" s="120" t="s">
         <v>728</v>
       </c>
       <c r="D44" s="40" t="s">
@@ -9639,7 +9636,7 @@
       <c r="B45" s="40">
         <v>2</v>
       </c>
-      <c r="C45" s="160" t="s">
+      <c r="C45" s="120" t="s">
         <v>631</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -9666,7 +9663,7 @@
       <c r="B46" s="40">
         <v>3</v>
       </c>
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="120" t="s">
         <v>744</v>
       </c>
       <c r="D46" s="40" t="s">
@@ -9693,7 +9690,7 @@
       <c r="B47" s="40">
         <v>4</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="120" t="s">
         <v>745</v>
       </c>
       <c r="D47" s="40" t="s">
@@ -9720,7 +9717,7 @@
       <c r="B48" s="40">
         <v>5</v>
       </c>
-      <c r="C48" s="160" t="s">
+      <c r="C48" s="120" t="s">
         <v>746</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -9747,7 +9744,7 @@
       <c r="B49" s="40">
         <v>6</v>
       </c>
-      <c r="C49" s="160" t="s">
+      <c r="C49" s="120" t="s">
         <v>747</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -9774,7 +9771,7 @@
       <c r="B50" s="40">
         <v>7</v>
       </c>
-      <c r="C50" s="160" t="s">
+      <c r="C50" s="120" t="s">
         <v>748</v>
       </c>
       <c r="D50" s="40" t="s">
@@ -9801,7 +9798,7 @@
       <c r="B51" s="40">
         <v>8</v>
       </c>
-      <c r="C51" s="160" t="s">
+      <c r="C51" s="120" t="s">
         <v>749</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -9828,7 +9825,7 @@
       <c r="B52" s="40">
         <v>9</v>
       </c>
-      <c r="C52" s="160" t="s">
+      <c r="C52" s="120" t="s">
         <v>750</v>
       </c>
       <c r="D52" s="40" t="s">
@@ -9855,7 +9852,7 @@
       <c r="B53" s="40">
         <v>10</v>
       </c>
-      <c r="C53" s="160" t="s">
+      <c r="C53" s="120" t="s">
         <v>751</v>
       </c>
       <c r="D53" s="40" t="s">
@@ -9882,7 +9879,7 @@
       <c r="B54" s="40">
         <v>21</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="120" t="s">
         <v>752</v>
       </c>
       <c r="D54" s="40" t="s">
@@ -9909,7 +9906,7 @@
       <c r="B55" s="40">
         <v>22</v>
       </c>
-      <c r="C55" s="160" t="s">
+      <c r="C55" s="120" t="s">
         <v>878</v>
       </c>
       <c r="D55" s="40" t="s">
@@ -9936,7 +9933,7 @@
       <c r="B56" s="40">
         <v>23</v>
       </c>
-      <c r="C56" s="160" t="s">
+      <c r="C56" s="120" t="s">
         <v>754</v>
       </c>
       <c r="D56" s="40" t="s">
@@ -9963,7 +9960,7 @@
       <c r="B57" s="40">
         <v>24</v>
       </c>
-      <c r="C57" s="160" t="s">
+      <c r="C57" s="120" t="s">
         <v>755</v>
       </c>
       <c r="D57" s="40" t="s">
@@ -9990,7 +9987,7 @@
       <c r="B58" s="40">
         <v>25</v>
       </c>
-      <c r="C58" s="160" t="s">
+      <c r="C58" s="120" t="s">
         <v>756</v>
       </c>
       <c r="D58" s="40" t="s">
@@ -10017,7 +10014,7 @@
       <c r="B59" s="40">
         <v>26</v>
       </c>
-      <c r="C59" s="160" t="s">
+      <c r="C59" s="120" t="s">
         <v>757</v>
       </c>
       <c r="D59" s="40" t="s">
@@ -10044,7 +10041,7 @@
       <c r="B60" s="40">
         <v>27</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="120" t="s">
         <v>758</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -10071,7 +10068,7 @@
       <c r="B61" s="40">
         <v>28</v>
       </c>
-      <c r="C61" s="160" t="s">
+      <c r="C61" s="120" t="s">
         <v>759</v>
       </c>
       <c r="D61" s="40" t="s">
@@ -10098,7 +10095,7 @@
       <c r="B62" s="40" t="s">
         <v>817</v>
       </c>
-      <c r="C62" s="160" t="s">
+      <c r="C62" s="120" t="s">
         <v>632</v>
       </c>
       <c r="D62" s="40" t="s">
@@ -10125,7 +10122,7 @@
       <c r="B63" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="C63" s="159" t="s">
+      <c r="C63" s="119" t="s">
         <v>632</v>
       </c>
       <c r="D63" s="40" t="s">
@@ -10152,7 +10149,7 @@
       <c r="B64" s="40">
         <v>30</v>
       </c>
-      <c r="C64" s="160" t="s">
+      <c r="C64" s="120" t="s">
         <v>634</v>
       </c>
       <c r="D64" s="40" t="s">
@@ -10174,13 +10171,13 @@
     </row>
     <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
-      <c r="C68" s="133" t="s">
+      <c r="C68" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="123"/>
     </row>
     <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
@@ -10222,7 +10219,7 @@
       <c r="B72" s="40">
         <v>1</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="120" t="s">
         <v>728</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -10234,11 +10231,11 @@
       <c r="F72">
         <v>44</v>
       </c>
-      <c r="G72" s="104">
+      <c r="G72" s="155">
         <v>44197</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(C72,", ",D72,", ",E72,", ",TEXT(G72,"DD/MM/AAAA"))</f>
+        <f t="shared" ref="H72:H111" si="2">CONCATENATE(C72,", ",D72,", ",E72,", ",TEXT(G72,"DD/MM/AAAA"))</f>
         <v>madalena@gmail.com, CC-001, GP_001_4, 01/01/Friday</v>
       </c>
     </row>
@@ -10246,7 +10243,7 @@
       <c r="B73" s="40">
         <v>2</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="120" t="s">
         <v>631</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -10258,11 +10255,11 @@
       <c r="F73">
         <v>44</v>
       </c>
-      <c r="G73" s="104">
+      <c r="G73" s="155">
         <v>44198</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(C73,", ",D73,", ",E73,", ",TEXT(G73,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>antonio@gmail.com, CC-001, GP_001_4, 02/01/Saturday</v>
       </c>
     </row>
@@ -10270,7 +10267,7 @@
       <c r="B74" s="40">
         <v>3</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="120" t="s">
         <v>744</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -10282,11 +10279,11 @@
       <c r="F74">
         <v>44</v>
       </c>
-      <c r="G74" s="104">
+      <c r="G74" s="155">
         <v>44199</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(C74,", ",D74,", ",E74,", ",TEXT(G74,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>afonso@gmail.com, CC-001, GP_001_4, 03/01/Sunday</v>
       </c>
     </row>
@@ -10294,7 +10291,7 @@
       <c r="B75" s="40">
         <v>4</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="120" t="s">
         <v>745</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -10306,11 +10303,11 @@
       <c r="F75">
         <v>44</v>
       </c>
-      <c r="G75" s="104">
+      <c r="G75" s="155">
         <v>44200</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(C75,", ",D75,", ",E75,", ",TEXT(G75,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>alberto@gmail.com, CC-001, GP_001_4, 04/01/Monday</v>
       </c>
     </row>
@@ -10318,7 +10315,7 @@
       <c r="B76" s="40">
         <v>5</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="120" t="s">
         <v>746</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -10330,11 +10327,11 @@
       <c r="F76">
         <v>43</v>
       </c>
-      <c r="G76" s="104">
+      <c r="G76" s="155">
         <v>44201</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(C76,", ",D76,", ",E76,", ",TEXT(G76,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>carolina@gmail.com, CC-001, GP_001_3, 05/01/Tuesday</v>
       </c>
     </row>
@@ -10342,7 +10339,7 @@
       <c r="B77" s="40">
         <v>6</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="120" t="s">
         <v>747</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -10354,11 +10351,11 @@
       <c r="F77">
         <v>43</v>
       </c>
-      <c r="G77" s="104">
+      <c r="G77" s="155">
         <v>44202</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(C77,", ",D77,", ",E77,", ",TEXT(G77,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>lourdes@gmail.com, CC-001, GP_001_3, 06/01/Wednesday</v>
       </c>
     </row>
@@ -10366,7 +10363,7 @@
       <c r="B78" s="40">
         <v>7</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="120" t="s">
         <v>748</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -10378,11 +10375,11 @@
       <c r="F78">
         <v>42</v>
       </c>
-      <c r="G78" s="104">
+      <c r="G78" s="155">
         <v>44203</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(C78,", ",D78,", ",E78,", ",TEXT(G78,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>isabel@gmail.com, CC-001, GP_001_2, 07/01/Thursday</v>
       </c>
     </row>
@@ -10390,7 +10387,7 @@
       <c r="B79" s="40">
         <v>8</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="120" t="s">
         <v>749</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -10402,11 +10399,11 @@
       <c r="F79">
         <v>42</v>
       </c>
-      <c r="G79" s="104">
+      <c r="G79" s="155">
         <v>44204</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(C79,", ",D79,", ",E79,", ",TEXT(G79,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>arnaldo@gmail.com, CC-001, GP_001_2, 08/01/Friday</v>
       </c>
     </row>
@@ -10414,7 +10411,7 @@
       <c r="B80" s="40">
         <v>9</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="120" t="s">
         <v>750</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -10426,11 +10423,11 @@
       <c r="F80">
         <v>41</v>
       </c>
-      <c r="G80" s="104">
+      <c r="G80" s="155">
         <v>44205</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(C80,", ",D80,", ",E80,", ",TEXT(G80,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>alexandre@gmail.com, CC-001, GP_001_1, 09/01/Saturday</v>
       </c>
     </row>
@@ -10438,7 +10435,7 @@
       <c r="B81" s="40">
         <v>10</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="120" t="s">
         <v>751</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -10450,11 +10447,11 @@
       <c r="F81">
         <v>41</v>
       </c>
-      <c r="G81" s="104">
+      <c r="G81" s="155">
         <v>44206</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(C81,", ",D81,", ",E81,", ",TEXT(G81,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>paulo@gmail.com, CC-001, GP_001_1, 10/01/Sunday</v>
       </c>
     </row>
@@ -10462,7 +10459,7 @@
       <c r="B82" s="40">
         <v>11</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="120" t="s">
         <v>736</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -10474,11 +10471,11 @@
       <c r="F82">
         <v>48</v>
       </c>
-      <c r="G82" s="104">
+      <c r="G82" s="155">
         <v>44207</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(C82,", ",D82,", ",E82,", ",TEXT(G82,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>ana@gmail.com, CC-002, GP_003_1, 11/01/Monday</v>
       </c>
     </row>
@@ -10486,7 +10483,7 @@
       <c r="B83" s="40">
         <v>12</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="120" t="s">
         <v>737</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -10498,11 +10495,11 @@
       <c r="F83">
         <v>48</v>
       </c>
-      <c r="G83" s="104">
+      <c r="G83" s="155">
         <v>44208</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(C83,", ",D83,", ",E83,", ",TEXT(G83,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>bruno@gmail.com, CC-002, GP_003_1, 12/01/Tuesday</v>
       </c>
     </row>
@@ -10510,7 +10507,7 @@
       <c r="B84" s="40">
         <v>13</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="120" t="s">
         <v>877</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -10522,11 +10519,11 @@
       <c r="F84">
         <v>48</v>
       </c>
-      <c r="G84" s="104">
+      <c r="G84" s="155">
         <v>44209</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(C84,", ",D84,", ",E84,", ",TEXT(G84,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>joao@gmail.com, CC-002, GP_003_1, 13/01/Wednesday</v>
       </c>
     </row>
@@ -10534,7 +10531,7 @@
       <c r="B85" s="40">
         <v>14</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="120" t="s">
         <v>739</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -10546,11 +10543,11 @@
       <c r="F85">
         <v>48</v>
       </c>
-      <c r="G85" s="104">
+      <c r="G85" s="155">
         <v>44210</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(C85,", ",D85,", ",E85,", ",TEXT(G85,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>catarina@gmail.com, CC-002, GP_003_1, 14/01/Thursday</v>
       </c>
     </row>
@@ -10558,7 +10555,7 @@
       <c r="B86" s="40">
         <v>15</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="120" t="s">
         <v>740</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -10570,11 +10567,11 @@
       <c r="F86">
         <v>49</v>
       </c>
-      <c r="G86" s="104">
+      <c r="G86" s="155">
         <v>44211</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(C86,", ",D86,", ",E86,", ",TEXT(G86,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>daniel@gmail.com, CC-002, GP_003_2, 15/01/Friday</v>
       </c>
     </row>
@@ -10582,7 +10579,7 @@
       <c r="B87" s="40">
         <v>16</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="120" t="s">
         <v>741</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -10594,11 +10591,11 @@
       <c r="F87">
         <v>49</v>
       </c>
-      <c r="G87" s="104">
+      <c r="G87" s="155">
         <v>44212</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(C87,", ",D87,", ",E87,", ",TEXT(G87,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>fernando@gmail.com, CC-002, GP_003_2, 16/01/Saturday</v>
       </c>
     </row>
@@ -10606,7 +10603,7 @@
       <c r="B88" s="40">
         <v>17</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="120" t="s">
         <v>742</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -10618,11 +10615,11 @@
       <c r="F88">
         <v>49</v>
       </c>
-      <c r="G88" s="104">
+      <c r="G88" s="155">
         <v>44213</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(C88,", ",D88,", ",E88,", ",TEXT(G88,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>joana@gmail.com, CC-002, GP_003_2, 17/01/Sunday</v>
       </c>
     </row>
@@ -10630,7 +10627,7 @@
       <c r="B89" s="40">
         <v>18</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="120" t="s">
         <v>729</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -10642,11 +10639,11 @@
       <c r="F89">
         <v>49</v>
       </c>
-      <c r="G89" s="104">
+      <c r="G89" s="155">
         <v>44214</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(C89,", ",D89,", ",E89,", ",TEXT(G89,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>maria@gmail.com, CC-002, GP_003_3, 18/01/Monday</v>
       </c>
     </row>
@@ -10654,7 +10651,7 @@
       <c r="B90" s="40">
         <v>19</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="120" t="s">
         <v>879</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -10666,11 +10663,11 @@
       <c r="F90">
         <v>49</v>
       </c>
-      <c r="G90" s="104">
+      <c r="G90" s="155">
         <v>44215</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(C90,", ",D90,", ",E90,", ",TEXT(G90,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>goncalo@gmail.com, CC-002, GP_003_3, 19/01/Tuesday</v>
       </c>
     </row>
@@ -10678,7 +10675,7 @@
       <c r="B91" s="40">
         <v>20</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="120" t="s">
         <v>730</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -10690,19 +10687,19 @@
       <c r="F91">
         <v>49</v>
       </c>
-      <c r="G91" s="104">
+      <c r="G91" s="155">
         <v>44216</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(C91,", ",D91,", ",E91,", ",TEXT(G91,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>matias@gmail.com, CC-002, GP_003_3, 20/01/Wednesday</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="138">
+      <c r="B92" s="134">
         <v>21</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="120" t="s">
         <v>752</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -10714,17 +10711,17 @@
       <c r="F92">
         <v>45</v>
       </c>
-      <c r="G92" s="104">
+      <c r="G92" s="155">
         <v>44217</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(C92,", ",D92,", ",E92,", ",TEXT(G92,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>jorge@gmail.com, CC-003, GP_002_1, 21/01/Thursday</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="139"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="135"/>
+      <c r="C93" s="120" t="s">
         <v>752</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -10736,19 +10733,19 @@
       <c r="F93">
         <v>53</v>
       </c>
-      <c r="G93" s="104">
+      <c r="G93" s="155">
         <v>44217</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(C93,", ",D93,", ",E93,", ",TEXT(G93,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>jorge@gmail.com, CC-004, GP_002_3, 21/01/Thursday</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="138">
+      <c r="B94" s="134">
         <v>22</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="120" t="s">
         <v>878</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -10760,17 +10757,17 @@
       <c r="F94">
         <v>45</v>
       </c>
-      <c r="G94" s="104">
+      <c r="G94" s="155">
         <v>44219</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(C94,", ",D94,", ",E94,", ",TEXT(G94,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>julio@gmail.com, CC-003, GP_002_1, 23/01/Saturday</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="139"/>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="135"/>
+      <c r="C95" s="120" t="s">
         <v>753</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -10782,19 +10779,19 @@
       <c r="F95">
         <v>53</v>
       </c>
-      <c r="G95" s="104">
+      <c r="G95" s="155">
         <v>44219</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(C95,", ",D95,", ",E95,", ",TEXT(G95,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>júlio@gmail.com, CC-004, GP_002_3, 23/01/Saturday</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="138">
+      <c r="B96" s="134">
         <v>23</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="120" t="s">
         <v>754</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -10806,17 +10803,17 @@
       <c r="F96">
         <v>45</v>
       </c>
-      <c r="G96" s="104">
+      <c r="G96" s="155">
         <v>44221</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(C96,", ",D96,", ",E96,", ",TEXT(G96,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>emanuel@gmail.com, CC-003, GP_002_1, 25/01/Monday</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="139"/>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="135"/>
+      <c r="C97" s="120" t="s">
         <v>754</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -10828,19 +10825,19 @@
       <c r="F97">
         <v>53</v>
       </c>
-      <c r="G97" s="104">
+      <c r="G97" s="155">
         <v>44221</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(C97,", ",D97,", ",E97,", ",TEXT(G97,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>emanuel@gmail.com, CC-004, GP_002_3, 25/01/Monday</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="138">
+      <c r="B98" s="134">
         <v>24</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="120" t="s">
         <v>755</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -10852,17 +10849,17 @@
       <c r="F98">
         <v>46</v>
       </c>
-      <c r="G98" s="104">
+      <c r="G98" s="155">
         <v>44223</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(C98,", ",D98,", ",E98,", ",TEXT(G98,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>rosa@gmail.com, CC-003, GP_002_2, 27/01/Wednesday</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="139"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="135"/>
+      <c r="C99" s="120" t="s">
         <v>755</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -10874,19 +10871,19 @@
       <c r="F99">
         <v>52</v>
       </c>
-      <c r="G99" s="104">
+      <c r="G99" s="155">
         <v>44223</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(C99,", ",D99,", ",E99,", ",TEXT(G99,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>rosa@gmail.com, CC-004, GP_002_2, 27/01/Wednesday</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="138">
+      <c r="B100" s="134">
         <v>25</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="120" t="s">
         <v>756</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -10898,17 +10895,17 @@
       <c r="F100">
         <v>46</v>
       </c>
-      <c r="G100" s="104">
+      <c r="G100" s="155">
         <v>44225</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(C100,", ",D100,", ",E100,", ",TEXT(G100,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>rita@gmail.com, CC-003, GP_002_2, 29/01/Friday</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="139"/>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="135"/>
+      <c r="C101" s="120" t="s">
         <v>756</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -10920,19 +10917,19 @@
       <c r="F101">
         <v>52</v>
       </c>
-      <c r="G101" s="104">
+      <c r="G101" s="155">
         <v>44225</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(C101,", ",D101,", ",E101,", ",TEXT(G101,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>rita@gmail.com, CC-004, GP_002_2, 29/01/Friday</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="138">
+      <c r="B102" s="134">
         <v>26</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="120" t="s">
         <v>757</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -10944,17 +10941,17 @@
       <c r="F102">
         <v>46</v>
       </c>
-      <c r="G102" s="104">
+      <c r="G102" s="155">
         <v>44227</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(C102,", ",D102,", ",E102,", ",TEXT(G102,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>francisca@gmail.com, CC-003, GP_002_2, 31/01/Sunday</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="139"/>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="135"/>
+      <c r="C103" s="120" t="s">
         <v>757</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -10966,19 +10963,19 @@
       <c r="F103">
         <v>52</v>
       </c>
-      <c r="G103" s="104">
+      <c r="G103" s="155">
         <v>44227</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(C103,", ",D103,", ",E103,", ",TEXT(G103,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>francisca@gmail.com, CC-004, GP_002_2, 31/01/Sunday</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="138">
+      <c r="B104" s="134">
         <v>27</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="120" t="s">
         <v>758</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -10990,17 +10987,17 @@
       <c r="F104">
         <v>46</v>
       </c>
-      <c r="G104" s="104">
+      <c r="G104" s="155">
         <v>44229</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(C104,", ",D104,", ",E104,", ",TEXT(G104,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>carla@gmail.com, CC-003, GP_002_2, 02/02/Tuesday</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="139"/>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="135"/>
+      <c r="C105" s="120" t="s">
         <v>758</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -11012,19 +11009,19 @@
       <c r="F105">
         <v>51</v>
       </c>
-      <c r="G105" s="104">
+      <c r="G105" s="155">
         <v>44229</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(C105,", ",D105,", ",E105,", ",TEXT(G105,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>carla@gmail.com, CC-004, GP_002_1, 02/02/Tuesday</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="138">
+      <c r="B106" s="134">
         <v>28</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="120" t="s">
         <v>759</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -11036,17 +11033,17 @@
       <c r="F106">
         <v>47</v>
       </c>
-      <c r="G106" s="104">
+      <c r="G106" s="155">
         <v>44231</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(C106,", ",D106,", ",E106,", ",TEXT(G106,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>armando@gmail.com, CC-003, GP_002_3, 04/02/Thursday</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="139"/>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="135"/>
+      <c r="C107" s="120" t="s">
         <v>759</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -11058,19 +11055,19 @@
       <c r="F107">
         <v>51</v>
       </c>
-      <c r="G107" s="104">
+      <c r="G107" s="155">
         <v>44231</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(C107,", ",D107,", ",E107,", ",TEXT(G107,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>armando@gmail.com, CC-004, GP_002_1, 04/02/Thursday</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="138">
+      <c r="B108" s="134">
         <v>29</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="120" t="s">
         <v>632</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -11082,17 +11079,17 @@
       <c r="F108">
         <v>47</v>
       </c>
-      <c r="G108" s="104">
+      <c r="G108" s="155">
         <v>44233</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(C108,", ",D108,", ",E108,", ",TEXT(G108,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>jose@gmail.com, CC-003, GP_002_3, 06/02/Saturday</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="139"/>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="135"/>
+      <c r="C109" s="120" t="s">
         <v>632</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -11104,19 +11101,19 @@
       <c r="F109">
         <v>51</v>
       </c>
-      <c r="G109" s="104">
+      <c r="G109" s="155">
         <v>44233</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(C109,", ",D109,", ",E109,", ",TEXT(G109,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>jose@gmail.com, CC-004, GP_002_1, 06/02/Saturday</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="138">
+      <c r="B110" s="134">
         <v>30</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="120" t="s">
         <v>634</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -11128,17 +11125,17 @@
       <c r="F110">
         <v>47</v>
       </c>
-      <c r="G110" s="104">
+      <c r="G110" s="155">
         <v>44235</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(C110,", ",D110,", ",E110,", ",TEXT(G110,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>joaquim@gmail.com, CC-003, GP_002_3, 08/02/Monday</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="139"/>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="135"/>
+      <c r="C111" s="120" t="s">
         <v>634</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -11150,22 +11147,17 @@
       <c r="F111">
         <v>53</v>
       </c>
-      <c r="G111" s="104">
+      <c r="G111" s="155">
         <v>44235</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(C111,", ",D111,", ",E111,", ",TEXT(G111,"DD/MM/AAAA"))</f>
+        <f t="shared" si="2"/>
         <v>joaquim@gmail.com, CC-004, GP_002_3, 08/02/Monday</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B71:F111" xr:uid="{DE5F5F80-836B-41FC-A793-6D21B74ED654}"/>
   <mergeCells count="14">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C39:G39"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B97"/>
@@ -11175,39 +11167,14 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" xr:uid="{DE9910EB-3759-4C0D-9807-DEC4661C3F82}"/>
-    <hyperlink ref="C73" r:id="rId2" xr:uid="{0FA3F088-FCA2-4952-A44F-5445DB450E0F}"/>
-    <hyperlink ref="C108" r:id="rId3" xr:uid="{A7862249-A33E-4E2F-92D9-63D96EDF52B8}"/>
-    <hyperlink ref="C110" r:id="rId4" xr:uid="{7F869CC4-7BFD-4D4E-96B0-164597FC58F2}"/>
-    <hyperlink ref="C82" r:id="rId5" xr:uid="{6226ADA8-3897-4EAF-A920-3F45FC5372C1}"/>
-    <hyperlink ref="C83" r:id="rId6" xr:uid="{B52CF669-9BE7-4EC3-B832-8F63F39C4826}"/>
-    <hyperlink ref="C84" r:id="rId7" xr:uid="{20985C35-D262-44F7-9B0C-0B1C9957517E}"/>
-    <hyperlink ref="C85" r:id="rId8" xr:uid="{95F9D3BA-5BB4-4E76-BF7C-A05B1E2D85E0}"/>
-    <hyperlink ref="C86" r:id="rId9" xr:uid="{B7557E83-1AD5-4E25-A957-3FB0E702B50C}"/>
-    <hyperlink ref="C87" r:id="rId10" xr:uid="{33DF1F30-3582-4C27-9737-53D02525DF68}"/>
-    <hyperlink ref="C88" r:id="rId11" xr:uid="{0F5E1C1B-5C3C-428E-AF8A-E932D0F1F172}"/>
-    <hyperlink ref="C89" r:id="rId12" xr:uid="{A36C9EE5-B6D7-473F-9B0F-DE4C6B5A0EA2}"/>
-    <hyperlink ref="C90" r:id="rId13" xr:uid="{A57F423C-33D0-4AF9-8187-9D9C5EDA3AE5}"/>
-    <hyperlink ref="C91" r:id="rId14" xr:uid="{63587AB1-C0E7-48A7-B1D7-6D8E1BA17AE2}"/>
-    <hyperlink ref="C74" r:id="rId15" xr:uid="{C93DB6EA-1949-4321-A5F1-DC692B66DAA7}"/>
-    <hyperlink ref="C75" r:id="rId16" xr:uid="{949A0A8F-D058-4608-A4CD-1E24854B8426}"/>
-    <hyperlink ref="C76" r:id="rId17" xr:uid="{CAF6CF04-9B0C-40C3-9F8E-6C7316B7870B}"/>
-    <hyperlink ref="C77" r:id="rId18" xr:uid="{BE076B29-3DA8-4D38-821D-213FA3289E88}"/>
-    <hyperlink ref="C78" r:id="rId19" xr:uid="{AD174818-A2DC-4DCE-9652-226BA70147BA}"/>
-    <hyperlink ref="C79" r:id="rId20" xr:uid="{545C198F-A427-479F-A352-6D0661ECD3D4}"/>
-    <hyperlink ref="C80" r:id="rId21" xr:uid="{A184233B-7D5C-439E-BA73-724EE35D6A4A}"/>
-    <hyperlink ref="C81" r:id="rId22" xr:uid="{9039B152-0CA0-444C-A258-2BD4AC82E10B}"/>
-    <hyperlink ref="C92" r:id="rId23" xr:uid="{32CEA70C-7967-4C92-98D6-D60F381A0E23}"/>
-    <hyperlink ref="C94" r:id="rId24" xr:uid="{0AC1706B-6321-450F-AE05-C70D81D2D313}"/>
-    <hyperlink ref="C96" r:id="rId25" xr:uid="{44A21D7A-2DD3-4E5B-8FB2-C56A94E36EBB}"/>
-    <hyperlink ref="C98" r:id="rId26" xr:uid="{CF053857-5B1C-417B-9814-3C9A7EBB0F5D}"/>
-    <hyperlink ref="C100" r:id="rId27" xr:uid="{980FE033-8E99-4F7B-9127-197DC112B8AE}"/>
-    <hyperlink ref="C102" r:id="rId28" xr:uid="{07EB5D1C-0AB2-4D2F-BB61-6AC4D1BD3A09}"/>
-    <hyperlink ref="C104" r:id="rId29" xr:uid="{96144497-B681-4C60-9D09-697FAA085326}"/>
-    <hyperlink ref="C106" r:id="rId30" xr:uid="{4C14B488-CB5F-4710-BDCA-92BBC548BD65}"/>
     <hyperlink ref="D72" location="AreaAtividade_BD!C21" display="CC-001" xr:uid="{FE20F8CB-2F12-42A2-A7AD-47CE6B7466E2}"/>
     <hyperlink ref="D73" location="AreaAtividade_BD!C21" display="CC-001" xr:uid="{BF96E352-70A4-4072-8867-2EE1530C0A1B}"/>
     <hyperlink ref="D74" location="AreaAtividade_BD!C21" display="CC-001" xr:uid="{6CD287D8-1B2C-435F-BAF6-4EEC17E89AFE}"/>
@@ -11229,17 +11196,7 @@
     <hyperlink ref="D90" location="AreaAtividade_BD!C22" display="CC-002" xr:uid="{DDE9147D-F481-4F5E-AC11-CE6DFC906287}"/>
     <hyperlink ref="D91" location="AreaAtividade_BD!C22" display="CC-002" xr:uid="{38CE29C8-04EF-41AC-99B3-597AE82C568A}"/>
     <hyperlink ref="D92" location="AreaAtividade_BD!C23" display="CC-003" xr:uid="{C4772F8B-6278-4710-8D69-4BF1B1E8E895}"/>
-    <hyperlink ref="C93" r:id="rId31" xr:uid="{717B24DC-8524-4046-BFFD-57D2A69F9C06}"/>
     <hyperlink ref="D93" location="AreaAtividade_BD!C24" display="CC-004" xr:uid="{2B679A3E-EFD3-46C5-8CCF-AF9F101B9AB3}"/>
-    <hyperlink ref="C111" r:id="rId32" xr:uid="{1CEC8B68-8F96-40BA-9CE2-D66B705B9FE5}"/>
-    <hyperlink ref="C95" r:id="rId33" xr:uid="{49DACD8E-6797-4482-B527-1DBB333A6639}"/>
-    <hyperlink ref="C97" r:id="rId34" xr:uid="{611057E4-AA9A-4C6F-B6C8-C79E8D225292}"/>
-    <hyperlink ref="C99" r:id="rId35" xr:uid="{F0E900E5-3984-4E4B-8727-3B37588E15A1}"/>
-    <hyperlink ref="C101" r:id="rId36" xr:uid="{9E6D63CF-707D-4FB6-B781-3442F5C4B23A}"/>
-    <hyperlink ref="C103" r:id="rId37" xr:uid="{EED732B6-3150-403C-8815-95403E138C4B}"/>
-    <hyperlink ref="C105" r:id="rId38" xr:uid="{4A40E71D-578D-4B66-9061-E2DF2D1BBB9B}"/>
-    <hyperlink ref="C107" r:id="rId39" xr:uid="{CD750832-B3B9-4165-9B89-B1581E602AA5}"/>
-    <hyperlink ref="C109" r:id="rId40" xr:uid="{1679F4BF-FBA6-4CC7-ACF8-C8D91578191B}"/>
     <hyperlink ref="D94" location="AreaAtividade_BD!C23" display="CC-003" xr:uid="{FD8949C8-9EC5-419D-8409-3AB05F0EB765}"/>
     <hyperlink ref="D95" location="AreaAtividade_BD!C24" display="CC-004" xr:uid="{F7540C55-82F7-4F49-BF39-4D7DF9A1FB4D}"/>
     <hyperlink ref="D96" location="AreaAtividade_BD!C23" display="CC-003" xr:uid="{1DF8DAE9-71F9-446C-A48D-85ECBEA94B33}"/>
@@ -11298,57 +11255,97 @@
     <hyperlink ref="E107" location="AreaAtividade_BD!D33" display="GP_002_1" xr:uid="{CF3B8548-89EE-4877-B974-F57C8D459A2B}"/>
     <hyperlink ref="E109" location="AreaAtividade_BD!D33" display="GP_002_1" xr:uid="{F79EBF94-00E1-4756-A316-F8F608127960}"/>
     <hyperlink ref="E111" location="AreaAtividade_BD!D35" display="GP_002_3" xr:uid="{46F5F09E-8301-483B-A662-84181CCD9DBB}"/>
-    <hyperlink ref="D7" r:id="rId41" xr:uid="{10C8B368-A445-424D-B2F1-72595C58F28E}"/>
-    <hyperlink ref="D8" r:id="rId42" xr:uid="{8487EF32-FAF9-4C96-AD59-B206070A9BA4}"/>
-    <hyperlink ref="D9" r:id="rId43" xr:uid="{06CDF1A7-EF19-48F0-84B1-9A24EC809CBA}"/>
-    <hyperlink ref="D10" r:id="rId44" xr:uid="{05F79617-4ADF-4DC4-9DD6-1166E90CE203}"/>
-    <hyperlink ref="D11" r:id="rId45" xr:uid="{1E2203D2-86DD-4481-A2B5-2B41256D80A2}"/>
-    <hyperlink ref="D12" r:id="rId46" xr:uid="{6D35F942-72E7-4235-99CD-1458273C6A71}"/>
-    <hyperlink ref="D13" r:id="rId47" xr:uid="{FC5AD4E9-B803-4532-9B09-69D10AF850DC}"/>
-    <hyperlink ref="D14" r:id="rId48" xr:uid="{CD20EFC2-2AD8-4A9C-B31F-03B94DBC61D8}"/>
-    <hyperlink ref="D15" r:id="rId49" xr:uid="{D0FB8A0B-9CD9-4D13-B4B6-B4830E2FC76B}"/>
-    <hyperlink ref="D16" r:id="rId50" xr:uid="{2821F25F-F498-4461-B519-9308FA595A5E}"/>
-    <hyperlink ref="D17" r:id="rId51" xr:uid="{23DDF736-6D8E-4149-AF9A-4F7B3BB09818}"/>
-    <hyperlink ref="D18" r:id="rId52" xr:uid="{D5E8225D-4DCD-4BA0-A3B5-97C9115B6B13}"/>
-    <hyperlink ref="D19" r:id="rId53" xr:uid="{77FB8095-A911-452A-82D6-6C066538C234}"/>
-    <hyperlink ref="D20" r:id="rId54" xr:uid="{8B9F8F69-2415-4B4A-8AA3-B809A36C99B1}"/>
-    <hyperlink ref="D21" r:id="rId55" xr:uid="{F917D135-B509-4541-A4BD-0D52308BCB2B}"/>
-    <hyperlink ref="D22" r:id="rId56" xr:uid="{5DF54EC8-24D7-458E-9F36-C497C5F7160A}"/>
-    <hyperlink ref="D23" r:id="rId57" xr:uid="{E42EDCEC-29F2-43BE-8DEF-DB3AF925469D}"/>
-    <hyperlink ref="D24" r:id="rId58" xr:uid="{BE4335A6-BC5A-4910-BF6B-6E5840AEAC4E}"/>
-    <hyperlink ref="D25" r:id="rId59" xr:uid="{0345B6F1-185B-4412-95D2-A73529E0373C}"/>
-    <hyperlink ref="D26" r:id="rId60" xr:uid="{AC3BBCD4-5441-4E0E-92CB-7047D73653AA}"/>
-    <hyperlink ref="D27" r:id="rId61" xr:uid="{C7C78400-4E3D-4B79-B2EE-3234F2263A4F}"/>
-    <hyperlink ref="D28" r:id="rId62" xr:uid="{CD42E94C-30D3-40A8-A8C1-47D799FA4CE5}"/>
-    <hyperlink ref="D29" r:id="rId63" xr:uid="{DFE9B89E-F345-43AA-9F58-5F6D6F0E6C15}"/>
-    <hyperlink ref="D30" r:id="rId64" xr:uid="{6A2D050C-0B98-488F-922D-D2ED82FC9724}"/>
-    <hyperlink ref="D31" r:id="rId65" xr:uid="{A52E1122-BF87-48B6-A9C1-F0D0F84A8262}"/>
-    <hyperlink ref="D32" r:id="rId66" xr:uid="{9CF483C6-5A52-4AC3-9448-C82E5085F14F}"/>
-    <hyperlink ref="D33" r:id="rId67" xr:uid="{3816D31A-B110-4D11-A02F-3E781561674B}"/>
-    <hyperlink ref="D34" r:id="rId68" xr:uid="{01A08DED-B652-4819-B85E-8F057D5A3726}"/>
-    <hyperlink ref="D35" r:id="rId69" xr:uid="{AC55CF8A-413E-4A6C-8A5A-8C561C68967A}"/>
-    <hyperlink ref="D36" r:id="rId70" xr:uid="{7503C753-EA56-4C00-B014-C8C897A5C069}"/>
-    <hyperlink ref="C43" r:id="rId71" xr:uid="{86518630-5531-4263-928F-E1B88189DD57}"/>
-    <hyperlink ref="C44" r:id="rId72" xr:uid="{D5B8A3FF-E819-413C-927B-4BA2D18962CF}"/>
-    <hyperlink ref="C45" r:id="rId73" xr:uid="{9F99327F-F66B-476A-95E7-2F4BD758FDCA}"/>
-    <hyperlink ref="C46" r:id="rId74" xr:uid="{3F3ACF8D-4EF6-4CD9-9CD2-0FA9A327C041}"/>
-    <hyperlink ref="C47" r:id="rId75" xr:uid="{C2F16E95-FD89-440D-9859-BC2FB074A26C}"/>
-    <hyperlink ref="C48" r:id="rId76" xr:uid="{AC5DCE36-B82D-4042-BB67-2365EBFC7F3F}"/>
-    <hyperlink ref="C49" r:id="rId77" xr:uid="{BBEEA3FB-0E45-4482-AF1A-87E5D837E14B}"/>
-    <hyperlink ref="C50" r:id="rId78" xr:uid="{6B1B6FA6-C857-471A-ADC5-313D467767C0}"/>
-    <hyperlink ref="C51" r:id="rId79" xr:uid="{669ADDFE-4A2A-4632-95DF-74023B48ADB6}"/>
-    <hyperlink ref="C52" r:id="rId80" xr:uid="{D22EF704-4FB2-400C-8886-3183279858B1}"/>
-    <hyperlink ref="C53" r:id="rId81" xr:uid="{EBEA1E4B-0603-4C96-81DA-5D6FEFC0A788}"/>
-    <hyperlink ref="C54" r:id="rId82" xr:uid="{BFD0A85D-E54E-43CE-BE8B-31F907614856}"/>
-    <hyperlink ref="C55" r:id="rId83" xr:uid="{31B244AE-EDED-4214-A781-BB1ADFB92B50}"/>
-    <hyperlink ref="C56" r:id="rId84" xr:uid="{3E9807E3-DCDC-4BCF-97C9-269A06689F51}"/>
-    <hyperlink ref="C57" r:id="rId85" xr:uid="{D6CFA9F1-450D-4CBC-9C90-1CCCDF815F03}"/>
-    <hyperlink ref="C58" r:id="rId86" xr:uid="{1FC8F5AA-2BF8-4A74-8371-B1434CF7A5C1}"/>
-    <hyperlink ref="C59" r:id="rId87" xr:uid="{3B8A70AD-5C8A-48A3-B074-A5FA20E3B34B}"/>
-    <hyperlink ref="C60" r:id="rId88" xr:uid="{F1324AEF-9E5F-43C0-92D6-32F48D96F684}"/>
-    <hyperlink ref="C61" r:id="rId89" xr:uid="{FAA1F5BB-CF80-4751-B146-6236B22F8922}"/>
-    <hyperlink ref="C62" r:id="rId90" xr:uid="{742D89B3-9956-4890-960F-93F703314DBD}"/>
-    <hyperlink ref="C64" r:id="rId91" xr:uid="{EDF08013-430E-4BE6-878B-FD6D7D995889}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{10C8B368-A445-424D-B2F1-72595C58F28E}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{8487EF32-FAF9-4C96-AD59-B206070A9BA4}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{06CDF1A7-EF19-48F0-84B1-9A24EC809CBA}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{05F79617-4ADF-4DC4-9DD6-1166E90CE203}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{1E2203D2-86DD-4481-A2B5-2B41256D80A2}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{6D35F942-72E7-4235-99CD-1458273C6A71}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{FC5AD4E9-B803-4532-9B09-69D10AF850DC}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{CD20EFC2-2AD8-4A9C-B31F-03B94DBC61D8}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{D0FB8A0B-9CD9-4D13-B4B6-B4830E2FC76B}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{2821F25F-F498-4461-B519-9308FA595A5E}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{23DDF736-6D8E-4149-AF9A-4F7B3BB09818}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{D5E8225D-4DCD-4BA0-A3B5-97C9115B6B13}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{77FB8095-A911-452A-82D6-6C066538C234}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{8B9F8F69-2415-4B4A-8AA3-B809A36C99B1}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{F917D135-B509-4541-A4BD-0D52308BCB2B}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{5DF54EC8-24D7-458E-9F36-C497C5F7160A}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{E42EDCEC-29F2-43BE-8DEF-DB3AF925469D}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{BE4335A6-BC5A-4910-BF6B-6E5840AEAC4E}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{0345B6F1-185B-4412-95D2-A73529E0373C}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{AC3BBCD4-5441-4E0E-92CB-7047D73653AA}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{C7C78400-4E3D-4B79-B2EE-3234F2263A4F}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{CD42E94C-30D3-40A8-A8C1-47D799FA4CE5}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{DFE9B89E-F345-43AA-9F58-5F6D6F0E6C15}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{6A2D050C-0B98-488F-922D-D2ED82FC9724}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{A52E1122-BF87-48B6-A9C1-F0D0F84A8262}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{9CF483C6-5A52-4AC3-9448-C82E5085F14F}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{3816D31A-B110-4D11-A02F-3E781561674B}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{01A08DED-B652-4819-B85E-8F057D5A3726}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{AC55CF8A-413E-4A6C-8A5A-8C561C68967A}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{7503C753-EA56-4C00-B014-C8C897A5C069}"/>
+    <hyperlink ref="C43" r:id="rId31" xr:uid="{86518630-5531-4263-928F-E1B88189DD57}"/>
+    <hyperlink ref="C44" r:id="rId32" xr:uid="{D5B8A3FF-E819-413C-927B-4BA2D18962CF}"/>
+    <hyperlink ref="C45" r:id="rId33" xr:uid="{9F99327F-F66B-476A-95E7-2F4BD758FDCA}"/>
+    <hyperlink ref="C46" r:id="rId34" xr:uid="{3F3ACF8D-4EF6-4CD9-9CD2-0FA9A327C041}"/>
+    <hyperlink ref="C47" r:id="rId35" xr:uid="{C2F16E95-FD89-440D-9859-BC2FB074A26C}"/>
+    <hyperlink ref="C48" r:id="rId36" xr:uid="{AC5DCE36-B82D-4042-BB67-2365EBFC7F3F}"/>
+    <hyperlink ref="C49" r:id="rId37" xr:uid="{BBEEA3FB-0E45-4482-AF1A-87E5D837E14B}"/>
+    <hyperlink ref="C50" r:id="rId38" xr:uid="{6B1B6FA6-C857-471A-ADC5-313D467767C0}"/>
+    <hyperlink ref="C51" r:id="rId39" xr:uid="{669ADDFE-4A2A-4632-95DF-74023B48ADB6}"/>
+    <hyperlink ref="C52" r:id="rId40" xr:uid="{D22EF704-4FB2-400C-8886-3183279858B1}"/>
+    <hyperlink ref="C53" r:id="rId41" xr:uid="{EBEA1E4B-0603-4C96-81DA-5D6FEFC0A788}"/>
+    <hyperlink ref="C54" r:id="rId42" xr:uid="{BFD0A85D-E54E-43CE-BE8B-31F907614856}"/>
+    <hyperlink ref="C55" r:id="rId43" xr:uid="{31B244AE-EDED-4214-A781-BB1ADFB92B50}"/>
+    <hyperlink ref="C56" r:id="rId44" xr:uid="{3E9807E3-DCDC-4BCF-97C9-269A06689F51}"/>
+    <hyperlink ref="C57" r:id="rId45" xr:uid="{D6CFA9F1-450D-4CBC-9C90-1CCCDF815F03}"/>
+    <hyperlink ref="C58" r:id="rId46" xr:uid="{1FC8F5AA-2BF8-4A74-8371-B1434CF7A5C1}"/>
+    <hyperlink ref="C59" r:id="rId47" xr:uid="{3B8A70AD-5C8A-48A3-B074-A5FA20E3B34B}"/>
+    <hyperlink ref="C60" r:id="rId48" xr:uid="{F1324AEF-9E5F-43C0-92D6-32F48D96F684}"/>
+    <hyperlink ref="C61" r:id="rId49" xr:uid="{FAA1F5BB-CF80-4751-B146-6236B22F8922}"/>
+    <hyperlink ref="C62" r:id="rId50" xr:uid="{742D89B3-9956-4890-960F-93F703314DBD}"/>
+    <hyperlink ref="C64" r:id="rId51" xr:uid="{EDF08013-430E-4BE6-878B-FD6D7D995889}"/>
+    <hyperlink ref="C72" r:id="rId52" xr:uid="{1E410812-F00A-4C14-90AF-2F67B75D7FF9}"/>
+    <hyperlink ref="C73" r:id="rId53" xr:uid="{ED061D6D-3784-434D-8E09-040397789A2D}"/>
+    <hyperlink ref="C74" r:id="rId54" xr:uid="{1FFB289A-937A-4A6F-9794-1B0AB617962B}"/>
+    <hyperlink ref="C75" r:id="rId55" xr:uid="{3BD189ED-F88F-45A4-9E24-9D8DCBEA4128}"/>
+    <hyperlink ref="C76" r:id="rId56" xr:uid="{C9C41C06-E35F-443F-8939-35C9333F1AB5}"/>
+    <hyperlink ref="C77" r:id="rId57" xr:uid="{0532BB9A-7F1D-435F-A92C-007FB22A0E5B}"/>
+    <hyperlink ref="C78" r:id="rId58" xr:uid="{E3A5A663-8947-426B-8633-D71953BC308C}"/>
+    <hyperlink ref="C79" r:id="rId59" xr:uid="{95251D1B-EB82-4CF4-BFA0-E6624F23EC4D}"/>
+    <hyperlink ref="C80" r:id="rId60" xr:uid="{8545C5AC-84F6-4173-856A-CFAA7075AC4F}"/>
+    <hyperlink ref="C81" r:id="rId61" xr:uid="{6CEF6FEE-9999-42DD-87C3-1E2D70EF9E4E}"/>
+    <hyperlink ref="C82" r:id="rId62" xr:uid="{0829DE97-5ACF-424E-866E-941401F1655B}"/>
+    <hyperlink ref="C83" r:id="rId63" xr:uid="{8A26E801-8663-4E52-8508-D5590744A49D}"/>
+    <hyperlink ref="C84" r:id="rId64" xr:uid="{E9E7CBA9-D100-42E0-A3DF-42F5098C9D5E}"/>
+    <hyperlink ref="C85" r:id="rId65" xr:uid="{BFCAE8B0-2595-4060-9CC8-AF04CB2EA298}"/>
+    <hyperlink ref="C86" r:id="rId66" xr:uid="{8B28109F-54B3-4E04-8B24-AE8F2EEE1149}"/>
+    <hyperlink ref="C87" r:id="rId67" xr:uid="{9B794E3F-DDCF-4128-BCE5-CFD138760760}"/>
+    <hyperlink ref="C88" r:id="rId68" xr:uid="{6A11B82E-5EE2-4DA3-8599-E1D5BCAD6B47}"/>
+    <hyperlink ref="C89" r:id="rId69" xr:uid="{21259CE9-0D6C-4B52-B65C-B66722E0AE60}"/>
+    <hyperlink ref="C90" r:id="rId70" xr:uid="{7BA34CA6-0D3F-400C-AB42-AD365572719D}"/>
+    <hyperlink ref="C91" r:id="rId71" xr:uid="{4717299D-D0A7-42C8-8B0C-9BA40A3F4B41}"/>
+    <hyperlink ref="C92" r:id="rId72" xr:uid="{1092CAFF-C1A2-4C6B-B2D7-6509ABBB3E2C}"/>
+    <hyperlink ref="C93" r:id="rId73" xr:uid="{F6BCEC5E-A6D5-4EA2-96FE-B3CE55F1B1A1}"/>
+    <hyperlink ref="C94" r:id="rId74" xr:uid="{D69A8B16-F1BE-45CE-BDC8-DF6D92FA7F74}"/>
+    <hyperlink ref="C95" r:id="rId75" xr:uid="{AEC8E6C2-2790-46A1-B366-CA0E8655E805}"/>
+    <hyperlink ref="C96" r:id="rId76" xr:uid="{8FF157BF-3A1B-47CC-ACCC-DA592A9754CE}"/>
+    <hyperlink ref="C97" r:id="rId77" xr:uid="{FBC28D00-51C5-4BD0-962B-5B42C1ACF7DF}"/>
+    <hyperlink ref="C98" r:id="rId78" xr:uid="{341875CE-42D7-4D32-B284-6041494DD290}"/>
+    <hyperlink ref="C99" r:id="rId79" xr:uid="{E53079AB-BC74-4E51-B1F9-3D30FE549533}"/>
+    <hyperlink ref="C100" r:id="rId80" xr:uid="{3571B0E2-0F93-4305-9BE8-4470A17E4A79}"/>
+    <hyperlink ref="C101" r:id="rId81" xr:uid="{34C0B207-E618-41AB-B718-CB3B2D37DD6B}"/>
+    <hyperlink ref="C102" r:id="rId82" xr:uid="{9DF807DC-5D0D-40B9-832F-CEC0C482801D}"/>
+    <hyperlink ref="C103" r:id="rId83" xr:uid="{36A8A77D-905C-4274-8A57-11BDE5E379C8}"/>
+    <hyperlink ref="C104" r:id="rId84" xr:uid="{8DABB1F7-B9B3-4F69-9228-0CDCBC8F00BF}"/>
+    <hyperlink ref="C105" r:id="rId85" xr:uid="{3865308F-93E5-4D0A-B87F-4FD43552557C}"/>
+    <hyperlink ref="C106" r:id="rId86" xr:uid="{8D9F0841-75CC-4FB8-B5D5-6AE53F433378}"/>
+    <hyperlink ref="C107" r:id="rId87" xr:uid="{43020A98-99C3-4A18-83DA-0523F51DC476}"/>
+    <hyperlink ref="C108" r:id="rId88" xr:uid="{496AF478-FCAC-41F4-80DD-EF79EBB6A355}"/>
+    <hyperlink ref="C109" r:id="rId89" xr:uid="{1D793182-7B3D-44FE-8619-02957818220E}"/>
+    <hyperlink ref="C110" r:id="rId90" xr:uid="{38809CCB-6409-4AA5-8CD6-6CC861675014}"/>
+    <hyperlink ref="C111" r:id="rId91" xr:uid="{431970E0-3A44-4AF2-9A7D-D18D63AED538}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId92"/>
@@ -11360,7 +11357,7 @@
   <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11383,11 +11380,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -11446,28 +11443,28 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="159">
+      <c r="B5" s="119">
         <v>111222666</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="119" t="s">
         <v>825</v>
       </c>
       <c r="F5" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="119" t="s">
         <v>673</v>
       </c>
       <c r="H5" s="97">
         <v>2</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="102" t="s">
         <v>496</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -11485,28 +11482,28 @@
       <c r="N5" s="14">
         <v>20000</v>
       </c>
-      <c r="P5" s="123" t="str">
+      <c r="P5" s="117" t="str">
         <f>CONCATENATE(B5,", ",C5,", ",D5,", ",E5,", ",F5,", ",G5,", ",H5,", ",I5,", ",J5,", ",K5,", ",L5,", ",M5,", ",N5)</f>
         <v>111222666, tomas@marcelo.advogados.pt, AC-003_02, CC-004, S, GP_002_2, 2, T_01_01, Projecto de Sala de Reunião, Projecto de Sala de Reunião Anexa, Projecto de Sala de Reunião Anexa para 30 pessoas, 20, 20000</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="159">
+      <c r="B6" s="119">
         <v>111222666</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="159" t="s">
+      <c r="D6" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="159" t="s">
+      <c r="E6" s="119" t="s">
         <v>824</v>
       </c>
       <c r="F6" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="119" t="s">
         <v>673</v>
       </c>
       <c r="H6" s="97">
@@ -11530,28 +11527,28 @@
       <c r="N6" s="16">
         <v>250000</v>
       </c>
-      <c r="P6" s="123" t="str">
+      <c r="P6" s="117" t="str">
         <f t="shared" ref="P6:P9" si="0">CONCATENATE(B6,", ",C6,", ",D6,", ",E6,", ",F6,", ",G6,", ",H6,", ",I6,", ",J6,", ",K6,", ",L6,", ",M6,", ",N6)</f>
         <v>111222666, tomas@marcelo.advogados.pt, AC-003_01, CC-003, S, GP_002_2, 2, T_01_02, Construção de Sala de Reunião, Construção de Sala de Reunião Anexa, Construção de Sala de Reunião Anexa para 30 pessoas, 60, 250000</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="159">
+      <c r="B7" s="119">
         <v>111222666</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="119" t="s">
         <v>823</v>
       </c>
       <c r="F7" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="G7" s="159" t="s">
+      <c r="G7" s="119" t="s">
         <v>676</v>
       </c>
       <c r="H7" s="97">
@@ -11575,34 +11572,34 @@
       <c r="N7" s="18">
         <v>1000</v>
       </c>
-      <c r="P7" s="123" t="str">
+      <c r="P7" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222666, francisca@marcelo.advogados.pt, AC-002_01, CC-002, N, GP_003_1, 1, T_01_03, Limpeza Pós-Obra, Limpeza de Sede da Empresa, Limpeza de Sede da Empresa Pós-obra, 2, 1000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="159">
+      <c r="B8" s="119">
         <v>111222888</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="119" t="s">
         <v>823</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="119" t="s">
         <v>676</v>
       </c>
       <c r="H8" s="97">
         <v>1</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="102" t="s">
         <v>514</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -11620,28 +11617,28 @@
       <c r="N8" s="14">
         <v>2000</v>
       </c>
-      <c r="P8" s="123" t="str">
+      <c r="P8" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, matilde@inesengenharia.com, AC-002_01, CC-002, N, GP_003_1, 1, T_02_01, Limpeza de Escritório, Limpeza de Escritório da Empresa, Limpeza de Escritório da Empresa para evento, 2, 2000</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="159">
+      <c r="B9" s="119">
         <v>111222888</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="159" t="s">
+      <c r="E9" s="119" t="s">
         <v>822</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="119" t="s">
         <v>670</v>
       </c>
       <c r="H9" s="97">
@@ -11665,7 +11662,7 @@
       <c r="N9" s="18">
         <v>5000</v>
       </c>
-      <c r="P9" s="123" t="str">
+      <c r="P9" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, eduardo@inesengenharia.com, AC-001_01, CC-001, S, GP_001_2, 2, T_02_02, Remodelação de Website, Remodelação de Website da Empresa, Remodelação de Website da Empresa com nova paleta de cores, 10, 5000</v>
       </c>
@@ -11697,8 +11694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60A9011-4F7D-4949-BA51-785306AAE4EA}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11719,11 +11716,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="123" t="s">
         <v>841</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="53"/>
@@ -11733,20 +11730,20 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="121" t="s">
         <v>842</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="121" t="s">
         <v>843</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125" t="s">
+      <c r="H4" s="121"/>
+      <c r="I4" s="121" t="s">
         <v>844</v>
       </c>
-      <c r="J4" s="125"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="114"/>
+      <c r="L4" s="108"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
@@ -11758,22 +11755,22 @@
       <c r="D5" s="41" t="s">
         <v>840</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="104" t="s">
         <v>846</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="104" t="s">
         <v>847</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="104" t="s">
         <v>846</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="104" t="s">
         <v>847</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="104" t="s">
         <v>846</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="104" t="s">
         <v>847</v>
       </c>
       <c r="K5" s="41" t="s">
@@ -11782,13 +11779,13 @@
       <c r="L5" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="M5" s="115"/>
+      <c r="M5" s="109"/>
       <c r="N5" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106">
+      <c r="B6" s="119">
         <v>111222666</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -11797,37 +11794,37 @@
       <c r="D6" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="156">
         <v>44237</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="156">
         <v>44252</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="156">
         <v>44238</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="156">
         <v>44247</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="156">
         <v>44248</v>
       </c>
-      <c r="J6" s="107">
+      <c r="J6" s="156">
         <v>44251</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="110" t="s">
         <v>837</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="N6" s="123" t="str">
+      <c r="N6" s="117" t="str">
         <f>CONCATENATE(B6,", ",C6,", ",D6,", ",TEXT(E6,"DD/MM/AAAA"),", ",TEXT(F6,"DD/MM/AAAA"),", ",TEXT(G6,"DD/MM/AAAA"),", ",TEXT(H6,"DD/MM/AAAA"),", ",TEXT(I6,"DD/MM/AAAA"),", ",TEXT(J6,"DD/MM/AAAA"),", ",K6,", ",L6)</f>
         <v>111222666, tomas@marcelo.advogados.pt, T_01_01, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_01, A_T_01_01</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="102">
+      <c r="B7" s="119">
         <v>111222666</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -11836,37 +11833,37 @@
       <c r="D7" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="157">
         <v>44237</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="157">
         <v>44252</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="156">
         <v>44238</v>
       </c>
-      <c r="H7" s="107">
+      <c r="H7" s="156">
         <v>44247</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="156">
         <v>44248</v>
       </c>
-      <c r="J7" s="107">
+      <c r="J7" s="156">
         <v>44251</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="111" t="s">
         <v>837</v>
       </c>
-      <c r="L7" s="113" t="s">
+      <c r="L7" s="107" t="s">
         <v>852</v>
       </c>
-      <c r="N7" s="123" t="str">
+      <c r="N7" s="117" t="str">
         <f t="shared" ref="N7:N10" si="0">CONCATENATE(B7,", ",C7,", ",D7,", ",TEXT(E7,"DD/MM/AAAA"),", ",TEXT(F7,"DD/MM/AAAA"),", ",TEXT(G7,"DD/MM/AAAA"),", ",TEXT(H7,"DD/MM/AAAA"),", ",TEXT(I7,"DD/MM/AAAA"),", ",TEXT(J7,"DD/MM/AAAA"),", ",K7,", ",L7)</f>
         <v>111222666, tomas@marcelo.advogados.pt, T_01_02, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_01, A_T_01_02</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="108">
+      <c r="B8" s="119">
         <v>111222666</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -11875,37 +11872,37 @@
       <c r="D8" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="158">
         <v>44236</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="158">
         <v>44253</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="158">
         <v>44237</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="158">
         <v>44246</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="158">
         <v>44247</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="158">
         <v>44250</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="112" t="s">
         <v>839</v>
       </c>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="105" t="s">
         <v>853</v>
       </c>
-      <c r="N8" s="123" t="str">
+      <c r="N8" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222666, francisca@marcelo.advogados.pt, T_01_03, 09/02/Tuesday, 26/02/Friday, 10/02/Wednesday, 19/02/Friday, 20/02/Saturday, 23/02/Tuesday, TR_03, A_T_01_03</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="106">
+      <c r="B9" s="119">
         <v>111222888</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -11914,37 +11911,37 @@
       <c r="D9" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="156">
         <v>44237</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="156">
         <v>44252</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="156">
         <v>44238</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="156">
         <v>44247</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="156">
         <v>44248</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="156">
         <v>44251</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="114" t="s">
         <v>839</v>
       </c>
-      <c r="L9" s="113" t="s">
+      <c r="L9" s="107" t="s">
         <v>854</v>
       </c>
-      <c r="N9" s="123" t="str">
+      <c r="N9" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, matilde@inesengenharia.com, T_02_01, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_03, A_T_02_01</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108">
+      <c r="B10" s="119">
         <v>111222888</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -11953,31 +11950,31 @@
       <c r="D10" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="158">
         <v>44236</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="158">
         <v>44253</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="158">
         <v>44237</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="158">
         <v>44246</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="158">
         <v>44247</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="158">
         <v>44250</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="115" t="s">
         <v>838</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="106" t="s">
         <v>887</v>
       </c>
-      <c r="N10" s="123" t="str">
+      <c r="N10" s="117" t="str">
         <f t="shared" si="0"/>
         <v>111222888, eduardo@inesengenharia.com, T_02_02, 09/02/Tuesday, 26/02/Friday, 10/02/Wednesday, 19/02/Friday, 20/02/Saturday, 23/02/Tuesday, TR_02, A_T_02_02</v>
       </c>
@@ -11988,11 +11985,11 @@
       <c r="K11" s="100"/>
     </row>
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="123" t="s">
         <v>830</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -12021,7 +12018,7 @@
       <c r="D16" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="F16" s="123" t="str">
+      <c r="F16" s="117" t="str">
         <f>CONCATENATE(B16,", ",C16,", ",D16)</f>
         <v>TR_01, SERIACAO_SUBJETIVA_ATRIBUICAO_OPCIONAL, Menos dias e depois menor preço</v>
       </c>
@@ -12036,7 +12033,7 @@
       <c r="D17" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="F17" s="123" t="str">
+      <c r="F17" s="117" t="str">
         <f t="shared" ref="F17:F18" si="1">CONCATENATE(B17,", ",C17,", ",D17)</f>
         <v>TR_02, SERIACAO_SUBJETIVA_ATRIBUICAO_OBRIGATORIA, Maior GP e menor preço</v>
       </c>
@@ -12051,7 +12048,7 @@
       <c r="D18" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="F18" s="123" t="str">
+      <c r="F18" s="117" t="str">
         <f t="shared" si="1"/>
         <v>TR_03, SERIACAO_E_ATRIBUICAO_AUTOMATICA_MENOR_PRECO, Menor preço</v>
       </c>
@@ -12066,14 +12063,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" location="Organização!D9" display="Organização!D9" xr:uid="{1A852D6B-EEBC-4780-8A8E-AF079D81D8D4}"/>
-    <hyperlink ref="B7" location="Organização!D9" display="Organização!D9" xr:uid="{EFC4E270-18B6-4264-95FE-4460D55B26B2}"/>
-    <hyperlink ref="B8" location="Organização!D9" display="Organização!D9" xr:uid="{084EFAF3-1BC4-4616-9754-4717DA2D759E}"/>
     <hyperlink ref="C6" location="Organização!E40" display="tomas@marcelo.advogados.pt" xr:uid="{B9865BC6-09F4-4959-9C4E-35821712AA6B}"/>
     <hyperlink ref="C7" location="Organização!E40" display="tomas@marcelo.advogados.pt" xr:uid="{0553601D-1790-4DAB-9E96-798261B33436}"/>
     <hyperlink ref="C8" location="Organização!E39" display="francisca@marcelo.advogados.pt" xr:uid="{1A4DFB7E-A0FC-461D-869E-8A9ECFC93021}"/>
-    <hyperlink ref="B9" location="Organização!D11" display="Organização!D11" xr:uid="{1C38BA50-DDD6-4FB0-92EE-66BFD36B7FF5}"/>
-    <hyperlink ref="B10" location="Organização!D11" display="Organização!D11" xr:uid="{0E17ADEE-A36A-45AB-83B3-5D7DCDC8CC3E}"/>
     <hyperlink ref="C9" location="Organização!E48" display="matilde@inesengenharia.com" xr:uid="{8F0F1467-0B3A-4338-B1CF-94F2D855D664}"/>
     <hyperlink ref="C10" location="Organização!E51" display="eduardo@inesengenharia.com" xr:uid="{4CDF9151-A45D-408E-B5AD-60E60B677068}"/>
     <hyperlink ref="D6" location="Tarefa_Criada_BD!I5" display="T_01_01" xr:uid="{7D17C910-0304-40A3-98E7-3D8FC8BA5600}"/>
@@ -12131,14 +12123,14 @@
       <c r="I3" s="53"/>
     </row>
     <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="116" t="s">
         <v>844</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="136" t="s">
         <v>856</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -12181,13 +12173,13 @@
       <c r="D6" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="103">
         <v>44239</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G6" s="105">
+      <c r="G6" s="103">
         <v>44240</v>
       </c>
       <c r="H6" s="40">
@@ -12214,13 +12206,13 @@
       <c r="D7" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="103">
         <v>44240</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G7" s="105">
+      <c r="G7" s="103">
         <v>44241</v>
       </c>
       <c r="H7" s="40">
@@ -12247,13 +12239,13 @@
       <c r="D8" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="103">
         <v>44241</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="103">
         <v>44242</v>
       </c>
       <c r="H8" s="40">
@@ -12280,13 +12272,13 @@
       <c r="D9" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="103">
         <v>44242</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G9" s="105">
+      <c r="G9" s="103">
         <v>44243</v>
       </c>
       <c r="H9" s="40">
@@ -12313,13 +12305,13 @@
       <c r="D10" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="103">
         <v>44243</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="103">
         <v>44244</v>
       </c>
       <c r="H10" s="40">
@@ -12346,13 +12338,13 @@
       <c r="D11" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="103">
         <v>44244</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="103">
         <v>44245</v>
       </c>
       <c r="H11" s="40">
@@ -12379,7 +12371,7 @@
       <c r="D12" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="103">
         <v>44245</v>
       </c>
       <c r="F12" s="40" t="s">
@@ -12408,7 +12400,7 @@
       <c r="D13" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="103">
         <v>44246</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -12437,7 +12429,7 @@
       <c r="D14" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="103">
         <v>44247</v>
       </c>
       <c r="F14" s="40" t="s">
@@ -12466,7 +12458,7 @@
       <c r="D15" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="103">
         <v>44247</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -12524,25 +12516,25 @@
       <c r="D18" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="103">
         <v>44239</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H18" s="105" t="s">
+      <c r="H18" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I18" s="105" t="s">
+      <c r="I18" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -12553,25 +12545,25 @@
       <c r="D19" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="103">
         <v>44240</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I19" s="105" t="s">
+      <c r="I19" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -12582,25 +12574,25 @@
       <c r="D20" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="103">
         <v>44241</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J20" s="105" t="s">
+      <c r="J20" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K20" s="105" t="s">
+      <c r="K20" s="103" t="s">
         <v>858</v>
       </c>
       <c r="M20" t="str">
@@ -12615,13 +12607,13 @@
       <c r="D21" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="103">
         <v>44242</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G21" s="103">
         <v>44243</v>
       </c>
       <c r="H21" s="40">
@@ -12648,13 +12640,13 @@
       <c r="D22" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="103">
         <v>44243</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="103">
         <v>44244</v>
       </c>
       <c r="H22" s="40">
@@ -12681,13 +12673,13 @@
       <c r="D23" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="103">
         <v>44244</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="103">
         <v>44245</v>
       </c>
       <c r="H23" s="40">
@@ -12714,13 +12706,13 @@
       <c r="D24" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="103">
         <v>44245</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="103">
         <v>44246</v>
       </c>
       <c r="H24" s="40">
@@ -12747,13 +12739,13 @@
       <c r="D25" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="103">
         <v>44246</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="103">
         <v>44247</v>
       </c>
       <c r="H25" s="40">
@@ -12780,25 +12772,25 @@
       <c r="D26" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="103">
         <v>44247</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I26" s="105" t="s">
+      <c r="I26" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="J26" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K26" s="105" t="s">
+      <c r="K26" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -12809,13 +12801,13 @@
       <c r="D27" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="103">
         <v>44247</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G27" s="105">
+      <c r="G27" s="103">
         <v>44247</v>
       </c>
       <c r="H27" s="40">
@@ -12871,13 +12863,13 @@
       <c r="D30" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E30" s="105">
+      <c r="E30" s="103">
         <v>44238</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G30" s="105" t="s">
+      <c r="G30" s="103" t="s">
         <v>858</v>
       </c>
       <c r="H30" s="40" t="s">
@@ -12886,7 +12878,7 @@
       <c r="I30" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="J30" s="105" t="s">
+      <c r="J30" s="103" t="s">
         <v>858</v>
       </c>
       <c r="K30" s="40" t="s">
@@ -12900,13 +12892,13 @@
       <c r="D31" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E31" s="105">
+      <c r="E31" s="103">
         <v>44239</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G31" s="105">
+      <c r="G31" s="103">
         <v>44240</v>
       </c>
       <c r="H31" s="40">
@@ -12915,7 +12907,7 @@
       <c r="I31" s="40">
         <v>1</v>
       </c>
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="103" t="s">
         <v>875</v>
       </c>
       <c r="K31" s="40" t="s">
@@ -12933,13 +12925,13 @@
       <c r="D32" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="103">
         <v>44240</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G32" s="105">
+      <c r="G32" s="103">
         <v>44241</v>
       </c>
       <c r="H32" s="40">
@@ -12948,7 +12940,7 @@
       <c r="I32" s="40">
         <v>1</v>
       </c>
-      <c r="J32" s="105" t="s">
+      <c r="J32" s="103" t="s">
         <v>876</v>
       </c>
       <c r="K32" s="40" t="s">
@@ -12966,13 +12958,13 @@
       <c r="D33" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="103">
         <v>44241</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G33" s="105">
+      <c r="G33" s="103">
         <v>44242</v>
       </c>
       <c r="H33" s="40">
@@ -12999,13 +12991,13 @@
       <c r="D34" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="103">
         <v>44242</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G34" s="105" t="s">
+      <c r="G34" s="103" t="s">
         <v>858</v>
       </c>
       <c r="H34" s="40" t="s">
@@ -13028,13 +13020,13 @@
       <c r="D35" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="103">
         <v>44243</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G35" s="105">
+      <c r="G35" s="103">
         <v>44244</v>
       </c>
       <c r="H35" s="40">
@@ -13061,13 +13053,13 @@
       <c r="D36" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="E36" s="105">
+      <c r="E36" s="103">
         <v>44244</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G36" s="105">
+      <c r="G36" s="103">
         <v>44245</v>
       </c>
       <c r="H36" s="40">
@@ -13094,13 +13086,13 @@
       <c r="D37" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E37" s="105">
+      <c r="E37" s="103">
         <v>44245</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G37" s="105">
+      <c r="G37" s="103">
         <v>44246</v>
       </c>
       <c r="H37" s="40">
@@ -13127,25 +13119,25 @@
       <c r="D38" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="E38" s="105">
+      <c r="E38" s="103">
         <v>44246</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="G38" s="105" t="s">
+      <c r="G38" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H38" s="105" t="s">
+      <c r="H38" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I38" s="105" t="s">
+      <c r="I38" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J38" s="105" t="s">
+      <c r="J38" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K38" s="105" t="s">
+      <c r="K38" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13156,25 +13148,25 @@
       <c r="D39" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E39" s="105">
+      <c r="E39" s="103">
         <v>44247</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="G39" s="105" t="s">
+      <c r="G39" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H39" s="105" t="s">
+      <c r="H39" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I39" s="105" t="s">
+      <c r="I39" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J39" s="105" t="s">
+      <c r="J39" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K39" s="105" t="s">
+      <c r="K39" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13214,13 +13206,13 @@
       <c r="D42" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="103">
         <v>44238</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G42" s="105">
+      <c r="G42" s="103">
         <v>44239</v>
       </c>
       <c r="H42" s="40">
@@ -13229,7 +13221,7 @@
       <c r="I42" s="40">
         <v>1</v>
       </c>
-      <c r="J42" s="105" t="s">
+      <c r="J42" s="103" t="s">
         <v>874</v>
       </c>
       <c r="K42" s="40" t="s">
@@ -13247,25 +13239,25 @@
       <c r="D43" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E43" s="105">
+      <c r="E43" s="103">
         <v>44248</v>
       </c>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G43" s="105" t="s">
+      <c r="G43" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H43" s="105" t="s">
+      <c r="H43" s="103" t="s">
         <v>858</v>
       </c>
       <c r="I43" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="J43" s="105" t="s">
+      <c r="J43" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K43" s="105" t="s">
+      <c r="K43" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13276,25 +13268,25 @@
       <c r="D44" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E44" s="105">
+      <c r="E44" s="103">
         <v>44248</v>
       </c>
-      <c r="F44" s="105" t="s">
+      <c r="F44" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I44" s="105" t="s">
+      <c r="I44" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J44" s="105" t="s">
+      <c r="J44" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K44" s="105" t="s">
+      <c r="K44" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13305,25 +13297,25 @@
       <c r="D45" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="E45" s="105">
+      <c r="E45" s="103">
         <v>44248</v>
       </c>
-      <c r="F45" s="105" t="s">
+      <c r="F45" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G45" s="105" t="s">
+      <c r="G45" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I45" s="105" t="s">
+      <c r="I45" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J45" s="105" t="s">
+      <c r="J45" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K45" s="105" t="s">
+      <c r="K45" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13334,13 +13326,13 @@
       <c r="D46" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="E46" s="105">
+      <c r="E46" s="103">
         <v>44249</v>
       </c>
-      <c r="F46" s="105" t="s">
+      <c r="F46" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G46" s="105" t="s">
+      <c r="G46" s="103" t="s">
         <v>858</v>
       </c>
       <c r="H46" s="40">
@@ -13367,13 +13359,13 @@
       <c r="D47" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E47" s="105">
+      <c r="E47" s="103">
         <v>44243</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G47" s="105">
+      <c r="G47" s="103">
         <v>44243</v>
       </c>
       <c r="H47" s="40">
@@ -13400,13 +13392,13 @@
       <c r="D48" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="E48" s="105">
+      <c r="E48" s="103">
         <v>44244</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G48" s="105">
+      <c r="G48" s="103">
         <v>44244</v>
       </c>
       <c r="H48" s="40">
@@ -13433,25 +13425,25 @@
       <c r="D49" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E49" s="105">
+      <c r="E49" s="103">
         <v>44245</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G49" s="105" t="s">
+      <c r="G49" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H49" s="105" t="s">
+      <c r="H49" s="103" t="s">
         <v>858</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="J49" s="105" t="s">
+      <c r="J49" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K49" s="105" t="s">
+      <c r="K49" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13462,13 +13454,13 @@
       <c r="D50" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="E50" s="105">
+      <c r="E50" s="103">
         <v>44246</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G50" s="105">
+      <c r="G50" s="103">
         <v>44246</v>
       </c>
       <c r="H50" s="40">
@@ -13477,7 +13469,7 @@
       <c r="I50" s="40">
         <v>4</v>
       </c>
-      <c r="J50" s="105" t="s">
+      <c r="J50" s="103" t="s">
         <v>886</v>
       </c>
       <c r="K50" s="40" t="s">
@@ -13495,13 +13487,13 @@
       <c r="D51" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E51" s="105">
+      <c r="E51" s="103">
         <v>44246</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G51" s="105">
+      <c r="G51" s="103">
         <v>44246</v>
       </c>
       <c r="H51" s="40">
@@ -13510,7 +13502,7 @@
       <c r="I51" s="40">
         <v>4</v>
       </c>
-      <c r="J51" s="105" t="s">
+      <c r="J51" s="103" t="s">
         <v>885</v>
       </c>
       <c r="K51" s="40" t="s">
@@ -13557,25 +13549,25 @@
       <c r="D54" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E54" s="105">
+      <c r="E54" s="103">
         <v>44247</v>
       </c>
-      <c r="F54" s="105" t="s">
+      <c r="F54" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G54" s="105" t="s">
+      <c r="G54" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H54" s="105" t="s">
+      <c r="H54" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I54" s="105" t="s">
+      <c r="I54" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J54" s="105" t="s">
+      <c r="J54" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K54" s="105" t="s">
+      <c r="K54" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13586,13 +13578,13 @@
       <c r="D55" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E55" s="105">
+      <c r="E55" s="103">
         <v>44245</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G55" s="105">
+      <c r="G55" s="103">
         <v>44245</v>
       </c>
       <c r="H55" s="40">
@@ -13601,7 +13593,7 @@
       <c r="I55" s="40">
         <v>12</v>
       </c>
-      <c r="J55" s="105" t="s">
+      <c r="J55" s="103" t="s">
         <v>888</v>
       </c>
       <c r="K55" s="40" t="s">
@@ -13619,20 +13611,20 @@
       <c r="D56" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="E56" s="105">
+      <c r="E56" s="103">
         <v>44244</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G56" s="105">
+      <c r="G56" s="103">
         <v>44244</v>
       </c>
       <c r="H56" s="40">
         <v>9000</v>
       </c>
       <c r="I56" s="40"/>
-      <c r="J56" s="105" t="s">
+      <c r="J56" s="103" t="s">
         <v>889</v>
       </c>
       <c r="K56" s="40" t="s">
@@ -13650,25 +13642,25 @@
       <c r="D57" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="E57" s="105">
+      <c r="E57" s="103">
         <v>44247</v>
       </c>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G57" s="105" t="s">
+      <c r="G57" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I57" s="105" t="s">
+      <c r="I57" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J57" s="105" t="s">
+      <c r="J57" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K57" s="105" t="s">
+      <c r="K57" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13679,13 +13671,13 @@
       <c r="D58" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="E58" s="105">
+      <c r="E58" s="103">
         <v>44242</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G58" s="105">
+      <c r="G58" s="103">
         <v>44242</v>
       </c>
       <c r="H58" s="40">
@@ -13712,13 +13704,13 @@
       <c r="D59" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="E59" s="105">
+      <c r="E59" s="103">
         <v>44241</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G59" s="105">
+      <c r="G59" s="103">
         <v>44241</v>
       </c>
       <c r="H59" s="40">
@@ -13745,13 +13737,13 @@
       <c r="D60" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="E60" s="105">
+      <c r="E60" s="103">
         <v>44240</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G60" s="105">
+      <c r="G60" s="103">
         <v>44240</v>
       </c>
       <c r="H60" s="40">
@@ -13778,13 +13770,13 @@
       <c r="D61" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="E61" s="105">
+      <c r="E61" s="103">
         <v>44239</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G61" s="105">
+      <c r="G61" s="103">
         <v>44244</v>
       </c>
       <c r="H61" s="40">
@@ -13793,7 +13785,7 @@
       <c r="I61" s="40">
         <v>10</v>
       </c>
-      <c r="J61" s="105" t="s">
+      <c r="J61" s="103" t="s">
         <v>893</v>
       </c>
       <c r="K61" s="40" t="s">
@@ -13811,25 +13803,25 @@
       <c r="D62" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E62" s="105">
+      <c r="E62" s="103">
         <v>44238</v>
       </c>
-      <c r="F62" s="105" t="s">
+      <c r="F62" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G62" s="105" t="s">
+      <c r="G62" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H62" s="105" t="s">
+      <c r="H62" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I62" s="105" t="s">
+      <c r="I62" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J62" s="105" t="s">
+      <c r="J62" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K62" s="105" t="s">
+      <c r="K62" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13840,25 +13832,25 @@
       <c r="D63" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E63" s="105">
+      <c r="E63" s="103">
         <v>44237</v>
       </c>
-      <c r="F63" s="105" t="s">
+      <c r="F63" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="G63" s="105" t="s">
+      <c r="G63" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="H63" s="105" t="s">
+      <c r="H63" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="I63" s="105" t="s">
+      <c r="I63" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="J63" s="105" t="s">
+      <c r="J63" s="103" t="s">
         <v>858</v>
       </c>
-      <c r="K63" s="105" t="s">
+      <c r="K63" s="103" t="s">
         <v>858</v>
       </c>
     </row>
@@ -13961,8 +13953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC66B04-2C11-453A-96EB-E66A36683205}">
   <dimension ref="A2:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13993,16 +13985,16 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125" t="s">
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="121"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -14272,11 +14264,11 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -14308,7 +14300,7 @@
       <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="134">
         <v>111222333</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -14332,7 +14324,7 @@
       <c r="B18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
@@ -14354,7 +14346,7 @@
       <c r="B19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="141"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
@@ -14376,7 +14368,7 @@
       <c r="B20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="141"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="2" t="s">
         <v>107</v>
       </c>
@@ -14398,7 +14390,7 @@
       <c r="B21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="141"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="2" t="s">
         <v>108</v>
       </c>
@@ -14420,7 +14412,7 @@
       <c r="B22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="142"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="9" t="s">
         <v>109</v>
       </c>
@@ -14442,7 +14434,7 @@
       <c r="B23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="137">
         <v>111222444</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -14466,7 +14458,7 @@
       <c r="B24" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="141"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="2" t="s">
         <v>134</v>
       </c>
@@ -14488,7 +14480,7 @@
       <c r="B25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="2" t="s">
         <v>135</v>
       </c>
@@ -14510,7 +14502,7 @@
       <c r="B26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="141"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="2" t="s">
         <v>136</v>
       </c>
@@ -14532,7 +14524,7 @@
       <c r="B27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="141"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="2" t="s">
         <v>137</v>
       </c>
@@ -14554,7 +14546,7 @@
       <c r="B28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="142"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="9" t="s">
         <v>138</v>
       </c>
@@ -14575,7 +14567,7 @@
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="143">
+      <c r="C29" s="139">
         <v>111222555</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -14598,7 +14590,7 @@
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="141"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="2" t="s">
         <v>139</v>
       </c>
@@ -14619,7 +14611,7 @@
       <c r="B31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="141"/>
+      <c r="C31" s="137"/>
       <c r="D31" s="2" t="s">
         <v>140</v>
       </c>
@@ -14640,7 +14632,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="141"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="2" t="s">
         <v>141</v>
       </c>
@@ -14661,7 +14653,7 @@
       <c r="B33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="141"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="2" t="s">
         <v>142</v>
       </c>
@@ -14683,7 +14675,7 @@
       <c r="B34" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="142"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="9" t="s">
         <v>143</v>
       </c>
@@ -14705,7 +14697,7 @@
       <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="141">
+      <c r="C35" s="137">
         <v>111222666</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -14729,7 +14721,7 @@
       <c r="B36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="141"/>
+      <c r="C36" s="137"/>
       <c r="D36" s="2" t="s">
         <v>144</v>
       </c>
@@ -14751,7 +14743,7 @@
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="141"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="2" t="s">
         <v>145</v>
       </c>
@@ -14773,7 +14765,7 @@
       <c r="B38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="141"/>
+      <c r="C38" s="137"/>
       <c r="D38" s="2" t="s">
         <v>146</v>
       </c>
@@ -14795,7 +14787,7 @@
       <c r="B39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="141"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="2" t="s">
         <v>147</v>
       </c>
@@ -14817,7 +14809,7 @@
       <c r="B40" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="142"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="9" t="s">
         <v>148</v>
       </c>
@@ -14839,7 +14831,7 @@
       <c r="B41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="141">
+      <c r="C41" s="137">
         <v>111222777</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -14863,7 +14855,7 @@
       <c r="B42" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="141"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="2" t="s">
         <v>149</v>
       </c>
@@ -14885,7 +14877,7 @@
       <c r="B43" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="141"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
@@ -14907,7 +14899,7 @@
       <c r="B44" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="141"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="2" t="s">
         <v>151</v>
       </c>
@@ -14929,7 +14921,7 @@
       <c r="B45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="141"/>
+      <c r="C45" s="137"/>
       <c r="D45" s="2" t="s">
         <v>152</v>
       </c>
@@ -14950,7 +14942,7 @@
       <c r="B46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="142"/>
+      <c r="C46" s="138"/>
       <c r="D46" s="9" t="s">
         <v>153</v>
       </c>
@@ -14971,7 +14963,7 @@
       <c r="B47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="143">
+      <c r="C47" s="139">
         <v>111222888</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -14994,7 +14986,7 @@
       <c r="B48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="141"/>
+      <c r="C48" s="137"/>
       <c r="D48" s="2" t="s">
         <v>154</v>
       </c>
@@ -15015,7 +15007,7 @@
       <c r="B49" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="141"/>
+      <c r="C49" s="137"/>
       <c r="D49" s="2" t="s">
         <v>155</v>
       </c>
@@ -15036,7 +15028,7 @@
       <c r="B50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="141"/>
+      <c r="C50" s="137"/>
       <c r="D50" s="2" t="s">
         <v>156</v>
       </c>
@@ -15057,7 +15049,7 @@
       <c r="B51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="141"/>
+      <c r="C51" s="137"/>
       <c r="D51" s="2" t="s">
         <v>157</v>
       </c>
@@ -15078,7 +15070,7 @@
       <c r="B52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="142"/>
+      <c r="C52" s="138"/>
       <c r="D52" s="9" t="s">
         <v>158</v>
       </c>
@@ -15192,11 +15184,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -15283,11 +15275,11 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15316,19 +15308,19 @@
       <c r="G14" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="123" t="s">
         <v>484</v>
       </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="146" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -15354,7 +15346,7 @@
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="2" t="s">
         <v>236</v>
       </c>
@@ -15386,7 +15378,7 @@
       <c r="B17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="153"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="9" t="s">
         <v>237</v>
       </c>
@@ -15399,7 +15391,7 @@
       <c r="G17" s="40">
         <v>3</v>
       </c>
-      <c r="I17" s="135" t="s">
+      <c r="I17" s="125" t="s">
         <v>480</v>
       </c>
       <c r="J17" s="25">
@@ -15417,7 +15409,7 @@
       <c r="B18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="147" t="s">
         <v>205</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -15433,7 +15425,7 @@
       <c r="G18" s="40">
         <v>1</v>
       </c>
-      <c r="I18" s="135"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="25">
         <v>2</v>
       </c>
@@ -15449,7 +15441,7 @@
       <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="152"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="2" t="s">
         <v>239</v>
       </c>
@@ -15463,7 +15455,7 @@
       <c r="G19" s="40">
         <v>2</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="9">
         <v>3</v>
       </c>
@@ -15479,7 +15471,7 @@
       <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="153"/>
+      <c r="C20" s="148"/>
       <c r="D20" s="9" t="s">
         <v>240</v>
       </c>
@@ -15493,7 +15485,7 @@
       <c r="G20" s="40">
         <v>3</v>
       </c>
-      <c r="I20" s="134" t="s">
+      <c r="I20" s="124" t="s">
         <v>481</v>
       </c>
       <c r="J20" s="7">
@@ -15511,7 +15503,7 @@
       <c r="B21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="147" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -15526,7 +15518,7 @@
       <c r="G21" s="40">
         <v>2</v>
       </c>
-      <c r="I21" s="135"/>
+      <c r="I21" s="125"/>
       <c r="J21" s="25">
         <v>2</v>
       </c>
@@ -15542,7 +15534,7 @@
       <c r="B22" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="152"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="2" t="s">
         <v>242</v>
       </c>
@@ -15555,7 +15547,7 @@
       <c r="G22" s="40">
         <v>2</v>
       </c>
-      <c r="I22" s="135"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="25">
         <v>3</v>
       </c>
@@ -15571,7 +15563,7 @@
       <c r="B23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="9" t="s">
         <v>243</v>
       </c>
@@ -15584,7 +15576,7 @@
       <c r="G23" s="40">
         <v>2</v>
       </c>
-      <c r="I23" s="136"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="9">
         <v>4</v>
       </c>
@@ -15600,7 +15592,7 @@
       <c r="B24" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="149" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -15615,7 +15607,7 @@
       <c r="G24" s="40">
         <v>2</v>
       </c>
-      <c r="I24" s="134" t="s">
+      <c r="I24" s="124" t="s">
         <v>485</v>
       </c>
       <c r="J24" s="7">
@@ -15633,7 +15625,7 @@
       <c r="B25" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="152"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="2" t="s">
         <v>245</v>
       </c>
@@ -15646,7 +15638,7 @@
       <c r="G25" s="40">
         <v>2</v>
       </c>
-      <c r="I25" s="135"/>
+      <c r="I25" s="125"/>
       <c r="J25" s="25">
         <v>2</v>
       </c>
@@ -15662,7 +15654,7 @@
       <c r="B26" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="153"/>
+      <c r="C26" s="148"/>
       <c r="D26" s="9" t="s">
         <v>246</v>
       </c>
@@ -15675,7 +15667,7 @@
       <c r="G26" s="40">
         <v>2</v>
       </c>
-      <c r="I26" s="135"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="25">
         <v>3</v>
       </c>
@@ -15691,7 +15683,7 @@
       <c r="B27" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="147" t="s">
         <v>208</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -15706,7 +15698,7 @@
       <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="I27" s="136"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <v>4</v>
       </c>
@@ -15722,7 +15714,7 @@
       <c r="B28" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="152"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="2" t="s">
         <v>248</v>
       </c>
@@ -15735,7 +15727,7 @@
       <c r="G28" s="40">
         <v>1</v>
       </c>
-      <c r="I28" s="134" t="s">
+      <c r="I28" s="124" t="s">
         <v>486</v>
       </c>
       <c r="J28" s="12">
@@ -15753,7 +15745,7 @@
       <c r="B29" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="152"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="9" t="s">
         <v>249</v>
       </c>
@@ -15766,7 +15758,7 @@
       <c r="G29" s="40">
         <v>1</v>
       </c>
-      <c r="I29" s="135"/>
+      <c r="I29" s="125"/>
       <c r="J29" s="25">
         <v>2</v>
       </c>
@@ -15782,7 +15774,7 @@
       <c r="B30" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="149" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -15797,7 +15789,7 @@
       <c r="G30" s="40">
         <v>2</v>
       </c>
-      <c r="I30" s="136"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="9">
         <v>3</v>
       </c>
@@ -15813,7 +15805,7 @@
       <c r="B31" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="147" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -15828,7 +15820,7 @@
       <c r="G31" s="40">
         <v>2</v>
       </c>
-      <c r="I31" s="137" t="s">
+      <c r="I31" s="133" t="s">
         <v>487</v>
       </c>
       <c r="J31" s="7">
@@ -15845,7 +15837,7 @@
       <c r="B32" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="153" t="s">
+      <c r="C32" s="148" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -15860,7 +15852,7 @@
       <c r="G32" s="40">
         <v>1</v>
       </c>
-      <c r="I32" s="135"/>
+      <c r="I32" s="125"/>
       <c r="J32" s="25">
         <v>2</v>
       </c>
@@ -15872,7 +15864,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="136"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="9">
         <v>3</v>
       </c>
@@ -15884,11 +15876,11 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15923,7 +15915,7 @@
       <c r="B37" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="143" t="s">
         <v>235</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -15935,7 +15927,7 @@
       <c r="F37" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G37" s="155" t="s">
+      <c r="G37" s="140" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15954,7 +15946,7 @@
       <c r="F38" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G38" s="156"/>
+      <c r="G38" s="141"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
@@ -15971,7 +15963,7 @@
       <c r="F39" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G39" s="157"/>
+      <c r="G39" s="142"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
@@ -15990,7 +15982,7 @@
       <c r="F40" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="155" t="s">
+      <c r="G40" s="140" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16009,7 +16001,7 @@
       <c r="F41" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="156"/>
+      <c r="G41" s="141"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
@@ -16026,7 +16018,7 @@
       <c r="F42" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="157"/>
+      <c r="G42" s="142"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
@@ -16045,7 +16037,7 @@
       <c r="F43" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="G43" s="155" t="s">
+      <c r="G43" s="140" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16064,7 +16056,7 @@
       <c r="F44" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="156"/>
+      <c r="G44" s="141"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
@@ -16081,7 +16073,7 @@
       <c r="F45" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="G45" s="157"/>
+      <c r="G45" s="142"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
@@ -16100,7 +16092,7 @@
       <c r="F46" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="G46" s="155" t="s">
+      <c r="G46" s="140" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16119,7 +16111,7 @@
       <c r="F47" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="156"/>
+      <c r="G47" s="141"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
@@ -16136,7 +16128,7 @@
       <c r="F48" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="G48" s="157"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
@@ -16155,7 +16147,7 @@
       <c r="F49" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="155" t="s">
+      <c r="G49" s="140" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16174,7 +16166,7 @@
       <c r="F50" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G50" s="156"/>
+      <c r="G50" s="141"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
@@ -16191,14 +16183,14 @@
       <c r="F51" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="157"/>
+      <c r="G51" s="142"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="146" t="s">
+      <c r="C52" s="143" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -16210,7 +16202,7 @@
       <c r="F52" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="G52" s="155" t="s">
+      <c r="G52" s="140" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16229,14 +16221,14 @@
       <c r="F53" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="156"/>
+      <c r="G53" s="141"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="147"/>
+      <c r="C54" s="150"/>
       <c r="D54" s="32" t="s">
         <v>299</v>
       </c>
@@ -16246,7 +16238,7 @@
       <c r="F54" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="157"/>
+      <c r="G54" s="142"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
@@ -16264,7 +16256,7 @@
       <c r="F55" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G55" s="155" t="s">
+      <c r="G55" s="140" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16282,7 +16274,7 @@
       <c r="F56" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="156"/>
+      <c r="G56" s="141"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
@@ -16298,7 +16290,7 @@
       <c r="F57" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="G57" s="157"/>
+      <c r="G57" s="142"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
@@ -16316,7 +16308,7 @@
       <c r="F58" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="G58" s="155" t="s">
+      <c r="G58" s="140" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16334,7 +16326,7 @@
       <c r="F59" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="G59" s="156"/>
+      <c r="G59" s="141"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
@@ -16350,13 +16342,13 @@
       <c r="F60" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="G60" s="157"/>
+      <c r="G60" s="142"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="148" t="s">
+      <c r="C61" s="151" t="s">
         <v>243</v>
       </c>
       <c r="D61" s="30" t="s">
@@ -16368,7 +16360,7 @@
       <c r="F61" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="155" t="s">
+      <c r="G61" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16376,7 +16368,7 @@
       <c r="B62" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="C62" s="149"/>
+      <c r="C62" s="152"/>
       <c r="D62" s="31" t="s">
         <v>343</v>
       </c>
@@ -16386,14 +16378,14 @@
       <c r="F62" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="156"/>
+      <c r="G62" s="141"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C63" s="150"/>
+      <c r="C63" s="153"/>
       <c r="D63" s="32" t="s">
         <v>344</v>
       </c>
@@ -16403,7 +16395,7 @@
       <c r="F63" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="157"/>
+      <c r="G63" s="142"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
@@ -16422,7 +16414,7 @@
       <c r="F64" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="155" t="s">
+      <c r="G64" s="140" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16440,7 +16432,7 @@
       <c r="F65" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="G65" s="156"/>
+      <c r="G65" s="141"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
@@ -16456,7 +16448,7 @@
       <c r="F66" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G66" s="157"/>
+      <c r="G66" s="142"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
@@ -16474,7 +16466,7 @@
       <c r="F67" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="155" t="s">
+      <c r="G67" s="140" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16492,7 +16484,7 @@
       <c r="F68" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="G68" s="156"/>
+      <c r="G68" s="141"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
@@ -16508,13 +16500,13 @@
       <c r="F69" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="G69" s="157"/>
+      <c r="G69" s="142"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C70" s="146" t="s">
+      <c r="C70" s="143" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="30" t="s">
@@ -16526,7 +16518,7 @@
       <c r="F70" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="G70" s="155" t="s">
+      <c r="G70" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16545,7 +16537,7 @@
       <c r="F71" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="G71" s="156"/>
+      <c r="G71" s="141"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
@@ -16562,7 +16554,7 @@
       <c r="F72" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="G72" s="157"/>
+      <c r="G72" s="142"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
@@ -16581,7 +16573,7 @@
       <c r="F73" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="G73" s="155" t="s">
+      <c r="G73" s="140" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16600,7 +16592,7 @@
       <c r="F74" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="G74" s="156"/>
+      <c r="G74" s="141"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
@@ -16617,7 +16609,7 @@
       <c r="F75" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="G75" s="157"/>
+      <c r="G75" s="142"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
@@ -16636,7 +16628,7 @@
       <c r="F76" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="G76" s="155" t="s">
+      <c r="G76" s="140" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16655,7 +16647,7 @@
       <c r="F77" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="G77" s="156"/>
+      <c r="G77" s="141"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
@@ -16672,14 +16664,14 @@
       <c r="F78" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="G78" s="157"/>
+      <c r="G78" s="142"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C79" s="146" t="s">
+      <c r="C79" s="143" t="s">
         <v>249</v>
       </c>
       <c r="D79" s="30" t="s">
@@ -16691,7 +16683,7 @@
       <c r="F79" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="G79" s="155" t="s">
+      <c r="G79" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16710,7 +16702,7 @@
       <c r="F80" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="G80" s="156"/>
+      <c r="G80" s="141"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
@@ -16727,7 +16719,7 @@
       <c r="F81" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="G81" s="157"/>
+      <c r="G81" s="142"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -16746,7 +16738,7 @@
       <c r="F82" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="G82" s="155" t="s">
+      <c r="G82" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16765,7 +16757,7 @@
       <c r="F83" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="G83" s="156"/>
+      <c r="G83" s="141"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
@@ -16782,7 +16774,7 @@
       <c r="F84" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="G84" s="157"/>
+      <c r="G84" s="142"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
@@ -16801,7 +16793,7 @@
       <c r="F85" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="155" t="s">
+      <c r="G85" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16820,7 +16812,7 @@
       <c r="F86" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="G86" s="156"/>
+      <c r="G86" s="141"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
@@ -16837,14 +16829,14 @@
       <c r="F87" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="G87" s="157"/>
+      <c r="G87" s="142"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C88" s="146" t="s">
+      <c r="C88" s="143" t="s">
         <v>252</v>
       </c>
       <c r="D88" s="30" t="s">
@@ -16856,7 +16848,7 @@
       <c r="F88" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="G88" s="155" t="s">
+      <c r="G88" s="140" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16875,7 +16867,7 @@
       <c r="F89" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="G89" s="156"/>
+      <c r="G89" s="141"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
@@ -16892,44 +16884,15 @@
       <c r="F90" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="G90" s="157"/>
+      <c r="G90" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C45"/>
@@ -16942,11 +16905,40 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G81"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17023,11 +17015,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>

--- a/BaseDados/Dados BD.xlsx
+++ b/BaseDados/Dados BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\BaseDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC960A-4531-4007-98D1-DDA249FBFE88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7B45C-1CA2-4378-B03A-8B193497F94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{657CB9A2-C43B-426B-A736-BB7BF31CC9FD}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{657CB9A2-C43B-426B-A736-BB7BF31CC9FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Organização_BD" sheetId="7" r:id="rId1"/>
@@ -2906,7 +2906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3761,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4115,6 +4115,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4172,22 +4187,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4202,31 +4220,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4579,16 +4582,16 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121" t="s">
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="121"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
         <v>897</v>
@@ -4721,11 +4724,11 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4981,13 +4984,13 @@
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="128" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -5004,12 +5007,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
@@ -6277,13 +6280,13 @@
     </row>
     <row r="45" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
-      <c r="C45" s="123" t="s">
+      <c r="C45" s="128" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
     </row>
     <row r="46" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -6325,7 +6328,7 @@
       <c r="B49" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="154" t="s">
+      <c r="C49" s="159" t="s">
         <v>728</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -6345,7 +6348,7 @@
       <c r="B50" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="154"/>
+      <c r="C50" s="159"/>
       <c r="D50" s="40" t="s">
         <v>643</v>
       </c>
@@ -6703,7 +6706,7 @@
       <c r="B68" s="40" t="s">
         <v>817</v>
       </c>
-      <c r="C68" s="154" t="s">
+      <c r="C68" s="159" t="s">
         <v>632</v>
       </c>
       <c r="D68" s="40" t="s">
@@ -6723,7 +6726,7 @@
       <c r="B69" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="C69" s="154"/>
+      <c r="C69" s="159"/>
       <c r="D69" s="40" t="s">
         <v>645</v>
       </c>
@@ -6801,7 +6804,7 @@
       <c r="B73" s="40" t="s">
         <v>815</v>
       </c>
-      <c r="C73" s="154" t="s">
+      <c r="C73" s="159" t="s">
         <v>627</v>
       </c>
       <c r="D73" s="40" t="s">
@@ -6821,7 +6824,7 @@
       <c r="B74" s="40" t="s">
         <v>816</v>
       </c>
-      <c r="C74" s="154"/>
+      <c r="C74" s="159"/>
       <c r="D74" s="40" t="s">
         <v>644</v>
       </c>
@@ -6897,13 +6900,13 @@
     </row>
     <row r="81" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
-      <c r="C81" s="123" t="s">
+      <c r="C81" s="128" t="s">
         <v>664</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="123"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
     </row>
     <row r="82" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
@@ -6942,7 +6945,7 @@
       <c r="B85" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="146" t="s">
+      <c r="C85" s="152" t="s">
         <v>626</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -6957,7 +6960,7 @@
       <c r="B86" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="148"/>
+      <c r="C86" s="154"/>
       <c r="D86" s="10" t="s">
         <v>374</v>
       </c>
@@ -7098,7 +7101,7 @@
       <c r="B105" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="147" t="s">
+      <c r="C105" s="153" t="s">
         <v>627</v>
       </c>
       <c r="D105" s="54" t="s">
@@ -7113,7 +7116,7 @@
       <c r="B106" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="148"/>
+      <c r="C106" s="154"/>
       <c r="D106" s="10" t="s">
         <v>266</v>
       </c>
@@ -7126,7 +7129,7 @@
       <c r="B107" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="149" t="s">
+      <c r="C107" s="155" t="s">
         <v>628</v>
       </c>
       <c r="D107" s="54" t="s">
@@ -7141,7 +7144,7 @@
       <c r="B108" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="148"/>
+      <c r="C108" s="154"/>
       <c r="D108" s="10" t="s">
         <v>284</v>
       </c>
@@ -7154,7 +7157,7 @@
       <c r="B109" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="149" t="s">
+      <c r="C109" s="155" t="s">
         <v>629</v>
       </c>
       <c r="D109" s="54" t="s">
@@ -7169,7 +7172,7 @@
       <c r="B110" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="148"/>
+      <c r="C110" s="154"/>
       <c r="D110" s="10" t="s">
         <v>373</v>
       </c>
@@ -7182,7 +7185,7 @@
       <c r="B111" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="149" t="s">
+      <c r="C111" s="155" t="s">
         <v>630</v>
       </c>
       <c r="D111" s="54" t="s">
@@ -7197,7 +7200,7 @@
       <c r="B112" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="148"/>
+      <c r="C112" s="154"/>
       <c r="D112" s="10" t="s">
         <v>341</v>
       </c>
@@ -7210,7 +7213,7 @@
       <c r="B113" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="149" t="s">
+      <c r="C113" s="155" t="s">
         <v>631</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -7225,7 +7228,7 @@
       <c r="B114" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="148"/>
+      <c r="C114" s="154"/>
       <c r="D114" s="10" t="s">
         <v>374</v>
       </c>
@@ -7238,7 +7241,7 @@
       <c r="B115" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C115" s="147" t="s">
+      <c r="C115" s="153" t="s">
         <v>632</v>
       </c>
       <c r="D115" s="54" t="s">
@@ -7253,7 +7256,7 @@
       <c r="B116" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C116" s="148"/>
+      <c r="C116" s="154"/>
       <c r="D116" s="10" t="s">
         <v>438</v>
       </c>
@@ -7266,7 +7269,7 @@
       <c r="B117" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C117" s="149" t="s">
+      <c r="C117" s="155" t="s">
         <v>633</v>
       </c>
       <c r="D117" s="54" t="s">
@@ -7281,7 +7284,7 @@
       <c r="B118" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="C118" s="148"/>
+      <c r="C118" s="154"/>
       <c r="D118" s="10" t="s">
         <v>337</v>
       </c>
@@ -7294,7 +7297,7 @@
       <c r="B119" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="C119" s="149" t="s">
+      <c r="C119" s="155" t="s">
         <v>634</v>
       </c>
       <c r="D119" s="54" t="s">
@@ -7309,7 +7312,7 @@
       <c r="B120" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C120" s="148"/>
+      <c r="C120" s="154"/>
       <c r="D120" s="10" t="s">
         <v>445</v>
       </c>
@@ -7322,7 +7325,7 @@
       <c r="B121" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C121" s="149" t="s">
+      <c r="C121" s="155" t="s">
         <v>635</v>
       </c>
       <c r="D121" s="54" t="s">
@@ -7337,7 +7340,7 @@
       <c r="B122" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C122" s="148"/>
+      <c r="C122" s="154"/>
       <c r="D122" s="10" t="s">
         <v>295</v>
       </c>
@@ -7348,6 +7351,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C107:C108"/>
@@ -7361,10 +7368,6 @@
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -7489,7 +7492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4207A-FD9A-4441-8D18-CA12DEE5B8C9}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -7508,11 +7511,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7581,11 +7584,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7761,11 +7764,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7894,12 +7897,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="132" t="s">
         <v>484</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -7931,7 +7934,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="135" t="s">
         <v>480</v>
       </c>
       <c r="C29" s="7">
@@ -7955,7 +7958,7 @@
       <c r="A30">
         <v>42</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="40">
         <v>2</v>
       </c>
@@ -7974,7 +7977,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="131"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="40">
         <v>3</v>
       </c>
@@ -7993,7 +7996,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="132"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="9">
         <v>4</v>
       </c>
@@ -8012,7 +8015,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="129" t="s">
         <v>481</v>
       </c>
       <c r="C33" s="12">
@@ -8036,7 +8039,7 @@
       <c r="A34">
         <v>46</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="130"/>
       <c r="C34" s="40">
         <v>2</v>
       </c>
@@ -8055,7 +8058,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="126"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="9">
         <v>3</v>
       </c>
@@ -8077,7 +8080,7 @@
       <c r="A36">
         <v>48</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="138" t="s">
         <v>485</v>
       </c>
       <c r="C36" s="7">
@@ -8098,7 +8101,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="125"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="40">
         <v>2</v>
       </c>
@@ -8117,7 +8120,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="126"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="9">
         <v>3</v>
       </c>
@@ -8136,7 +8139,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="129" t="s">
         <v>481</v>
       </c>
       <c r="C39" s="12">
@@ -8156,7 +8159,7 @@
       <c r="A40">
         <v>52</v>
       </c>
-      <c r="B40" s="125"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="55">
         <v>2</v>
       </c>
@@ -8171,7 +8174,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="126"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="9">
         <v>3</v>
       </c>
@@ -8244,13 +8247,13 @@
   <sheetData>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="128" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -8267,12 +8270,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
@@ -9525,13 +9528,13 @@
     </row>
     <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="128" t="s">
         <v>625</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -10171,13 +10174,13 @@
     </row>
     <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="128" t="s">
         <v>664</v>
       </c>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
     </row>
     <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
@@ -10231,7 +10234,7 @@
       <c r="F72">
         <v>44</v>
       </c>
-      <c r="G72" s="155">
+      <c r="G72" s="122">
         <v>44197</v>
       </c>
       <c r="H72" t="str">
@@ -10255,7 +10258,7 @@
       <c r="F73">
         <v>44</v>
       </c>
-      <c r="G73" s="155">
+      <c r="G73" s="122">
         <v>44198</v>
       </c>
       <c r="H73" t="str">
@@ -10279,7 +10282,7 @@
       <c r="F74">
         <v>44</v>
       </c>
-      <c r="G74" s="155">
+      <c r="G74" s="122">
         <v>44199</v>
       </c>
       <c r="H74" t="str">
@@ -10303,7 +10306,7 @@
       <c r="F75">
         <v>44</v>
       </c>
-      <c r="G75" s="155">
+      <c r="G75" s="122">
         <v>44200</v>
       </c>
       <c r="H75" t="str">
@@ -10327,7 +10330,7 @@
       <c r="F76">
         <v>43</v>
       </c>
-      <c r="G76" s="155">
+      <c r="G76" s="122">
         <v>44201</v>
       </c>
       <c r="H76" t="str">
@@ -10351,7 +10354,7 @@
       <c r="F77">
         <v>43</v>
       </c>
-      <c r="G77" s="155">
+      <c r="G77" s="122">
         <v>44202</v>
       </c>
       <c r="H77" t="str">
@@ -10375,7 +10378,7 @@
       <c r="F78">
         <v>42</v>
       </c>
-      <c r="G78" s="155">
+      <c r="G78" s="122">
         <v>44203</v>
       </c>
       <c r="H78" t="str">
@@ -10399,7 +10402,7 @@
       <c r="F79">
         <v>42</v>
       </c>
-      <c r="G79" s="155">
+      <c r="G79" s="122">
         <v>44204</v>
       </c>
       <c r="H79" t="str">
@@ -10423,7 +10426,7 @@
       <c r="F80">
         <v>41</v>
       </c>
-      <c r="G80" s="155">
+      <c r="G80" s="122">
         <v>44205</v>
       </c>
       <c r="H80" t="str">
@@ -10447,7 +10450,7 @@
       <c r="F81">
         <v>41</v>
       </c>
-      <c r="G81" s="155">
+      <c r="G81" s="122">
         <v>44206</v>
       </c>
       <c r="H81" t="str">
@@ -10471,7 +10474,7 @@
       <c r="F82">
         <v>48</v>
       </c>
-      <c r="G82" s="155">
+      <c r="G82" s="122">
         <v>44207</v>
       </c>
       <c r="H82" t="str">
@@ -10495,7 +10498,7 @@
       <c r="F83">
         <v>48</v>
       </c>
-      <c r="G83" s="155">
+      <c r="G83" s="122">
         <v>44208</v>
       </c>
       <c r="H83" t="str">
@@ -10519,7 +10522,7 @@
       <c r="F84">
         <v>48</v>
       </c>
-      <c r="G84" s="155">
+      <c r="G84" s="122">
         <v>44209</v>
       </c>
       <c r="H84" t="str">
@@ -10543,7 +10546,7 @@
       <c r="F85">
         <v>48</v>
       </c>
-      <c r="G85" s="155">
+      <c r="G85" s="122">
         <v>44210</v>
       </c>
       <c r="H85" t="str">
@@ -10567,7 +10570,7 @@
       <c r="F86">
         <v>49</v>
       </c>
-      <c r="G86" s="155">
+      <c r="G86" s="122">
         <v>44211</v>
       </c>
       <c r="H86" t="str">
@@ -10591,7 +10594,7 @@
       <c r="F87">
         <v>49</v>
       </c>
-      <c r="G87" s="155">
+      <c r="G87" s="122">
         <v>44212</v>
       </c>
       <c r="H87" t="str">
@@ -10615,7 +10618,7 @@
       <c r="F88">
         <v>49</v>
       </c>
-      <c r="G88" s="155">
+      <c r="G88" s="122">
         <v>44213</v>
       </c>
       <c r="H88" t="str">
@@ -10639,7 +10642,7 @@
       <c r="F89">
         <v>49</v>
       </c>
-      <c r="G89" s="155">
+      <c r="G89" s="122">
         <v>44214</v>
       </c>
       <c r="H89" t="str">
@@ -10663,7 +10666,7 @@
       <c r="F90">
         <v>49</v>
       </c>
-      <c r="G90" s="155">
+      <c r="G90" s="122">
         <v>44215</v>
       </c>
       <c r="H90" t="str">
@@ -10687,7 +10690,7 @@
       <c r="F91">
         <v>49</v>
       </c>
-      <c r="G91" s="155">
+      <c r="G91" s="122">
         <v>44216</v>
       </c>
       <c r="H91" t="str">
@@ -10696,7 +10699,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="134">
+      <c r="B92" s="139">
         <v>21</v>
       </c>
       <c r="C92" s="120" t="s">
@@ -10711,7 +10714,7 @@
       <c r="F92">
         <v>45</v>
       </c>
-      <c r="G92" s="155">
+      <c r="G92" s="122">
         <v>44217</v>
       </c>
       <c r="H92" t="str">
@@ -10720,7 +10723,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="135"/>
+      <c r="B93" s="140"/>
       <c r="C93" s="120" t="s">
         <v>752</v>
       </c>
@@ -10733,7 +10736,7 @@
       <c r="F93">
         <v>53</v>
       </c>
-      <c r="G93" s="155">
+      <c r="G93" s="122">
         <v>44217</v>
       </c>
       <c r="H93" t="str">
@@ -10742,7 +10745,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="134">
+      <c r="B94" s="139">
         <v>22</v>
       </c>
       <c r="C94" s="120" t="s">
@@ -10757,7 +10760,7 @@
       <c r="F94">
         <v>45</v>
       </c>
-      <c r="G94" s="155">
+      <c r="G94" s="122">
         <v>44219</v>
       </c>
       <c r="H94" t="str">
@@ -10766,7 +10769,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="135"/>
+      <c r="B95" s="140"/>
       <c r="C95" s="120" t="s">
         <v>753</v>
       </c>
@@ -10779,7 +10782,7 @@
       <c r="F95">
         <v>53</v>
       </c>
-      <c r="G95" s="155">
+      <c r="G95" s="122">
         <v>44219</v>
       </c>
       <c r="H95" t="str">
@@ -10788,7 +10791,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="134">
+      <c r="B96" s="139">
         <v>23</v>
       </c>
       <c r="C96" s="120" t="s">
@@ -10803,7 +10806,7 @@
       <c r="F96">
         <v>45</v>
       </c>
-      <c r="G96" s="155">
+      <c r="G96" s="122">
         <v>44221</v>
       </c>
       <c r="H96" t="str">
@@ -10812,7 +10815,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="135"/>
+      <c r="B97" s="140"/>
       <c r="C97" s="120" t="s">
         <v>754</v>
       </c>
@@ -10825,7 +10828,7 @@
       <c r="F97">
         <v>53</v>
       </c>
-      <c r="G97" s="155">
+      <c r="G97" s="122">
         <v>44221</v>
       </c>
       <c r="H97" t="str">
@@ -10834,7 +10837,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="134">
+      <c r="B98" s="139">
         <v>24</v>
       </c>
       <c r="C98" s="120" t="s">
@@ -10849,7 +10852,7 @@
       <c r="F98">
         <v>46</v>
       </c>
-      <c r="G98" s="155">
+      <c r="G98" s="122">
         <v>44223</v>
       </c>
       <c r="H98" t="str">
@@ -10858,7 +10861,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="135"/>
+      <c r="B99" s="140"/>
       <c r="C99" s="120" t="s">
         <v>755</v>
       </c>
@@ -10871,7 +10874,7 @@
       <c r="F99">
         <v>52</v>
       </c>
-      <c r="G99" s="155">
+      <c r="G99" s="122">
         <v>44223</v>
       </c>
       <c r="H99" t="str">
@@ -10880,7 +10883,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="134">
+      <c r="B100" s="139">
         <v>25</v>
       </c>
       <c r="C100" s="120" t="s">
@@ -10895,7 +10898,7 @@
       <c r="F100">
         <v>46</v>
       </c>
-      <c r="G100" s="155">
+      <c r="G100" s="122">
         <v>44225</v>
       </c>
       <c r="H100" t="str">
@@ -10904,7 +10907,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="135"/>
+      <c r="B101" s="140"/>
       <c r="C101" s="120" t="s">
         <v>756</v>
       </c>
@@ -10917,7 +10920,7 @@
       <c r="F101">
         <v>52</v>
       </c>
-      <c r="G101" s="155">
+      <c r="G101" s="122">
         <v>44225</v>
       </c>
       <c r="H101" t="str">
@@ -10926,7 +10929,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="134">
+      <c r="B102" s="139">
         <v>26</v>
       </c>
       <c r="C102" s="120" t="s">
@@ -10941,7 +10944,7 @@
       <c r="F102">
         <v>46</v>
       </c>
-      <c r="G102" s="155">
+      <c r="G102" s="122">
         <v>44227</v>
       </c>
       <c r="H102" t="str">
@@ -10950,7 +10953,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="135"/>
+      <c r="B103" s="140"/>
       <c r="C103" s="120" t="s">
         <v>757</v>
       </c>
@@ -10963,7 +10966,7 @@
       <c r="F103">
         <v>52</v>
       </c>
-      <c r="G103" s="155">
+      <c r="G103" s="122">
         <v>44227</v>
       </c>
       <c r="H103" t="str">
@@ -10972,7 +10975,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="134">
+      <c r="B104" s="139">
         <v>27</v>
       </c>
       <c r="C104" s="120" t="s">
@@ -10987,7 +10990,7 @@
       <c r="F104">
         <v>46</v>
       </c>
-      <c r="G104" s="155">
+      <c r="G104" s="122">
         <v>44229</v>
       </c>
       <c r="H104" t="str">
@@ -10996,7 +10999,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="135"/>
+      <c r="B105" s="140"/>
       <c r="C105" s="120" t="s">
         <v>758</v>
       </c>
@@ -11009,7 +11012,7 @@
       <c r="F105">
         <v>51</v>
       </c>
-      <c r="G105" s="155">
+      <c r="G105" s="122">
         <v>44229</v>
       </c>
       <c r="H105" t="str">
@@ -11018,7 +11021,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="134">
+      <c r="B106" s="139">
         <v>28</v>
       </c>
       <c r="C106" s="120" t="s">
@@ -11033,7 +11036,7 @@
       <c r="F106">
         <v>47</v>
       </c>
-      <c r="G106" s="155">
+      <c r="G106" s="122">
         <v>44231</v>
       </c>
       <c r="H106" t="str">
@@ -11042,7 +11045,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="135"/>
+      <c r="B107" s="140"/>
       <c r="C107" s="120" t="s">
         <v>759</v>
       </c>
@@ -11055,7 +11058,7 @@
       <c r="F107">
         <v>51</v>
       </c>
-      <c r="G107" s="155">
+      <c r="G107" s="122">
         <v>44231</v>
       </c>
       <c r="H107" t="str">
@@ -11064,7 +11067,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="134">
+      <c r="B108" s="139">
         <v>29</v>
       </c>
       <c r="C108" s="120" t="s">
@@ -11079,7 +11082,7 @@
       <c r="F108">
         <v>47</v>
       </c>
-      <c r="G108" s="155">
+      <c r="G108" s="122">
         <v>44233</v>
       </c>
       <c r="H108" t="str">
@@ -11088,7 +11091,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="135"/>
+      <c r="B109" s="140"/>
       <c r="C109" s="120" t="s">
         <v>632</v>
       </c>
@@ -11101,7 +11104,7 @@
       <c r="F109">
         <v>51</v>
       </c>
-      <c r="G109" s="155">
+      <c r="G109" s="122">
         <v>44233</v>
       </c>
       <c r="H109" t="str">
@@ -11110,7 +11113,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="134">
+      <c r="B110" s="139">
         <v>30</v>
       </c>
       <c r="C110" s="120" t="s">
@@ -11125,7 +11128,7 @@
       <c r="F110">
         <v>47</v>
       </c>
-      <c r="G110" s="155">
+      <c r="G110" s="122">
         <v>44235</v>
       </c>
       <c r="H110" t="str">
@@ -11134,7 +11137,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="135"/>
+      <c r="B111" s="140"/>
       <c r="C111" s="120" t="s">
         <v>634</v>
       </c>
@@ -11147,7 +11150,7 @@
       <c r="F111">
         <v>53</v>
       </c>
-      <c r="G111" s="155">
+      <c r="G111" s="122">
         <v>44235</v>
       </c>
       <c r="H111" t="str">
@@ -11158,6 +11161,11 @@
   </sheetData>
   <autoFilter ref="B71:F111" xr:uid="{DE5F5F80-836B-41FC-A793-6D21B74ED654}"/>
   <mergeCells count="14">
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B97"/>
@@ -11167,11 +11175,6 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -11380,11 +11383,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="128" t="s">
         <v>490</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -11694,7 +11697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60A9011-4F7D-4949-BA51-785306AAE4EA}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -11716,11 +11719,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>841</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="53"/>
@@ -11730,18 +11733,18 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="126" t="s">
         <v>842</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121" t="s">
+      <c r="F4" s="126"/>
+      <c r="G4" s="126" t="s">
         <v>843</v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121" t="s">
+      <c r="H4" s="126"/>
+      <c r="I4" s="126" t="s">
         <v>844</v>
       </c>
-      <c r="J4" s="121"/>
+      <c r="J4" s="126"/>
       <c r="K4" s="1"/>
       <c r="L4" s="108"/>
     </row>
@@ -11794,22 +11797,22 @@
       <c r="D6" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="156">
+      <c r="E6" s="123">
         <v>44237</v>
       </c>
-      <c r="F6" s="156">
+      <c r="F6" s="123">
         <v>44252</v>
       </c>
-      <c r="G6" s="156">
+      <c r="G6" s="123">
         <v>44238</v>
       </c>
-      <c r="H6" s="156">
+      <c r="H6" s="123">
         <v>44247</v>
       </c>
-      <c r="I6" s="156">
+      <c r="I6" s="123">
         <v>44248</v>
       </c>
-      <c r="J6" s="156">
+      <c r="J6" s="123">
         <v>44251</v>
       </c>
       <c r="K6" s="110" t="s">
@@ -11833,22 +11836,22 @@
       <c r="D7" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="124">
         <v>44237</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="124">
         <v>44252</v>
       </c>
-      <c r="G7" s="156">
+      <c r="G7" s="123">
         <v>44238</v>
       </c>
-      <c r="H7" s="156">
+      <c r="H7" s="123">
         <v>44247</v>
       </c>
-      <c r="I7" s="156">
+      <c r="I7" s="123">
         <v>44248</v>
       </c>
-      <c r="J7" s="156">
+      <c r="J7" s="123">
         <v>44251</v>
       </c>
       <c r="K7" s="111" t="s">
@@ -11872,22 +11875,22 @@
       <c r="D8" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="158">
+      <c r="E8" s="125">
         <v>44236</v>
       </c>
-      <c r="F8" s="158">
+      <c r="F8" s="125">
         <v>44253</v>
       </c>
-      <c r="G8" s="158">
+      <c r="G8" s="125">
         <v>44237</v>
       </c>
-      <c r="H8" s="158">
+      <c r="H8" s="125">
         <v>44246</v>
       </c>
-      <c r="I8" s="158">
+      <c r="I8" s="125">
         <v>44247</v>
       </c>
-      <c r="J8" s="158">
+      <c r="J8" s="125">
         <v>44250</v>
       </c>
       <c r="K8" s="112" t="s">
@@ -11911,22 +11914,22 @@
       <c r="D9" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="156">
+      <c r="E9" s="123">
         <v>44237</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="123">
         <v>44252</v>
       </c>
-      <c r="G9" s="156">
+      <c r="G9" s="123">
         <v>44238</v>
       </c>
-      <c r="H9" s="156">
+      <c r="H9" s="123">
         <v>44247</v>
       </c>
-      <c r="I9" s="156">
+      <c r="I9" s="123">
         <v>44248</v>
       </c>
-      <c r="J9" s="156">
+      <c r="J9" s="123">
         <v>44251</v>
       </c>
       <c r="K9" s="114" t="s">
@@ -11950,22 +11953,22 @@
       <c r="D10" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="158">
+      <c r="E10" s="125">
         <v>44236</v>
       </c>
-      <c r="F10" s="158">
+      <c r="F10" s="125">
         <v>44253</v>
       </c>
-      <c r="G10" s="158">
+      <c r="G10" s="125">
         <v>44237</v>
       </c>
-      <c r="H10" s="158">
+      <c r="H10" s="125">
         <v>44246</v>
       </c>
-      <c r="I10" s="158">
+      <c r="I10" s="125">
         <v>44247</v>
       </c>
-      <c r="J10" s="158">
+      <c r="J10" s="125">
         <v>44250</v>
       </c>
       <c r="K10" s="115" t="s">
@@ -11985,11 +11988,11 @@
       <c r="K11" s="100"/>
     </row>
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="128" t="s">
         <v>830</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -12126,11 +12129,11 @@
       <c r="B4" s="116" t="s">
         <v>844</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="141" t="s">
         <v>856</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -13985,16 +13988,16 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121" t="s">
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="121"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -14264,11 +14267,11 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -14300,7 +14303,7 @@
       <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="139">
         <v>111222333</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -14324,7 +14327,7 @@
       <c r="B18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
@@ -14346,7 +14349,7 @@
       <c r="B19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="137"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
@@ -14368,7 +14371,7 @@
       <c r="B20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="137"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="2" t="s">
         <v>107</v>
       </c>
@@ -14390,7 +14393,7 @@
       <c r="B21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="2" t="s">
         <v>108</v>
       </c>
@@ -14412,7 +14415,7 @@
       <c r="B22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="138"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="9" t="s">
         <v>109</v>
       </c>
@@ -14434,7 +14437,7 @@
       <c r="B23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="137">
+      <c r="C23" s="142">
         <v>111222444</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -14458,7 +14461,7 @@
       <c r="B24" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="137"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="2" t="s">
         <v>134</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="B25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="2" t="s">
         <v>135</v>
       </c>
@@ -14502,7 +14505,7 @@
       <c r="B26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="2" t="s">
         <v>136</v>
       </c>
@@ -14524,7 +14527,7 @@
       <c r="B27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="2" t="s">
         <v>137</v>
       </c>
@@ -14546,7 +14549,7 @@
       <c r="B28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="138"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="9" t="s">
         <v>138</v>
       </c>
@@ -14567,7 +14570,7 @@
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="139">
+      <c r="C29" s="144">
         <v>111222555</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -14590,7 +14593,7 @@
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="137"/>
+      <c r="C30" s="142"/>
       <c r="D30" s="2" t="s">
         <v>139</v>
       </c>
@@ -14611,7 +14614,7 @@
       <c r="B31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="137"/>
+      <c r="C31" s="142"/>
       <c r="D31" s="2" t="s">
         <v>140</v>
       </c>
@@ -14632,7 +14635,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="137"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="2" t="s">
         <v>141</v>
       </c>
@@ -14653,7 +14656,7 @@
       <c r="B33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="137"/>
+      <c r="C33" s="142"/>
       <c r="D33" s="2" t="s">
         <v>142</v>
       </c>
@@ -14675,7 +14678,7 @@
       <c r="B34" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="138"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="9" t="s">
         <v>143</v>
       </c>
@@ -14697,7 +14700,7 @@
       <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="137">
+      <c r="C35" s="142">
         <v>111222666</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -14721,7 +14724,7 @@
       <c r="B36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="137"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="2" t="s">
         <v>144</v>
       </c>
@@ -14743,7 +14746,7 @@
       <c r="B37" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="137"/>
+      <c r="C37" s="142"/>
       <c r="D37" s="2" t="s">
         <v>145</v>
       </c>
@@ -14765,7 +14768,7 @@
       <c r="B38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="137"/>
+      <c r="C38" s="142"/>
       <c r="D38" s="2" t="s">
         <v>146</v>
       </c>
@@ -14787,7 +14790,7 @@
       <c r="B39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="142"/>
       <c r="D39" s="2" t="s">
         <v>147</v>
       </c>
@@ -14809,7 +14812,7 @@
       <c r="B40" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="138"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="9" t="s">
         <v>148</v>
       </c>
@@ -14831,7 +14834,7 @@
       <c r="B41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="137">
+      <c r="C41" s="142">
         <v>111222777</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -14855,7 +14858,7 @@
       <c r="B42" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="137"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="2" t="s">
         <v>149</v>
       </c>
@@ -14877,7 +14880,7 @@
       <c r="B43" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
@@ -14899,7 +14902,7 @@
       <c r="B44" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="137"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="2" t="s">
         <v>151</v>
       </c>
@@ -14921,7 +14924,7 @@
       <c r="B45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="137"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="2" t="s">
         <v>152</v>
       </c>
@@ -14942,7 +14945,7 @@
       <c r="B46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="138"/>
+      <c r="C46" s="143"/>
       <c r="D46" s="9" t="s">
         <v>153</v>
       </c>
@@ -14963,7 +14966,7 @@
       <c r="B47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="139">
+      <c r="C47" s="144">
         <v>111222888</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -14986,7 +14989,7 @@
       <c r="B48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="137"/>
+      <c r="C48" s="142"/>
       <c r="D48" s="2" t="s">
         <v>154</v>
       </c>
@@ -15007,7 +15010,7 @@
       <c r="B49" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="137"/>
+      <c r="C49" s="142"/>
       <c r="D49" s="2" t="s">
         <v>155</v>
       </c>
@@ -15028,7 +15031,7 @@
       <c r="B50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="137"/>
+      <c r="C50" s="142"/>
       <c r="D50" s="2" t="s">
         <v>156</v>
       </c>
@@ -15049,7 +15052,7 @@
       <c r="B51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="137"/>
+      <c r="C51" s="142"/>
       <c r="D51" s="2" t="s">
         <v>157</v>
       </c>
@@ -15070,7 +15073,7 @@
       <c r="B52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="138"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="9" t="s">
         <v>158</v>
       </c>
@@ -15165,8 +15168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7606E586-509B-4141-B06E-3D5BBAD72C5F}">
   <dimension ref="A2:L90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15184,11 +15187,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -15275,11 +15278,11 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15308,19 +15311,19 @@
       <c r="G14" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="128" t="s">
         <v>484</v>
       </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="152" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -15346,7 +15349,7 @@
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="2" t="s">
         <v>236</v>
       </c>
@@ -15378,7 +15381,7 @@
       <c r="B17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="148"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="9" t="s">
         <v>237</v>
       </c>
@@ -15391,7 +15394,7 @@
       <c r="G17" s="40">
         <v>3</v>
       </c>
-      <c r="I17" s="125" t="s">
+      <c r="I17" s="130" t="s">
         <v>480</v>
       </c>
       <c r="J17" s="25">
@@ -15409,7 +15412,7 @@
       <c r="B18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="153" t="s">
         <v>205</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -15425,7 +15428,7 @@
       <c r="G18" s="40">
         <v>1</v>
       </c>
-      <c r="I18" s="125"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="25">
         <v>2</v>
       </c>
@@ -15441,7 +15444,7 @@
       <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="147"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="2" t="s">
         <v>239</v>
       </c>
@@ -15455,7 +15458,7 @@
       <c r="G19" s="40">
         <v>2</v>
       </c>
-      <c r="I19" s="126"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="9">
         <v>3</v>
       </c>
@@ -15471,7 +15474,7 @@
       <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="148"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="9" t="s">
         <v>240</v>
       </c>
@@ -15485,7 +15488,7 @@
       <c r="G20" s="40">
         <v>3</v>
       </c>
-      <c r="I20" s="124" t="s">
+      <c r="I20" s="129" t="s">
         <v>481</v>
       </c>
       <c r="J20" s="7">
@@ -15503,7 +15506,7 @@
       <c r="B21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="153" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -15518,7 +15521,7 @@
       <c r="G21" s="40">
         <v>2</v>
       </c>
-      <c r="I21" s="125"/>
+      <c r="I21" s="130"/>
       <c r="J21" s="25">
         <v>2</v>
       </c>
@@ -15534,7 +15537,7 @@
       <c r="B22" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="2" t="s">
         <v>242</v>
       </c>
@@ -15547,7 +15550,7 @@
       <c r="G22" s="40">
         <v>2</v>
       </c>
-      <c r="I22" s="125"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="25">
         <v>3</v>
       </c>
@@ -15563,7 +15566,7 @@
       <c r="B23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="9" t="s">
         <v>243</v>
       </c>
@@ -15576,7 +15579,7 @@
       <c r="G23" s="40">
         <v>2</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="9">
         <v>4</v>
       </c>
@@ -15592,7 +15595,7 @@
       <c r="B24" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="155" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -15607,7 +15610,7 @@
       <c r="G24" s="40">
         <v>2</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="129" t="s">
         <v>485</v>
       </c>
       <c r="J24" s="7">
@@ -15625,7 +15628,7 @@
       <c r="B25" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="147"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="2" t="s">
         <v>245</v>
       </c>
@@ -15638,7 +15641,7 @@
       <c r="G25" s="40">
         <v>2</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="130"/>
       <c r="J25" s="25">
         <v>2</v>
       </c>
@@ -15654,7 +15657,7 @@
       <c r="B26" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="148"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="9" t="s">
         <v>246</v>
       </c>
@@ -15667,7 +15670,7 @@
       <c r="G26" s="40">
         <v>2</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="25">
         <v>3</v>
       </c>
@@ -15683,7 +15686,7 @@
       <c r="B27" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="153" t="s">
         <v>208</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -15698,7 +15701,7 @@
       <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="9">
         <v>4</v>
       </c>
@@ -15714,7 +15717,7 @@
       <c r="B28" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="147"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="2" t="s">
         <v>248</v>
       </c>
@@ -15727,7 +15730,7 @@
       <c r="G28" s="40">
         <v>1</v>
       </c>
-      <c r="I28" s="124" t="s">
+      <c r="I28" s="129" t="s">
         <v>486</v>
       </c>
       <c r="J28" s="12">
@@ -15745,7 +15748,7 @@
       <c r="B29" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="147"/>
+      <c r="C29" s="153"/>
       <c r="D29" s="9" t="s">
         <v>249</v>
       </c>
@@ -15758,7 +15761,7 @@
       <c r="G29" s="40">
         <v>1</v>
       </c>
-      <c r="I29" s="125"/>
+      <c r="I29" s="130"/>
       <c r="J29" s="25">
         <v>2</v>
       </c>
@@ -15774,7 +15777,7 @@
       <c r="B30" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="155" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -15789,7 +15792,7 @@
       <c r="G30" s="40">
         <v>2</v>
       </c>
-      <c r="I30" s="126"/>
+      <c r="I30" s="131"/>
       <c r="J30" s="9">
         <v>3</v>
       </c>
@@ -15805,7 +15808,7 @@
       <c r="B31" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="153" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -15820,7 +15823,7 @@
       <c r="G31" s="40">
         <v>2</v>
       </c>
-      <c r="I31" s="133" t="s">
+      <c r="I31" s="138" t="s">
         <v>487</v>
       </c>
       <c r="J31" s="7">
@@ -15837,7 +15840,7 @@
       <c r="B32" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="154" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -15852,7 +15855,7 @@
       <c r="G32" s="40">
         <v>1</v>
       </c>
-      <c r="I32" s="125"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="25">
         <v>2</v>
       </c>
@@ -15864,7 +15867,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="126"/>
+      <c r="I33" s="131"/>
       <c r="J33" s="9">
         <v>3</v>
       </c>
@@ -15876,11 +15879,11 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15915,7 +15918,7 @@
       <c r="B37" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="147" t="s">
         <v>235</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -15927,7 +15930,7 @@
       <c r="F37" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G37" s="140" t="s">
+      <c r="G37" s="156" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15936,7 +15939,7 @@
       <c r="B38" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="144"/>
+      <c r="C38" s="145"/>
       <c r="D38" s="31" t="s">
         <v>264</v>
       </c>
@@ -15946,14 +15949,14 @@
       <c r="F38" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G38" s="141"/>
+      <c r="G38" s="157"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="145"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="32" t="s">
         <v>265</v>
       </c>
@@ -15963,14 +15966,14 @@
       <c r="F39" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G39" s="142"/>
+      <c r="G39" s="158"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="145" t="s">
         <v>236</v>
       </c>
       <c r="D40" s="30" t="s">
@@ -15982,7 +15985,7 @@
       <c r="F40" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="140" t="s">
+      <c r="G40" s="156" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15991,7 +15994,7 @@
       <c r="B41" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C41" s="144"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="31" t="s">
         <v>275</v>
       </c>
@@ -16001,14 +16004,14 @@
       <c r="F41" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="141"/>
+      <c r="G41" s="157"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="145"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="32" t="s">
         <v>276</v>
       </c>
@@ -16018,14 +16021,14 @@
       <c r="F42" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="142"/>
+      <c r="G42" s="158"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="145" t="s">
         <v>237</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -16037,7 +16040,7 @@
       <c r="F43" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="G43" s="140" t="s">
+      <c r="G43" s="156" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16046,7 +16049,7 @@
       <c r="B44" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="31" t="s">
         <v>284</v>
       </c>
@@ -16056,14 +16059,14 @@
       <c r="F44" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="141"/>
+      <c r="G44" s="157"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="145"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="32" t="s">
         <v>285</v>
       </c>
@@ -16073,14 +16076,14 @@
       <c r="F45" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="G45" s="142"/>
+      <c r="G45" s="158"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C46" s="145" t="s">
         <v>238</v>
       </c>
       <c r="D46" s="30" t="s">
@@ -16092,7 +16095,7 @@
       <c r="F46" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="G46" s="140" t="s">
+      <c r="G46" s="156" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16101,7 +16104,7 @@
       <c r="B47" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="144"/>
+      <c r="C47" s="145"/>
       <c r="D47" s="31" t="s">
         <v>292</v>
       </c>
@@ -16111,14 +16114,14 @@
       <c r="F47" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="141"/>
+      <c r="G47" s="157"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C48" s="145"/>
+      <c r="C48" s="146"/>
       <c r="D48" s="32" t="s">
         <v>293</v>
       </c>
@@ -16128,14 +16131,14 @@
       <c r="F48" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="G48" s="142"/>
+      <c r="G48" s="158"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="145" t="s">
         <v>239</v>
       </c>
       <c r="D49" s="30" t="s">
@@ -16147,7 +16150,7 @@
       <c r="F49" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="140" t="s">
+      <c r="G49" s="156" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16156,7 +16159,7 @@
       <c r="B50" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="144"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="31" t="s">
         <v>295</v>
       </c>
@@ -16166,14 +16169,14 @@
       <c r="F50" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G50" s="141"/>
+      <c r="G50" s="157"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="145"/>
+      <c r="C51" s="146"/>
       <c r="D51" s="32" t="s">
         <v>296</v>
       </c>
@@ -16183,14 +16186,14 @@
       <c r="F51" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="142"/>
+      <c r="G51" s="158"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="147" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -16202,7 +16205,7 @@
       <c r="F52" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="G52" s="140" t="s">
+      <c r="G52" s="156" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16211,7 +16214,7 @@
       <c r="B53" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C53" s="144"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="31" t="s">
         <v>298</v>
       </c>
@@ -16221,14 +16224,14 @@
       <c r="F53" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="141"/>
+      <c r="G53" s="157"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="150"/>
+      <c r="C54" s="148"/>
       <c r="D54" s="32" t="s">
         <v>299</v>
       </c>
@@ -16238,13 +16241,13 @@
       <c r="F54" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="142"/>
+      <c r="G54" s="158"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="145" t="s">
         <v>241</v>
       </c>
       <c r="D55" s="30" t="s">
@@ -16256,7 +16259,7 @@
       <c r="F55" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G55" s="140" t="s">
+      <c r="G55" s="156" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16264,7 +16267,7 @@
       <c r="B56" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="144"/>
+      <c r="C56" s="145"/>
       <c r="D56" s="31" t="s">
         <v>337</v>
       </c>
@@ -16274,13 +16277,13 @@
       <c r="F56" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="141"/>
+      <c r="G56" s="157"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="145"/>
+      <c r="C57" s="146"/>
       <c r="D57" s="32" t="s">
         <v>338</v>
       </c>
@@ -16290,13 +16293,13 @@
       <c r="F57" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="G57" s="142"/>
+      <c r="G57" s="158"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="145" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="30" t="s">
@@ -16308,7 +16311,7 @@
       <c r="F58" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="G58" s="140" t="s">
+      <c r="G58" s="156" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16316,7 +16319,7 @@
       <c r="B59" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C59" s="144"/>
+      <c r="C59" s="145"/>
       <c r="D59" s="31" t="s">
         <v>340</v>
       </c>
@@ -16326,13 +16329,13 @@
       <c r="F59" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="G59" s="141"/>
+      <c r="G59" s="157"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C60" s="145"/>
+      <c r="C60" s="146"/>
       <c r="D60" s="32" t="s">
         <v>341</v>
       </c>
@@ -16342,13 +16345,13 @@
       <c r="F60" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="G60" s="142"/>
+      <c r="G60" s="158"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="151" t="s">
+      <c r="C61" s="149" t="s">
         <v>243</v>
       </c>
       <c r="D61" s="30" t="s">
@@ -16360,7 +16363,7 @@
       <c r="F61" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="140" t="s">
+      <c r="G61" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16368,7 +16371,7 @@
       <c r="B62" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="C62" s="152"/>
+      <c r="C62" s="150"/>
       <c r="D62" s="31" t="s">
         <v>343</v>
       </c>
@@ -16378,14 +16381,14 @@
       <c r="F62" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="141"/>
+      <c r="G62" s="157"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C63" s="153"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="32" t="s">
         <v>344</v>
       </c>
@@ -16395,14 +16398,14 @@
       <c r="F63" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="142"/>
+      <c r="G63" s="158"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="C64" s="144" t="s">
+      <c r="C64" s="145" t="s">
         <v>244</v>
       </c>
       <c r="D64" s="30" t="s">
@@ -16414,7 +16417,7 @@
       <c r="F64" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="140" t="s">
+      <c r="G64" s="156" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16422,7 +16425,7 @@
       <c r="B65" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C65" s="144"/>
+      <c r="C65" s="145"/>
       <c r="D65" s="31" t="s">
         <v>373</v>
       </c>
@@ -16432,13 +16435,13 @@
       <c r="F65" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="G65" s="141"/>
+      <c r="G65" s="157"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="C66" s="145"/>
+      <c r="C66" s="146"/>
       <c r="D66" s="95" t="s">
         <v>374</v>
       </c>
@@ -16448,13 +16451,13 @@
       <c r="F66" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G66" s="142"/>
+      <c r="G66" s="158"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="144" t="s">
+      <c r="C67" s="145" t="s">
         <v>245</v>
       </c>
       <c r="D67" s="30" t="s">
@@ -16466,7 +16469,7 @@
       <c r="F67" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="140" t="s">
+      <c r="G67" s="156" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16474,7 +16477,7 @@
       <c r="B68" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C68" s="144"/>
+      <c r="C68" s="145"/>
       <c r="D68" s="31" t="s">
         <v>376</v>
       </c>
@@ -16484,13 +16487,13 @@
       <c r="F68" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="G68" s="141"/>
+      <c r="G68" s="157"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="C69" s="145"/>
+      <c r="C69" s="146"/>
       <c r="D69" s="32" t="s">
         <v>377</v>
       </c>
@@ -16500,13 +16503,13 @@
       <c r="F69" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="G69" s="142"/>
+      <c r="G69" s="158"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C70" s="143" t="s">
+      <c r="C70" s="147" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="30" t="s">
@@ -16518,7 +16521,7 @@
       <c r="F70" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="G70" s="140" t="s">
+      <c r="G70" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16527,7 +16530,7 @@
       <c r="B71" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="144"/>
+      <c r="C71" s="145"/>
       <c r="D71" s="31" t="s">
         <v>379</v>
       </c>
@@ -16537,14 +16540,14 @@
       <c r="F71" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="G71" s="141"/>
+      <c r="G71" s="157"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="C72" s="145"/>
+      <c r="C72" s="146"/>
       <c r="D72" s="32" t="s">
         <v>380</v>
       </c>
@@ -16554,14 +16557,14 @@
       <c r="F72" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="G72" s="142"/>
+      <c r="G72" s="158"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="145" t="s">
         <v>247</v>
       </c>
       <c r="D73" s="30" t="s">
@@ -16573,7 +16576,7 @@
       <c r="F73" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="G73" s="140" t="s">
+      <c r="G73" s="156" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16582,7 +16585,7 @@
       <c r="B74" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C74" s="144"/>
+      <c r="C74" s="145"/>
       <c r="D74" s="31" t="s">
         <v>409</v>
       </c>
@@ -16592,14 +16595,14 @@
       <c r="F74" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="G74" s="141"/>
+      <c r="G74" s="157"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="145"/>
+      <c r="C75" s="146"/>
       <c r="D75" s="32" t="s">
         <v>410</v>
       </c>
@@ -16609,14 +16612,14 @@
       <c r="F75" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="G75" s="142"/>
+      <c r="G75" s="158"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C76" s="144" t="s">
+      <c r="C76" s="145" t="s">
         <v>248</v>
       </c>
       <c r="D76" s="30" t="s">
@@ -16628,7 +16631,7 @@
       <c r="F76" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="G76" s="140" t="s">
+      <c r="G76" s="156" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16637,7 +16640,7 @@
       <c r="B77" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C77" s="144"/>
+      <c r="C77" s="145"/>
       <c r="D77" s="94" t="s">
         <v>412</v>
       </c>
@@ -16647,14 +16650,14 @@
       <c r="F77" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="G77" s="141"/>
+      <c r="G77" s="157"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C78" s="145"/>
+      <c r="C78" s="146"/>
       <c r="D78" s="32" t="s">
         <v>441</v>
       </c>
@@ -16664,14 +16667,14 @@
       <c r="F78" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="G78" s="142"/>
+      <c r="G78" s="158"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C79" s="143" t="s">
+      <c r="C79" s="147" t="s">
         <v>249</v>
       </c>
       <c r="D79" s="30" t="s">
@@ -16683,7 +16686,7 @@
       <c r="F79" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="G79" s="140" t="s">
+      <c r="G79" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16692,7 +16695,7 @@
       <c r="B80" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="C80" s="144"/>
+      <c r="C80" s="145"/>
       <c r="D80" s="31" t="s">
         <v>414</v>
       </c>
@@ -16702,14 +16705,14 @@
       <c r="F80" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="G80" s="141"/>
+      <c r="G80" s="157"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="146"/>
       <c r="D81" s="32" t="s">
         <v>415</v>
       </c>
@@ -16719,14 +16722,14 @@
       <c r="F81" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="G81" s="142"/>
+      <c r="G81" s="158"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="C82" s="144" t="s">
+      <c r="C82" s="145" t="s">
         <v>250</v>
       </c>
       <c r="D82" s="30" t="s">
@@ -16738,7 +16741,7 @@
       <c r="F82" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="G82" s="140" t="s">
+      <c r="G82" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16747,7 +16750,7 @@
       <c r="B83" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="C83" s="144"/>
+      <c r="C83" s="145"/>
       <c r="D83" s="94" t="s">
         <v>437</v>
       </c>
@@ -16757,14 +16760,14 @@
       <c r="F83" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="G83" s="141"/>
+      <c r="G83" s="157"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="C84" s="145"/>
+      <c r="C84" s="146"/>
       <c r="D84" s="95" t="s">
         <v>438</v>
       </c>
@@ -16774,14 +16777,14 @@
       <c r="F84" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="G84" s="142"/>
+      <c r="G84" s="158"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="C85" s="144" t="s">
+      <c r="C85" s="145" t="s">
         <v>251</v>
       </c>
       <c r="D85" s="30" t="s">
@@ -16793,7 +16796,7 @@
       <c r="F85" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="140" t="s">
+      <c r="G85" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16802,7 +16805,7 @@
       <c r="B86" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C86" s="144"/>
+      <c r="C86" s="145"/>
       <c r="D86" s="31" t="s">
         <v>440</v>
       </c>
@@ -16812,14 +16815,14 @@
       <c r="F86" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="G86" s="141"/>
+      <c r="G86" s="157"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C87" s="145"/>
+      <c r="C87" s="146"/>
       <c r="D87" s="32" t="s">
         <v>442</v>
       </c>
@@ -16829,14 +16832,14 @@
       <c r="F87" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="G87" s="142"/>
+      <c r="G87" s="158"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C88" s="143" t="s">
+      <c r="C88" s="147" t="s">
         <v>252</v>
       </c>
       <c r="D88" s="30" t="s">
@@ -16848,7 +16851,7 @@
       <c r="F88" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="G88" s="140" t="s">
+      <c r="G88" s="156" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16857,7 +16860,7 @@
       <c r="B89" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C89" s="144"/>
+      <c r="C89" s="145"/>
       <c r="D89" s="31" t="s">
         <v>444</v>
       </c>
@@ -16867,14 +16870,14 @@
       <c r="F89" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="G89" s="141"/>
+      <c r="G89" s="157"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="C90" s="145"/>
+      <c r="C90" s="146"/>
       <c r="D90" s="32" t="s">
         <v>445</v>
       </c>
@@ -16884,15 +16887,44 @@
       <c r="F90" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="G90" s="142"/>
+      <c r="G90" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C45"/>
@@ -16905,40 +16937,11 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -16994,8 +16997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D0DC7-188F-4907-92DF-1ADC13272703}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17015,11 +17018,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="128" t="s">
         <v>490</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -17579,7 +17582,7 @@
       <c r="C19" s="8">
         <v>111222666</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="121" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="68" t="s">
@@ -17987,7 +17990,7 @@
     <hyperlink ref="C20" location="Organização!D9" display="Organização!D9" xr:uid="{68D45E4F-72C4-487A-9905-E683C105335B}"/>
     <hyperlink ref="D17" location="Organização!E40" display="tomas@marcelo.advogados.pt" xr:uid="{EC34DC22-193A-47F0-B2AE-41BB61DE744E}"/>
     <hyperlink ref="D18" location="Organização!E40" display="tomas@marcelo.advogados.pt" xr:uid="{DB1E40B0-83B9-4CDF-941F-109010250DEC}"/>
-    <hyperlink ref="D19" location="Organização!E39" display="francisca@marcelo.advogados.pt" xr:uid="{95489C89-A2D0-47B2-B01D-99361F24FBE0}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{95489C89-A2D0-47B2-B01D-99361F24FBE0}"/>
     <hyperlink ref="D20" location="Organização!E39" display="francisca@marcelo.advogados.pt" xr:uid="{0464B481-CE53-4096-AA36-15A7FCA92E28}"/>
     <hyperlink ref="E17" location="AreaAtividade!D30" display="AC-006_01" xr:uid="{76E4DD76-27CB-4CF0-983D-70608F3E6124}"/>
     <hyperlink ref="E18" location="AreaAtividade!D30" display="AC-006_01" xr:uid="{634E9415-9D92-4488-9179-8362F9D203B1}"/>
@@ -18019,5 +18022,6 @@
     <hyperlink ref="E28" location="AreaAtividade!D24" display="AC-004_01" xr:uid="{9A1E3EE0-32D0-4584-90E1-C936CCDE7FDF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BaseDados/Dados BD.xlsx
+++ b/BaseDados/Dados BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\BaseDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7B45C-1CA2-4378-B03A-8B193497F94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6817468-8FF5-4CB0-A1B1-87620483143E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{657CB9A2-C43B-426B-A736-BB7BF31CC9FD}"/>
   </bookViews>
@@ -4095,9 +4095,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4128,6 +4125,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4187,25 +4187,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4220,13 +4217,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4781,7 +4781,7 @@
       <c r="H13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="117" t="str">
+      <c r="J13" s="116" t="str">
         <f>CONCATENATE(C13,", ",D13,", ",E13,", ",F13,", ",G13,", ",H13)</f>
         <v>111222666, José Fontes, jose@marceloadvogados.pt, Vice-Presidente, 222333777, Gestor</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="H14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="117" t="str">
+      <c r="J14" s="116" t="str">
         <f t="shared" ref="J14:J18" si="0">CONCATENATE(C14,", ",D14,", ",E14,", ",F14,", ",G14,", ",H14)</f>
         <v>111222666, Francisca Cardoso, francisca@marceloadvogados.pt, Assistente, 222333774, Colaborador</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="H15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="117" t="str">
+      <c r="J15" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222666, Tomás Fonseca, tomas@marceloadvogados.pt, Despachante, 222333775, Colaborador</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="H16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="117" t="str">
+      <c r="J16" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Sofia Barcelos, sofia@inesengenharia.com, Vice-Presidente, 212333999, Gestor</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="H17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="117" t="str">
+      <c r="J17" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Matilde Oliveira, matilde@inesengenharia.com, Gestora de Projetos, 212333991, Colaborador</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="H18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="117" t="str">
+      <c r="J18" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, Eduardo Lima, eduardo@inesengenharia.com, Coordenador de Mecânica, 212333994, Colaborador</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="B85" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="152" t="s">
+      <c r="C85" s="151" t="s">
         <v>626</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -6960,7 +6960,7 @@
       <c r="B86" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="154"/>
+      <c r="C86" s="153"/>
       <c r="D86" s="10" t="s">
         <v>374</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="B105" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="153" t="s">
+      <c r="C105" s="152" t="s">
         <v>627</v>
       </c>
       <c r="D105" s="54" t="s">
@@ -7116,7 +7116,7 @@
       <c r="B106" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="154"/>
+      <c r="C106" s="153"/>
       <c r="D106" s="10" t="s">
         <v>266</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="B107" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="155" t="s">
+      <c r="C107" s="154" t="s">
         <v>628</v>
       </c>
       <c r="D107" s="54" t="s">
@@ -7144,7 +7144,7 @@
       <c r="B108" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="154"/>
+      <c r="C108" s="153"/>
       <c r="D108" s="10" t="s">
         <v>284</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="B109" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="155" t="s">
+      <c r="C109" s="154" t="s">
         <v>629</v>
       </c>
       <c r="D109" s="54" t="s">
@@ -7172,7 +7172,7 @@
       <c r="B110" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="154"/>
+      <c r="C110" s="153"/>
       <c r="D110" s="10" t="s">
         <v>373</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="B111" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="155" t="s">
+      <c r="C111" s="154" t="s">
         <v>630</v>
       </c>
       <c r="D111" s="54" t="s">
@@ -7200,7 +7200,7 @@
       <c r="B112" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="154"/>
+      <c r="C112" s="153"/>
       <c r="D112" s="10" t="s">
         <v>341</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="B113" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="155" t="s">
+      <c r="C113" s="154" t="s">
         <v>631</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -7228,7 +7228,7 @@
       <c r="B114" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="154"/>
+      <c r="C114" s="153"/>
       <c r="D114" s="10" t="s">
         <v>374</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="B115" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C115" s="153" t="s">
+      <c r="C115" s="152" t="s">
         <v>632</v>
       </c>
       <c r="D115" s="54" t="s">
@@ -7256,7 +7256,7 @@
       <c r="B116" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C116" s="154"/>
+      <c r="C116" s="153"/>
       <c r="D116" s="10" t="s">
         <v>438</v>
       </c>
@@ -7269,7 +7269,7 @@
       <c r="B117" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C117" s="155" t="s">
+      <c r="C117" s="154" t="s">
         <v>633</v>
       </c>
       <c r="D117" s="54" t="s">
@@ -7284,7 +7284,7 @@
       <c r="B118" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="C118" s="154"/>
+      <c r="C118" s="153"/>
       <c r="D118" s="10" t="s">
         <v>337</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="B119" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="C119" s="155" t="s">
+      <c r="C119" s="154" t="s">
         <v>634</v>
       </c>
       <c r="D119" s="54" t="s">
@@ -7312,7 +7312,7 @@
       <c r="B120" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C120" s="154"/>
+      <c r="C120" s="153"/>
       <c r="D120" s="10" t="s">
         <v>445</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="B121" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C121" s="155" t="s">
+      <c r="C121" s="154" t="s">
         <v>635</v>
       </c>
       <c r="D121" s="54" t="s">
@@ -7340,7 +7340,7 @@
       <c r="B122" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C122" s="154"/>
+      <c r="C122" s="153"/>
       <c r="D122" s="10" t="s">
         <v>295</v>
       </c>
@@ -7351,6 +7351,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C113:C114"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="C119:C120"/>
     <mergeCell ref="C121:C122"/>
@@ -7367,7 +7368,6 @@
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -7490,733 +7490,799 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4207A-FD9A-4441-8D18-CA12DEE5B8C9}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="128" t="s">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="C2" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="128"/>
       <c r="D2" s="128"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="99" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="G5" t="str">
-        <f>CONCATENATE(C5,", ",D5,", ",E5)</f>
+      <c r="H5" t="str">
+        <f>CONCATENATE(D5,", ",E5,", ",F5)</f>
         <v>AA-001, Design e Tecnologia, AudioVisual, Gráfica e Prototipagem</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="99" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G7" si="0">CONCATENATE(C6,", ",D6,", ",E6)</f>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H7" si="0">CONCATENATE(D6,", ",E6,", ",F6)</f>
         <v>AA-002, Serviços Domésticos, Cozinha, Limpeza, Segurança</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="99" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>AA-003, Projetos e Reformas, Arquitectura, Construção, Elaboração de Projetos, Instalação, Reparos</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
+    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="C9" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="128"/>
       <c r="D9" s="128"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="D11" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="E11" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="F11" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="G11" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="H11" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="I11" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="J11" s="97" t="s">
         <v>697</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97">
         <v>1</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="D12" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="E12" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="F12" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="G12" s="98" t="s">
         <v>822</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="H12" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="I12" s="97">
+      <c r="J12" s="97">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>42</v>
       </c>
-      <c r="K12" t="str">
-        <f>CONCATENATE(C12,", ",D12,", ",E12,", ",F12,", ",G12,", ",H12,", ",I12)</f>
+      <c r="L12" t="str">
+        <f>CONCATENATE(D12,", ",E12,", ",F12,", ",G12,", ",H12,", ",I12,", ",J12)</f>
         <v>AA-001, AC-001_01, WebDesign, CC-001, S, GP_001_2, 2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97">
         <v>2</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="D13" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="E13" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="F13" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="G13" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="H13" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="I13" s="97">
+      <c r="J13" s="97">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>46</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" ref="K13:K15" si="1">CONCATENATE(C13,", ",D13,", ",E13,", ",F13,", ",G13,", ",H13,", ",I13)</f>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L15" si="1">CONCATENATE(D13,", ",E13,", ",F13,", ",G13,", ",H13,", ",I13,", ",J13)</f>
         <v>AA-002, AC-002_01, Limpeza, CC-002, N, GP_003_1, 1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="D14" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="E14" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="F14" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="G14" s="98" t="s">
         <v>824</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="H14" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="I14" s="97">
+      <c r="J14" s="97">
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>48</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>AA-003, AC-003_01, Arquitetura e Construção, CC-003, S, GP_002_2, 2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="D15" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="E15" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="F15" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="G15" s="98" t="s">
         <v>825</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="H15" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="I15" s="97">
+      <c r="J15" s="97">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>52</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>AA-003, AC-003_02, Elaboração de projetos, CC-004, S, GP_002_2, 2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="128" t="s">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C18" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="128"/>
       <c r="D18" s="128"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="C20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="F20" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="G20" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="40">
+      <c r="C21" s="40">
         <v>1</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="D21" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="F21" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="H21" t="str">
-        <f>CONCATENATE(C21,", ",D21,", ",E21,", ",F21)</f>
+      <c r="I21" t="str">
+        <f>CONCATENATE(D21,", ",E21,", ",F21,", ",G21)</f>
         <v>CC-001, WebDesign, Experiência em WebDesign, GP_001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="40">
+      <c r="C22" s="40">
         <v>2</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="D22" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="F22" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" ref="H22:H24" si="2">CONCATENATE(C22,", ",D22,", ",E22,", ",F22)</f>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I24" si="2">CONCATENATE(D22,", ",E22,", ",F22,", ",G22)</f>
         <v>CC-002, Limpeza de Escritórios, Tempo para Limpeza de Escritórios, GP_003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="40">
+      <c r="C23" s="40">
         <v>3</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="D23" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="E23" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="F23" s="40" t="s">
         <v>908</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>CC-003, Projectos de Arquitetura para Empresas, Experiência em Projectos de Arquitetura para Empresas, GP_002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="40">
+      <c r="C24" s="40">
         <v>4</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="D24" s="97" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="E24" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v>CC-004, Construção de Projectos para Empresas, Experiência em Construção de Projectos para Empresas, GP_002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="132" t="s">
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C26" s="132" t="s">
         <v>484</v>
       </c>
-      <c r="C26" s="133"/>
       <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>911</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="C28" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="D28" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="E28" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="F28" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="G28" s="55" t="s">
         <v>910</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="135" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>41</v>
+      </c>
+      <c r="C29" s="135" t="s">
         <v>480</v>
       </c>
-      <c r="C29" s="7">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="E29" s="63" t="s">
         <v>669</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="F29" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="G29" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G29" t="str">
-        <f>CONCATENATE(D29,", ",C29,", ",E29)</f>
+      <c r="H29" t="str">
+        <f>CONCATENATE(E29,", ",D29,", ",F29)</f>
         <v>GP_001_1, 1, Iniciante</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
         <v>42</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="40">
+      <c r="C30" s="136"/>
+      <c r="D30" s="40">
         <v>2</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="E30" s="61" t="s">
         <v>670</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="G30" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" ref="G30:G38" si="3">CONCATENATE(D30,", ",C30,", ",E30)</f>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H38" si="3">CONCATENATE(E30,", ",D30,", ",F30)</f>
         <v>GP_001_2, 2, Intermediário</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
-      <c r="C31" s="40">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="B31">
+        <v>43</v>
+      </c>
+      <c r="C31" s="136"/>
+      <c r="D31" s="40">
+        <v>3</v>
+      </c>
+      <c r="E31" s="61" t="s">
         <v>671</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="F31" s="97" t="s">
+      <c r="G31" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="3"/>
         <v>GP_001_3, 3, Avançado</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="137"/>
-      <c r="C32" s="9">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="B32">
+        <v>44</v>
+      </c>
+      <c r="C32" s="137"/>
+      <c r="D32" s="9">
+        <v>4</v>
+      </c>
+      <c r="E32" s="65" t="s">
         <v>821</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="F32" s="97" t="s">
+      <c r="G32" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="3"/>
         <v>GP_001_4, 4, Proficiente</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="129" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33" s="129" t="s">
         <v>481</v>
       </c>
-      <c r="C33" s="12">
+      <c r="D33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="F33" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="G33" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="3"/>
         <v>GP_002_1, 1, Pequeno Porte</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <v>46</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="40">
+      <c r="C34" s="130"/>
+      <c r="D34" s="40">
         <v>2</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="E34" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="F34" s="97" t="s">
+      <c r="G34" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="3"/>
         <v>GP_002_2, 2, Médio Porte</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="131"/>
-      <c r="C35" s="9">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>47</v>
+      </c>
+      <c r="C35" s="131"/>
+      <c r="D35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="E35" s="65" t="s">
         <v>674</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F35" s="97" t="s">
+      <c r="G35" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="3"/>
         <v>GP_002_3, 3, Grande Porte</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
         <v>48</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="C36" s="138" t="s">
         <v>485</v>
       </c>
-      <c r="C36" s="7">
+      <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="F36" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="F36" s="97" t="s">
+      <c r="G36" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="3"/>
         <v>GP_003_1, 1, Rápida (até 4 horas)</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="130"/>
-      <c r="C37" s="40">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>59</v>
+      </c>
+      <c r="C37" s="130"/>
+      <c r="D37" s="40">
         <v>2</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="E37" s="61" t="s">
         <v>677</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="F37" s="97" t="s">
+      <c r="G37" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="3"/>
         <v>GP_003_2, 2, Média Duração (até 6 horas)</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="131"/>
-      <c r="C38" s="9">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38" s="131"/>
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F38" s="97" t="s">
+      <c r="G38" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="3"/>
         <v>GP_003_3, 3, Completa (7 horas ou mais)</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="129" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>51</v>
+      </c>
+      <c r="C39" s="129" t="s">
         <v>481</v>
       </c>
-      <c r="C39" s="12">
+      <c r="D39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="F39" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="F39" s="97" t="s">
+      <c r="G39" s="97" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
         <v>52</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="55">
+      <c r="C40" s="130"/>
+      <c r="D40" s="55">
         <v>2</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="E40" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="F40" s="97" t="s">
+      <c r="G40" s="97" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="131"/>
-      <c r="C41" s="9">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>53</v>
+      </c>
+      <c r="C41" s="131"/>
+      <c r="D41" s="9">
         <v>3</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="E41" s="65" t="s">
         <v>674</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F41" s="97" t="s">
+      <c r="G41" s="97" t="s">
         <v>825</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" location="AreaAtividade_BD!C5" display="AA-001" xr:uid="{699F9D32-1B9B-4FD5-9F3B-E2328939CB1E}"/>
-    <hyperlink ref="C13" location="AreaAtividade_BD!C6" display="AA-002" xr:uid="{96750C9B-F979-4CF5-A95B-51A7238B23FB}"/>
-    <hyperlink ref="F12" location="AreaAtividade_BD!C21" display="CC-001" xr:uid="{7FC7D614-3381-43B0-931D-4D8E9E7015F9}"/>
-    <hyperlink ref="F13" location="AreaAtividade_BD!C22" display="CC-002" xr:uid="{84A99E05-3C3C-4E34-A3DC-FC7EED7A6056}"/>
-    <hyperlink ref="F14" location="AreaAtividade_BD!C23" display="CC-003" xr:uid="{43FECF25-F353-494E-984A-4DC91D370AAE}"/>
-    <hyperlink ref="F15" location="AreaAtividade_BD!C24" display="CC-004" xr:uid="{BDB2625C-EA07-45DF-8465-736602A3155D}"/>
-    <hyperlink ref="H12" location="AreaAtividade_BD!D30" display="GP_001_2" xr:uid="{01DBC552-FB8E-4A13-8243-38654841DE29}"/>
-    <hyperlink ref="H13" location="AreaAtividade_BD!D36" display="GP_003_1" xr:uid="{7EF706BB-734F-4696-A311-1058B70B258D}"/>
-    <hyperlink ref="H14" location="AreaAtividade_BD!D34" display="GP_002_2" xr:uid="{59F2E6D9-4898-46AE-910A-C283EC560416}"/>
-    <hyperlink ref="H15" location="AreaAtividade_BD!D34" display="GP_002_2" xr:uid="{F996E9AA-8715-4C6E-ADD7-7C24AFDC2E5F}"/>
-    <hyperlink ref="F21" location="AreaAtividade_BD!B29" display="GP_001" xr:uid="{8DE905E0-6831-47C5-B450-AD36DBA86810}"/>
-    <hyperlink ref="F23" location="AreaAtividade_BD!B33" display="GP_002" xr:uid="{AE8BB796-BBBB-413F-B835-2681EAB96766}"/>
-    <hyperlink ref="F24" location="AreaAtividade_BD!B33" display="GP_002" xr:uid="{696056FF-08C2-4C7C-874D-992515F40895}"/>
-    <hyperlink ref="F22" location="AreaAtividade_BD!B36" display="GP_003" xr:uid="{D7D7D0B9-4903-4DBD-BFCB-EFA77E91D75E}"/>
-    <hyperlink ref="A21" location="AreaAtividade_BD!C5" display="AA-001" xr:uid="{A0D1EA42-5AE0-4E94-A03B-5E9C65ECE96A}"/>
-    <hyperlink ref="A22" location="AreaAtividade_BD!C6" display="AA-002" xr:uid="{7166A81F-5D55-4B9E-A27C-DC050008953B}"/>
+    <hyperlink ref="D12" location="AreaAtividade_BD!C5" display="AA-001" xr:uid="{699F9D32-1B9B-4FD5-9F3B-E2328939CB1E}"/>
+    <hyperlink ref="D13" location="AreaAtividade_BD!C6" display="AA-002" xr:uid="{96750C9B-F979-4CF5-A95B-51A7238B23FB}"/>
+    <hyperlink ref="G12" location="AreaAtividade_BD!C21" display="CC-001" xr:uid="{7FC7D614-3381-43B0-931D-4D8E9E7015F9}"/>
+    <hyperlink ref="G13" location="AreaAtividade_BD!C22" display="CC-002" xr:uid="{84A99E05-3C3C-4E34-A3DC-FC7EED7A6056}"/>
+    <hyperlink ref="G14" location="AreaAtividade_BD!C23" display="CC-003" xr:uid="{43FECF25-F353-494E-984A-4DC91D370AAE}"/>
+    <hyperlink ref="G15" location="AreaAtividade_BD!C24" display="CC-004" xr:uid="{BDB2625C-EA07-45DF-8465-736602A3155D}"/>
+    <hyperlink ref="I12" location="AreaAtividade_BD!D30" display="GP_001_2" xr:uid="{01DBC552-FB8E-4A13-8243-38654841DE29}"/>
+    <hyperlink ref="I13" location="AreaAtividade_BD!D36" display="GP_003_1" xr:uid="{7EF706BB-734F-4696-A311-1058B70B258D}"/>
+    <hyperlink ref="I14" location="AreaAtividade_BD!D34" display="GP_002_2" xr:uid="{59F2E6D9-4898-46AE-910A-C283EC560416}"/>
+    <hyperlink ref="I15" location="AreaAtividade_BD!D34" display="GP_002_2" xr:uid="{F996E9AA-8715-4C6E-ADD7-7C24AFDC2E5F}"/>
+    <hyperlink ref="G21" location="AreaAtividade_BD!B29" display="GP_001" xr:uid="{8DE905E0-6831-47C5-B450-AD36DBA86810}"/>
+    <hyperlink ref="G23" location="AreaAtividade_BD!B33" display="GP_002" xr:uid="{AE8BB796-BBBB-413F-B835-2681EAB96766}"/>
+    <hyperlink ref="G24" location="AreaAtividade_BD!B33" display="GP_002" xr:uid="{696056FF-08C2-4C7C-874D-992515F40895}"/>
+    <hyperlink ref="G22" location="AreaAtividade_BD!B36" display="GP_003" xr:uid="{D7D7D0B9-4903-4DBD-BFCB-EFA77E91D75E}"/>
+    <hyperlink ref="B21" location="AreaAtividade_BD!C5" display="AA-001" xr:uid="{A0D1EA42-5AE0-4E94-A03B-5E9C65ECE96A}"/>
+    <hyperlink ref="B22" location="AreaAtividade_BD!C6" display="AA-002" xr:uid="{7166A81F-5D55-4B9E-A27C-DC050008953B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8227,14 +8293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2570F754-5158-4E4C-959B-5538D140A16D}">
   <dimension ref="A3:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="117" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -8323,7 +8389,7 @@
       <c r="C7" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="119" t="s">
         <v>913</v>
       </c>
       <c r="E7" s="40">
@@ -8348,7 +8414,7 @@
         <v>605</v>
       </c>
       <c r="L7" s="3">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="M7" t="str">
         <f>CONCATENATE(C7,", ",D7,", ",E7,", ",F7,", ",G7,", ",H7,", ",I7,", ",J7,", ",K7)</f>
@@ -8365,7 +8431,7 @@
       <c r="C8" s="40" t="s">
         <v>912</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="119" t="s">
         <v>914</v>
       </c>
       <c r="E8" s="40">
@@ -8390,7 +8456,7 @@
         <v>610</v>
       </c>
       <c r="L8" s="3">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ref="M8:M36" si="0">CONCATENATE(C8,", ",D8,", ",E8,", ",F8,", ",G8,", ",H8,", ",I8,", ",J8,", ",K8)</f>
@@ -8407,7 +8473,7 @@
       <c r="C9" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="119" t="s">
         <v>915</v>
       </c>
       <c r="E9" s="40">
@@ -8431,8 +8497,8 @@
       <c r="K9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="L9" s="113">
-        <v>49</v>
+      <c r="L9" s="125">
+        <v>5</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -8446,7 +8512,7 @@
       <c r="C10" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="119" t="s">
         <v>916</v>
       </c>
       <c r="E10" s="40">
@@ -8470,8 +8536,8 @@
       <c r="K10" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="L10" s="113">
-        <v>50</v>
+      <c r="L10" s="125">
+        <v>6</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -8485,7 +8551,7 @@
       <c r="C11" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="119" t="s">
         <v>917</v>
       </c>
       <c r="E11" s="40">
@@ -8509,8 +8575,8 @@
       <c r="K11" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="L11" s="113">
-        <v>51</v>
+      <c r="L11" s="125">
+        <v>7</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
@@ -8524,7 +8590,7 @@
       <c r="C12" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="119" t="s">
         <v>918</v>
       </c>
       <c r="E12" s="40">
@@ -8548,8 +8614,8 @@
       <c r="K12" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="L12" s="113">
-        <v>52</v>
+      <c r="L12" s="125">
+        <v>8</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -8563,7 +8629,7 @@
       <c r="C13" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="119" t="s">
         <v>919</v>
       </c>
       <c r="E13" s="40">
@@ -8587,8 +8653,8 @@
       <c r="K13" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="L13" s="113">
-        <v>53</v>
+      <c r="L13" s="125">
+        <v>9</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
@@ -8602,7 +8668,7 @@
       <c r="C14" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="119" t="s">
         <v>920</v>
       </c>
       <c r="E14" s="40">
@@ -8626,8 +8692,8 @@
       <c r="K14" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="L14" s="113">
-        <v>54</v>
+      <c r="L14" s="125">
+        <v>10</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
@@ -8641,7 +8707,7 @@
       <c r="C15" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="119" t="s">
         <v>921</v>
       </c>
       <c r="E15" s="40">
@@ -8665,8 +8731,8 @@
       <c r="K15" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L15" s="113">
-        <v>55</v>
+      <c r="L15" s="125">
+        <v>11</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
@@ -8683,7 +8749,7 @@
       <c r="C16" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="119" t="s">
         <v>922</v>
       </c>
       <c r="E16" s="40">
@@ -8707,8 +8773,8 @@
       <c r="K16" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="L16" s="113">
-        <v>56</v>
+      <c r="L16" s="125">
+        <v>12</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
@@ -8725,7 +8791,7 @@
       <c r="C17" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="119" t="s">
         <v>923</v>
       </c>
       <c r="E17" s="40">
@@ -8749,8 +8815,8 @@
       <c r="K17" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="L17" s="113">
-        <v>57</v>
+      <c r="L17" s="125">
+        <v>13</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
@@ -8764,7 +8830,7 @@
       <c r="C18" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="119" t="s">
         <v>924</v>
       </c>
       <c r="E18" s="40">
@@ -8788,8 +8854,8 @@
       <c r="K18" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="L18" s="113">
-        <v>58</v>
+      <c r="L18" s="125">
+        <v>14</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
@@ -8803,7 +8869,7 @@
       <c r="C19" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="119" t="s">
         <v>925</v>
       </c>
       <c r="E19" s="40">
@@ -8827,8 +8893,8 @@
       <c r="K19" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="L19" s="113">
-        <v>59</v>
+      <c r="L19" s="125">
+        <v>15</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
@@ -8842,7 +8908,7 @@
       <c r="C20" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="119" t="s">
         <v>926</v>
       </c>
       <c r="E20" s="40">
@@ -8866,8 +8932,8 @@
       <c r="K20" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="113">
-        <v>60</v>
+      <c r="L20" s="125">
+        <v>16</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
@@ -8881,7 +8947,7 @@
       <c r="C21" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="119" t="s">
         <v>927</v>
       </c>
       <c r="E21" s="40">
@@ -8905,8 +8971,8 @@
       <c r="K21" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="L21" s="113">
-        <v>61</v>
+      <c r="L21" s="125">
+        <v>17</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
@@ -8920,7 +8986,7 @@
       <c r="C22" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="119" t="s">
         <v>928</v>
       </c>
       <c r="E22" s="40">
@@ -8944,8 +9010,8 @@
       <c r="K22" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="L22" s="113">
-        <v>62</v>
+      <c r="L22" s="125">
+        <v>18</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
@@ -8959,7 +9025,7 @@
       <c r="C23" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="119" t="s">
         <v>929</v>
       </c>
       <c r="E23" s="40">
@@ -8983,8 +9049,8 @@
       <c r="K23" s="40" t="s">
         <v>792</v>
       </c>
-      <c r="L23" s="113">
-        <v>63</v>
+      <c r="L23" s="125">
+        <v>19</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
@@ -8998,7 +9064,7 @@
       <c r="C24" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="119" t="s">
         <v>930</v>
       </c>
       <c r="E24" s="40">
@@ -9022,8 +9088,8 @@
       <c r="K24" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="L24" s="113">
-        <v>64</v>
+      <c r="L24" s="125">
+        <v>20</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
@@ -9037,7 +9103,7 @@
       <c r="C25" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="119" t="s">
         <v>931</v>
       </c>
       <c r="E25" s="40">
@@ -9061,8 +9127,8 @@
       <c r="K25" s="40" t="s">
         <v>794</v>
       </c>
-      <c r="L25" s="113">
-        <v>65</v>
+      <c r="L25" s="125">
+        <v>21</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
@@ -9079,7 +9145,7 @@
       <c r="C26" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="119" t="s">
         <v>932</v>
       </c>
       <c r="E26" s="40">
@@ -9103,8 +9169,8 @@
       <c r="K26" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="L26" s="113">
-        <v>66</v>
+      <c r="L26" s="125">
+        <v>22</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
@@ -9121,7 +9187,7 @@
       <c r="C27" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="119" t="s">
         <v>933</v>
       </c>
       <c r="E27" s="40">
@@ -9145,8 +9211,8 @@
       <c r="K27" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="L27" s="113">
-        <v>67</v>
+      <c r="L27" s="125">
+        <v>23</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
@@ -9160,7 +9226,7 @@
       <c r="C28" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="119" t="s">
         <v>934</v>
       </c>
       <c r="E28" s="40">
@@ -9184,8 +9250,8 @@
       <c r="K28" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="L28" s="113">
-        <v>68</v>
+      <c r="L28" s="125">
+        <v>24</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
@@ -9199,7 +9265,7 @@
       <c r="C29" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="119" t="s">
         <v>935</v>
       </c>
       <c r="E29" s="40">
@@ -9223,8 +9289,8 @@
       <c r="K29" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="L29" s="113">
-        <v>69</v>
+      <c r="L29" s="125">
+        <v>25</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
@@ -9238,7 +9304,7 @@
       <c r="C30" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="119" t="s">
         <v>936</v>
       </c>
       <c r="E30" s="40">
@@ -9262,8 +9328,8 @@
       <c r="K30" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="L30" s="113">
-        <v>70</v>
+      <c r="L30" s="125">
+        <v>26</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
@@ -9277,7 +9343,7 @@
       <c r="C31" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="119" t="s">
         <v>937</v>
       </c>
       <c r="E31" s="40">
@@ -9301,8 +9367,8 @@
       <c r="K31" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="L31" s="113">
-        <v>71</v>
+      <c r="L31" s="125">
+        <v>27</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
@@ -9316,7 +9382,7 @@
       <c r="C32" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="119" t="s">
         <v>938</v>
       </c>
       <c r="E32" s="40">
@@ -9340,8 +9406,8 @@
       <c r="K32" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="L32" s="113">
-        <v>72</v>
+      <c r="L32" s="125">
+        <v>28</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
@@ -9355,7 +9421,7 @@
       <c r="C33" s="40" t="s">
         <v>734</v>
       </c>
-      <c r="D33" s="120" t="s">
+      <c r="D33" s="119" t="s">
         <v>939</v>
       </c>
       <c r="E33" s="40">
@@ -9379,8 +9445,8 @@
       <c r="K33" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="L33" s="113">
-        <v>73</v>
+      <c r="L33" s="125">
+        <v>29</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
@@ -9397,7 +9463,7 @@
       <c r="C34" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="119" t="s">
         <v>940</v>
       </c>
       <c r="E34" s="40">
@@ -9421,8 +9487,8 @@
       <c r="K34" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="L34" s="113">
-        <v>74</v>
+      <c r="L34" s="125">
+        <v>30</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
@@ -9439,7 +9505,7 @@
       <c r="C35" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="119" t="s">
         <v>941</v>
       </c>
       <c r="E35" s="40">
@@ -9463,8 +9529,8 @@
       <c r="K35" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="L35" s="113">
-        <v>75</v>
+      <c r="L35" s="125">
+        <v>31</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
@@ -9481,7 +9547,7 @@
       <c r="C36" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="119" t="s">
         <v>942</v>
       </c>
       <c r="E36" s="40">
@@ -9505,8 +9571,8 @@
       <c r="K36" s="40" t="s">
         <v>613</v>
       </c>
-      <c r="L36" s="113">
-        <v>76</v>
+      <c r="L36" s="125">
+        <v>32</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
@@ -9580,12 +9646,12 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B43" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="119" t="s">
         <v>728</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -9607,12 +9673,12 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="119" t="s">
         <v>728</v>
       </c>
       <c r="D44" s="40" t="s">
@@ -9634,12 +9700,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B45" s="40">
         <v>2</v>
       </c>
-      <c r="C45" s="120" t="s">
+      <c r="C45" s="119" t="s">
         <v>631</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -9661,12 +9727,12 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B46" s="40">
         <v>3</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="119" t="s">
         <v>744</v>
       </c>
       <c r="D46" s="40" t="s">
@@ -9688,12 +9754,12 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B47" s="40">
         <v>4</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="119" t="s">
         <v>745</v>
       </c>
       <c r="D47" s="40" t="s">
@@ -9715,12 +9781,12 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B48" s="40">
         <v>5</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="119" t="s">
         <v>746</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -9742,12 +9808,12 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B49" s="40">
         <v>6</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="119" t="s">
         <v>747</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -9769,12 +9835,12 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B50" s="40">
         <v>7</v>
       </c>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="119" t="s">
         <v>748</v>
       </c>
       <c r="D50" s="40" t="s">
@@ -9796,12 +9862,12 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B51" s="40">
         <v>8</v>
       </c>
-      <c r="C51" s="120" t="s">
+      <c r="C51" s="119" t="s">
         <v>749</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -9823,12 +9889,12 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B52" s="40">
         <v>9</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="119" t="s">
         <v>750</v>
       </c>
       <c r="D52" s="40" t="s">
@@ -9850,12 +9916,12 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B53" s="40">
         <v>10</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="119" t="s">
         <v>751</v>
       </c>
       <c r="D53" s="40" t="s">
@@ -9877,12 +9943,12 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B54" s="40">
         <v>21</v>
       </c>
-      <c r="C54" s="120" t="s">
+      <c r="C54" s="119" t="s">
         <v>752</v>
       </c>
       <c r="D54" s="40" t="s">
@@ -9904,12 +9970,12 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B55" s="40">
         <v>22</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="119" t="s">
         <v>878</v>
       </c>
       <c r="D55" s="40" t="s">
@@ -9931,12 +9997,12 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B56" s="40">
         <v>23</v>
       </c>
-      <c r="C56" s="120" t="s">
+      <c r="C56" s="119" t="s">
         <v>754</v>
       </c>
       <c r="D56" s="40" t="s">
@@ -9958,12 +10024,12 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B57" s="40">
         <v>24</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="119" t="s">
         <v>755</v>
       </c>
       <c r="D57" s="40" t="s">
@@ -9985,12 +10051,12 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B58" s="40">
         <v>25</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="119" t="s">
         <v>756</v>
       </c>
       <c r="D58" s="40" t="s">
@@ -10012,12 +10078,12 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B59" s="40">
         <v>26</v>
       </c>
-      <c r="C59" s="120" t="s">
+      <c r="C59" s="119" t="s">
         <v>757</v>
       </c>
       <c r="D59" s="40" t="s">
@@ -10039,12 +10105,12 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B60" s="40">
         <v>27</v>
       </c>
-      <c r="C60" s="120" t="s">
+      <c r="C60" s="119" t="s">
         <v>758</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -10066,12 +10132,12 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B61" s="40">
         <v>28</v>
       </c>
-      <c r="C61" s="120" t="s">
+      <c r="C61" s="119" t="s">
         <v>759</v>
       </c>
       <c r="D61" s="40" t="s">
@@ -10093,12 +10159,12 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B62" s="40" t="s">
         <v>817</v>
       </c>
-      <c r="C62" s="120" t="s">
+      <c r="C62" s="119" t="s">
         <v>632</v>
       </c>
       <c r="D62" s="40" t="s">
@@ -10120,12 +10186,12 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="C63" s="119" t="s">
+      <c r="C63" s="118" t="s">
         <v>632</v>
       </c>
       <c r="D63" s="40" t="s">
@@ -10147,12 +10213,12 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B64" s="40">
         <v>30</v>
       </c>
-      <c r="C64" s="120" t="s">
+      <c r="C64" s="119" t="s">
         <v>634</v>
       </c>
       <c r="D64" s="40" t="s">
@@ -10222,7 +10288,7 @@
       <c r="B72" s="40">
         <v>1</v>
       </c>
-      <c r="C72" s="120" t="s">
+      <c r="C72" s="119" t="s">
         <v>728</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -10234,7 +10300,7 @@
       <c r="F72">
         <v>44</v>
       </c>
-      <c r="G72" s="122">
+      <c r="G72" s="121">
         <v>44197</v>
       </c>
       <c r="H72" t="str">
@@ -10246,7 +10312,7 @@
       <c r="B73" s="40">
         <v>2</v>
       </c>
-      <c r="C73" s="120" t="s">
+      <c r="C73" s="119" t="s">
         <v>631</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -10258,7 +10324,7 @@
       <c r="F73">
         <v>44</v>
       </c>
-      <c r="G73" s="122">
+      <c r="G73" s="121">
         <v>44198</v>
       </c>
       <c r="H73" t="str">
@@ -10270,7 +10336,7 @@
       <c r="B74" s="40">
         <v>3</v>
       </c>
-      <c r="C74" s="120" t="s">
+      <c r="C74" s="119" t="s">
         <v>744</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -10282,7 +10348,7 @@
       <c r="F74">
         <v>44</v>
       </c>
-      <c r="G74" s="122">
+      <c r="G74" s="121">
         <v>44199</v>
       </c>
       <c r="H74" t="str">
@@ -10294,7 +10360,7 @@
       <c r="B75" s="40">
         <v>4</v>
       </c>
-      <c r="C75" s="120" t="s">
+      <c r="C75" s="119" t="s">
         <v>745</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -10306,7 +10372,7 @@
       <c r="F75">
         <v>44</v>
       </c>
-      <c r="G75" s="122">
+      <c r="G75" s="121">
         <v>44200</v>
       </c>
       <c r="H75" t="str">
@@ -10318,7 +10384,7 @@
       <c r="B76" s="40">
         <v>5</v>
       </c>
-      <c r="C76" s="120" t="s">
+      <c r="C76" s="119" t="s">
         <v>746</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -10330,7 +10396,7 @@
       <c r="F76">
         <v>43</v>
       </c>
-      <c r="G76" s="122">
+      <c r="G76" s="121">
         <v>44201</v>
       </c>
       <c r="H76" t="str">
@@ -10342,7 +10408,7 @@
       <c r="B77" s="40">
         <v>6</v>
       </c>
-      <c r="C77" s="120" t="s">
+      <c r="C77" s="119" t="s">
         <v>747</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -10354,7 +10420,7 @@
       <c r="F77">
         <v>43</v>
       </c>
-      <c r="G77" s="122">
+      <c r="G77" s="121">
         <v>44202</v>
       </c>
       <c r="H77" t="str">
@@ -10366,7 +10432,7 @@
       <c r="B78" s="40">
         <v>7</v>
       </c>
-      <c r="C78" s="120" t="s">
+      <c r="C78" s="119" t="s">
         <v>748</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -10378,7 +10444,7 @@
       <c r="F78">
         <v>42</v>
       </c>
-      <c r="G78" s="122">
+      <c r="G78" s="121">
         <v>44203</v>
       </c>
       <c r="H78" t="str">
@@ -10390,7 +10456,7 @@
       <c r="B79" s="40">
         <v>8</v>
       </c>
-      <c r="C79" s="120" t="s">
+      <c r="C79" s="119" t="s">
         <v>749</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -10402,7 +10468,7 @@
       <c r="F79">
         <v>42</v>
       </c>
-      <c r="G79" s="122">
+      <c r="G79" s="121">
         <v>44204</v>
       </c>
       <c r="H79" t="str">
@@ -10414,7 +10480,7 @@
       <c r="B80" s="40">
         <v>9</v>
       </c>
-      <c r="C80" s="120" t="s">
+      <c r="C80" s="119" t="s">
         <v>750</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -10426,7 +10492,7 @@
       <c r="F80">
         <v>41</v>
       </c>
-      <c r="G80" s="122">
+      <c r="G80" s="121">
         <v>44205</v>
       </c>
       <c r="H80" t="str">
@@ -10438,7 +10504,7 @@
       <c r="B81" s="40">
         <v>10</v>
       </c>
-      <c r="C81" s="120" t="s">
+      <c r="C81" s="119" t="s">
         <v>751</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -10450,7 +10516,7 @@
       <c r="F81">
         <v>41</v>
       </c>
-      <c r="G81" s="122">
+      <c r="G81" s="121">
         <v>44206</v>
       </c>
       <c r="H81" t="str">
@@ -10462,7 +10528,7 @@
       <c r="B82" s="40">
         <v>11</v>
       </c>
-      <c r="C82" s="120" t="s">
+      <c r="C82" s="119" t="s">
         <v>736</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -10474,7 +10540,7 @@
       <c r="F82">
         <v>48</v>
       </c>
-      <c r="G82" s="122">
+      <c r="G82" s="121">
         <v>44207</v>
       </c>
       <c r="H82" t="str">
@@ -10486,7 +10552,7 @@
       <c r="B83" s="40">
         <v>12</v>
       </c>
-      <c r="C83" s="120" t="s">
+      <c r="C83" s="119" t="s">
         <v>737</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -10498,7 +10564,7 @@
       <c r="F83">
         <v>48</v>
       </c>
-      <c r="G83" s="122">
+      <c r="G83" s="121">
         <v>44208</v>
       </c>
       <c r="H83" t="str">
@@ -10510,7 +10576,7 @@
       <c r="B84" s="40">
         <v>13</v>
       </c>
-      <c r="C84" s="120" t="s">
+      <c r="C84" s="119" t="s">
         <v>877</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -10522,7 +10588,7 @@
       <c r="F84">
         <v>48</v>
       </c>
-      <c r="G84" s="122">
+      <c r="G84" s="121">
         <v>44209</v>
       </c>
       <c r="H84" t="str">
@@ -10534,7 +10600,7 @@
       <c r="B85" s="40">
         <v>14</v>
       </c>
-      <c r="C85" s="120" t="s">
+      <c r="C85" s="119" t="s">
         <v>739</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -10546,7 +10612,7 @@
       <c r="F85">
         <v>48</v>
       </c>
-      <c r="G85" s="122">
+      <c r="G85" s="121">
         <v>44210</v>
       </c>
       <c r="H85" t="str">
@@ -10558,7 +10624,7 @@
       <c r="B86" s="40">
         <v>15</v>
       </c>
-      <c r="C86" s="120" t="s">
+      <c r="C86" s="119" t="s">
         <v>740</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -10570,7 +10636,7 @@
       <c r="F86">
         <v>49</v>
       </c>
-      <c r="G86" s="122">
+      <c r="G86" s="121">
         <v>44211</v>
       </c>
       <c r="H86" t="str">
@@ -10582,7 +10648,7 @@
       <c r="B87" s="40">
         <v>16</v>
       </c>
-      <c r="C87" s="120" t="s">
+      <c r="C87" s="119" t="s">
         <v>741</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -10594,7 +10660,7 @@
       <c r="F87">
         <v>49</v>
       </c>
-      <c r="G87" s="122">
+      <c r="G87" s="121">
         <v>44212</v>
       </c>
       <c r="H87" t="str">
@@ -10606,7 +10672,7 @@
       <c r="B88" s="40">
         <v>17</v>
       </c>
-      <c r="C88" s="120" t="s">
+      <c r="C88" s="119" t="s">
         <v>742</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -10618,7 +10684,7 @@
       <c r="F88">
         <v>49</v>
       </c>
-      <c r="G88" s="122">
+      <c r="G88" s="121">
         <v>44213</v>
       </c>
       <c r="H88" t="str">
@@ -10630,7 +10696,7 @@
       <c r="B89" s="40">
         <v>18</v>
       </c>
-      <c r="C89" s="120" t="s">
+      <c r="C89" s="119" t="s">
         <v>729</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -10642,7 +10708,7 @@
       <c r="F89">
         <v>49</v>
       </c>
-      <c r="G89" s="122">
+      <c r="G89" s="121">
         <v>44214</v>
       </c>
       <c r="H89" t="str">
@@ -10654,7 +10720,7 @@
       <c r="B90" s="40">
         <v>19</v>
       </c>
-      <c r="C90" s="120" t="s">
+      <c r="C90" s="119" t="s">
         <v>879</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -10666,7 +10732,7 @@
       <c r="F90">
         <v>49</v>
       </c>
-      <c r="G90" s="122">
+      <c r="G90" s="121">
         <v>44215</v>
       </c>
       <c r="H90" t="str">
@@ -10678,7 +10744,7 @@
       <c r="B91" s="40">
         <v>20</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="119" t="s">
         <v>730</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -10690,7 +10756,7 @@
       <c r="F91">
         <v>49</v>
       </c>
-      <c r="G91" s="122">
+      <c r="G91" s="121">
         <v>44216</v>
       </c>
       <c r="H91" t="str">
@@ -10702,7 +10768,7 @@
       <c r="B92" s="139">
         <v>21</v>
       </c>
-      <c r="C92" s="120" t="s">
+      <c r="C92" s="119" t="s">
         <v>752</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -10714,7 +10780,7 @@
       <c r="F92">
         <v>45</v>
       </c>
-      <c r="G92" s="122">
+      <c r="G92" s="121">
         <v>44217</v>
       </c>
       <c r="H92" t="str">
@@ -10724,7 +10790,7 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="140"/>
-      <c r="C93" s="120" t="s">
+      <c r="C93" s="119" t="s">
         <v>752</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -10736,7 +10802,7 @@
       <c r="F93">
         <v>53</v>
       </c>
-      <c r="G93" s="122">
+      <c r="G93" s="121">
         <v>44217</v>
       </c>
       <c r="H93" t="str">
@@ -10748,7 +10814,7 @@
       <c r="B94" s="139">
         <v>22</v>
       </c>
-      <c r="C94" s="120" t="s">
+      <c r="C94" s="119" t="s">
         <v>878</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -10760,7 +10826,7 @@
       <c r="F94">
         <v>45</v>
       </c>
-      <c r="G94" s="122">
+      <c r="G94" s="121">
         <v>44219</v>
       </c>
       <c r="H94" t="str">
@@ -10770,7 +10836,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="140"/>
-      <c r="C95" s="120" t="s">
+      <c r="C95" s="119" t="s">
         <v>753</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -10782,7 +10848,7 @@
       <c r="F95">
         <v>53</v>
       </c>
-      <c r="G95" s="122">
+      <c r="G95" s="121">
         <v>44219</v>
       </c>
       <c r="H95" t="str">
@@ -10794,7 +10860,7 @@
       <c r="B96" s="139">
         <v>23</v>
       </c>
-      <c r="C96" s="120" t="s">
+      <c r="C96" s="119" t="s">
         <v>754</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -10806,7 +10872,7 @@
       <c r="F96">
         <v>45</v>
       </c>
-      <c r="G96" s="122">
+      <c r="G96" s="121">
         <v>44221</v>
       </c>
       <c r="H96" t="str">
@@ -10816,7 +10882,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="140"/>
-      <c r="C97" s="120" t="s">
+      <c r="C97" s="119" t="s">
         <v>754</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -10828,7 +10894,7 @@
       <c r="F97">
         <v>53</v>
       </c>
-      <c r="G97" s="122">
+      <c r="G97" s="121">
         <v>44221</v>
       </c>
       <c r="H97" t="str">
@@ -10840,7 +10906,7 @@
       <c r="B98" s="139">
         <v>24</v>
       </c>
-      <c r="C98" s="120" t="s">
+      <c r="C98" s="119" t="s">
         <v>755</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -10852,7 +10918,7 @@
       <c r="F98">
         <v>46</v>
       </c>
-      <c r="G98" s="122">
+      <c r="G98" s="121">
         <v>44223</v>
       </c>
       <c r="H98" t="str">
@@ -10862,7 +10928,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="140"/>
-      <c r="C99" s="120" t="s">
+      <c r="C99" s="119" t="s">
         <v>755</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -10874,7 +10940,7 @@
       <c r="F99">
         <v>52</v>
       </c>
-      <c r="G99" s="122">
+      <c r="G99" s="121">
         <v>44223</v>
       </c>
       <c r="H99" t="str">
@@ -10886,7 +10952,7 @@
       <c r="B100" s="139">
         <v>25</v>
       </c>
-      <c r="C100" s="120" t="s">
+      <c r="C100" s="119" t="s">
         <v>756</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -10898,7 +10964,7 @@
       <c r="F100">
         <v>46</v>
       </c>
-      <c r="G100" s="122">
+      <c r="G100" s="121">
         <v>44225</v>
       </c>
       <c r="H100" t="str">
@@ -10908,7 +10974,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="140"/>
-      <c r="C101" s="120" t="s">
+      <c r="C101" s="119" t="s">
         <v>756</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -10920,7 +10986,7 @@
       <c r="F101">
         <v>52</v>
       </c>
-      <c r="G101" s="122">
+      <c r="G101" s="121">
         <v>44225</v>
       </c>
       <c r="H101" t="str">
@@ -10932,7 +10998,7 @@
       <c r="B102" s="139">
         <v>26</v>
       </c>
-      <c r="C102" s="120" t="s">
+      <c r="C102" s="119" t="s">
         <v>757</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -10944,7 +11010,7 @@
       <c r="F102">
         <v>46</v>
       </c>
-      <c r="G102" s="122">
+      <c r="G102" s="121">
         <v>44227</v>
       </c>
       <c r="H102" t="str">
@@ -10954,7 +11020,7 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="140"/>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="119" t="s">
         <v>757</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -10966,7 +11032,7 @@
       <c r="F103">
         <v>52</v>
       </c>
-      <c r="G103" s="122">
+      <c r="G103" s="121">
         <v>44227</v>
       </c>
       <c r="H103" t="str">
@@ -10978,7 +11044,7 @@
       <c r="B104" s="139">
         <v>27</v>
       </c>
-      <c r="C104" s="120" t="s">
+      <c r="C104" s="119" t="s">
         <v>758</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -10990,7 +11056,7 @@
       <c r="F104">
         <v>46</v>
       </c>
-      <c r="G104" s="122">
+      <c r="G104" s="121">
         <v>44229</v>
       </c>
       <c r="H104" t="str">
@@ -11000,7 +11066,7 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="140"/>
-      <c r="C105" s="120" t="s">
+      <c r="C105" s="119" t="s">
         <v>758</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -11012,7 +11078,7 @@
       <c r="F105">
         <v>51</v>
       </c>
-      <c r="G105" s="122">
+      <c r="G105" s="121">
         <v>44229</v>
       </c>
       <c r="H105" t="str">
@@ -11024,7 +11090,7 @@
       <c r="B106" s="139">
         <v>28</v>
       </c>
-      <c r="C106" s="120" t="s">
+      <c r="C106" s="119" t="s">
         <v>759</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -11036,7 +11102,7 @@
       <c r="F106">
         <v>47</v>
       </c>
-      <c r="G106" s="122">
+      <c r="G106" s="121">
         <v>44231</v>
       </c>
       <c r="H106" t="str">
@@ -11046,7 +11112,7 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="140"/>
-      <c r="C107" s="120" t="s">
+      <c r="C107" s="119" t="s">
         <v>759</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -11058,7 +11124,7 @@
       <c r="F107">
         <v>51</v>
       </c>
-      <c r="G107" s="122">
+      <c r="G107" s="121">
         <v>44231</v>
       </c>
       <c r="H107" t="str">
@@ -11070,7 +11136,7 @@
       <c r="B108" s="139">
         <v>29</v>
       </c>
-      <c r="C108" s="120" t="s">
+      <c r="C108" s="119" t="s">
         <v>632</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -11082,7 +11148,7 @@
       <c r="F108">
         <v>47</v>
       </c>
-      <c r="G108" s="122">
+      <c r="G108" s="121">
         <v>44233</v>
       </c>
       <c r="H108" t="str">
@@ -11092,7 +11158,7 @@
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="140"/>
-      <c r="C109" s="120" t="s">
+      <c r="C109" s="119" t="s">
         <v>632</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -11104,7 +11170,7 @@
       <c r="F109">
         <v>51</v>
       </c>
-      <c r="G109" s="122">
+      <c r="G109" s="121">
         <v>44233</v>
       </c>
       <c r="H109" t="str">
@@ -11116,7 +11182,7 @@
       <c r="B110" s="139">
         <v>30</v>
       </c>
-      <c r="C110" s="120" t="s">
+      <c r="C110" s="119" t="s">
         <v>634</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -11128,7 +11194,7 @@
       <c r="F110">
         <v>47</v>
       </c>
-      <c r="G110" s="122">
+      <c r="G110" s="121">
         <v>44235</v>
       </c>
       <c r="H110" t="str">
@@ -11138,7 +11204,7 @@
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="140"/>
-      <c r="C111" s="120" t="s">
+      <c r="C111" s="119" t="s">
         <v>634</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -11150,7 +11216,7 @@
       <c r="F111">
         <v>53</v>
       </c>
-      <c r="G111" s="122">
+      <c r="G111" s="121">
         <v>44235</v>
       </c>
       <c r="H111" t="str">
@@ -11161,11 +11227,6 @@
   </sheetData>
   <autoFilter ref="B71:F111" xr:uid="{DE5F5F80-836B-41FC-A793-6D21B74ED654}"/>
   <mergeCells count="14">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C39:G39"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B97"/>
@@ -11175,6 +11236,11 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -11446,22 +11512,22 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="119">
+      <c r="B5" s="118">
         <v>111222666</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="118" t="s">
         <v>825</v>
       </c>
       <c r="F5" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="118" t="s">
         <v>673</v>
       </c>
       <c r="H5" s="97">
@@ -11485,28 +11551,28 @@
       <c r="N5" s="14">
         <v>20000</v>
       </c>
-      <c r="P5" s="117" t="str">
+      <c r="P5" s="116" t="str">
         <f>CONCATENATE(B5,", ",C5,", ",D5,", ",E5,", ",F5,", ",G5,", ",H5,", ",I5,", ",J5,", ",K5,", ",L5,", ",M5,", ",N5)</f>
         <v>111222666, tomas@marcelo.advogados.pt, AC-003_02, CC-004, S, GP_002_2, 2, T_01_01, Projecto de Sala de Reunião, Projecto de Sala de Reunião Anexa, Projecto de Sala de Reunião Anexa para 30 pessoas, 20, 20000</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="119">
+      <c r="B6" s="118">
         <v>111222666</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="118" t="s">
         <v>824</v>
       </c>
       <c r="F6" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="118" t="s">
         <v>673</v>
       </c>
       <c r="H6" s="97">
@@ -11530,28 +11596,28 @@
       <c r="N6" s="16">
         <v>250000</v>
       </c>
-      <c r="P6" s="117" t="str">
+      <c r="P6" s="116" t="str">
         <f t="shared" ref="P6:P9" si="0">CONCATENATE(B6,", ",C6,", ",D6,", ",E6,", ",F6,", ",G6,", ",H6,", ",I6,", ",J6,", ",K6,", ",L6,", ",M6,", ",N6)</f>
         <v>111222666, tomas@marcelo.advogados.pt, AC-003_01, CC-003, S, GP_002_2, 2, T_01_02, Construção de Sala de Reunião, Construção de Sala de Reunião Anexa, Construção de Sala de Reunião Anexa para 30 pessoas, 60, 250000</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="119">
+      <c r="B7" s="118">
         <v>111222666</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="118" t="s">
         <v>823</v>
       </c>
       <c r="F7" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="118" t="s">
         <v>676</v>
       </c>
       <c r="H7" s="97">
@@ -11575,28 +11641,28 @@
       <c r="N7" s="18">
         <v>1000</v>
       </c>
-      <c r="P7" s="117" t="str">
+      <c r="P7" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222666, francisca@marcelo.advogados.pt, AC-002_01, CC-002, N, GP_003_1, 1, T_01_03, Limpeza Pós-Obra, Limpeza de Sede da Empresa, Limpeza de Sede da Empresa Pós-obra, 2, 1000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="119">
+      <c r="B8" s="118">
         <v>111222888</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="118" t="s">
         <v>823</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>676</v>
       </c>
       <c r="H8" s="97">
@@ -11620,28 +11686,28 @@
       <c r="N8" s="14">
         <v>2000</v>
       </c>
-      <c r="P8" s="117" t="str">
+      <c r="P8" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, matilde@inesengenharia.com, AC-002_01, CC-002, N, GP_003_1, 1, T_02_01, Limpeza de Escritório, Limpeza de Escritório da Empresa, Limpeza de Escritório da Empresa para evento, 2, 2000</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="119">
+      <c r="B9" s="118">
         <v>111222888</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="118" t="s">
         <v>822</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="118" t="s">
         <v>670</v>
       </c>
       <c r="H9" s="97">
@@ -11665,7 +11731,7 @@
       <c r="N9" s="18">
         <v>5000</v>
       </c>
-      <c r="P9" s="117" t="str">
+      <c r="P9" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, eduardo@inesengenharia.com, AC-001_01, CC-001, S, GP_001_2, 2, T_02_02, Remodelação de Website, Remodelação de Website da Empresa, Remodelação de Website da Empresa com nova paleta de cores, 10, 5000</v>
       </c>
@@ -11788,7 +11854,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="119">
+      <c r="B6" s="118">
         <v>111222666</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -11797,22 +11863,22 @@
       <c r="D6" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="122">
         <v>44237</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="122">
         <v>44252</v>
       </c>
-      <c r="G6" s="123">
+      <c r="G6" s="122">
         <v>44238</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="122">
         <v>44247</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="122">
         <v>44248</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="122">
         <v>44251</v>
       </c>
       <c r="K6" s="110" t="s">
@@ -11821,13 +11887,13 @@
       <c r="L6" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="N6" s="117" t="str">
+      <c r="N6" s="116" t="str">
         <f>CONCATENATE(B6,", ",C6,", ",D6,", ",TEXT(E6,"DD/MM/AAAA"),", ",TEXT(F6,"DD/MM/AAAA"),", ",TEXT(G6,"DD/MM/AAAA"),", ",TEXT(H6,"DD/MM/AAAA"),", ",TEXT(I6,"DD/MM/AAAA"),", ",TEXT(J6,"DD/MM/AAAA"),", ",K6,", ",L6)</f>
         <v>111222666, tomas@marcelo.advogados.pt, T_01_01, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_01, A_T_01_01</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="119">
+      <c r="B7" s="118">
         <v>111222666</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -11836,22 +11902,22 @@
       <c r="D7" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="123">
         <v>44237</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="123">
         <v>44252</v>
       </c>
-      <c r="G7" s="123">
+      <c r="G7" s="122">
         <v>44238</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="122">
         <v>44247</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="122">
         <v>44248</v>
       </c>
-      <c r="J7" s="123">
+      <c r="J7" s="122">
         <v>44251</v>
       </c>
       <c r="K7" s="111" t="s">
@@ -11860,13 +11926,13 @@
       <c r="L7" s="107" t="s">
         <v>852</v>
       </c>
-      <c r="N7" s="117" t="str">
+      <c r="N7" s="116" t="str">
         <f t="shared" ref="N7:N10" si="0">CONCATENATE(B7,", ",C7,", ",D7,", ",TEXT(E7,"DD/MM/AAAA"),", ",TEXT(F7,"DD/MM/AAAA"),", ",TEXT(G7,"DD/MM/AAAA"),", ",TEXT(H7,"DD/MM/AAAA"),", ",TEXT(I7,"DD/MM/AAAA"),", ",TEXT(J7,"DD/MM/AAAA"),", ",K7,", ",L7)</f>
         <v>111222666, tomas@marcelo.advogados.pt, T_01_02, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_01, A_T_01_02</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="119">
+      <c r="B8" s="118">
         <v>111222666</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -11875,22 +11941,22 @@
       <c r="D8" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="124">
         <v>44236</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="124">
         <v>44253</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="124">
         <v>44237</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="124">
         <v>44246</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="124">
         <v>44247</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="124">
         <v>44250</v>
       </c>
       <c r="K8" s="112" t="s">
@@ -11899,13 +11965,13 @@
       <c r="L8" s="105" t="s">
         <v>853</v>
       </c>
-      <c r="N8" s="117" t="str">
+      <c r="N8" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222666, francisca@marcelo.advogados.pt, T_01_03, 09/02/Tuesday, 26/02/Friday, 10/02/Wednesday, 19/02/Friday, 20/02/Saturday, 23/02/Tuesday, TR_03, A_T_01_03</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="119">
+      <c r="B9" s="118">
         <v>111222888</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -11914,37 +11980,37 @@
       <c r="D9" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="123">
+      <c r="E9" s="122">
         <v>44237</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="122">
         <v>44252</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="122">
         <v>44238</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="122">
         <v>44247</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="122">
         <v>44248</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="122">
         <v>44251</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="113" t="s">
         <v>839</v>
       </c>
       <c r="L9" s="107" t="s">
         <v>854</v>
       </c>
-      <c r="N9" s="117" t="str">
+      <c r="N9" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, matilde@inesengenharia.com, T_02_01, 10/02/Wednesday, 25/02/Thursday, 11/02/Thursday, 20/02/Saturday, 21/02/Sunday, 24/02/Wednesday, TR_03, A_T_02_01</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="119">
+      <c r="B10" s="118">
         <v>111222888</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -11953,31 +12019,31 @@
       <c r="D10" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="124">
         <v>44236</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="124">
         <v>44253</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="124">
         <v>44237</v>
       </c>
-      <c r="H10" s="125">
+      <c r="H10" s="124">
         <v>44246</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="124">
         <v>44247</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="124">
         <v>44250</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="114" t="s">
         <v>838</v>
       </c>
       <c r="L10" s="106" t="s">
         <v>887</v>
       </c>
-      <c r="N10" s="117" t="str">
+      <c r="N10" s="116" t="str">
         <f t="shared" si="0"/>
         <v>111222888, eduardo@inesengenharia.com, T_02_02, 09/02/Tuesday, 26/02/Friday, 10/02/Wednesday, 19/02/Friday, 20/02/Saturday, 23/02/Tuesday, TR_02, A_T_02_02</v>
       </c>
@@ -12021,7 +12087,7 @@
       <c r="D16" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="F16" s="117" t="str">
+      <c r="F16" s="116" t="str">
         <f>CONCATENATE(B16,", ",C16,", ",D16)</f>
         <v>TR_01, SERIACAO_SUBJETIVA_ATRIBUICAO_OPCIONAL, Menos dias e depois menor preço</v>
       </c>
@@ -12036,7 +12102,7 @@
       <c r="D17" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="F17" s="117" t="str">
+      <c r="F17" s="116" t="str">
         <f t="shared" ref="F17:F18" si="1">CONCATENATE(B17,", ",C17,", ",D17)</f>
         <v>TR_02, SERIACAO_SUBJETIVA_ATRIBUICAO_OBRIGATORIA, Maior GP e menor preço</v>
       </c>
@@ -12051,7 +12117,7 @@
       <c r="D18" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="F18" s="117" t="str">
+      <c r="F18" s="116" t="str">
         <f t="shared" si="1"/>
         <v>TR_03, SERIACAO_E_ATRIBUICAO_AUTOMATICA_MENOR_PRECO, Menor preço</v>
       </c>
@@ -12126,7 +12192,7 @@
       <c r="I3" s="53"/>
     </row>
     <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>844</v>
       </c>
       <c r="E4" s="141" t="s">
@@ -15323,7 +15389,7 @@
       <c r="B15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="151" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -15349,7 +15415,7 @@
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="153"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="2" t="s">
         <v>236</v>
       </c>
@@ -15381,7 +15447,7 @@
       <c r="B17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="154"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="9" t="s">
         <v>237</v>
       </c>
@@ -15412,7 +15478,7 @@
       <c r="B18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="152" t="s">
         <v>205</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -15444,7 +15510,7 @@
       <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="153"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="2" t="s">
         <v>239</v>
       </c>
@@ -15474,7 +15540,7 @@
       <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="154"/>
+      <c r="C20" s="153"/>
       <c r="D20" s="9" t="s">
         <v>240</v>
       </c>
@@ -15506,7 +15572,7 @@
       <c r="B21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="152" t="s">
         <v>206</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -15537,7 +15603,7 @@
       <c r="B22" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="153"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="2" t="s">
         <v>242</v>
       </c>
@@ -15566,7 +15632,7 @@
       <c r="B23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="153"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="9" t="s">
         <v>243</v>
       </c>
@@ -15595,7 +15661,7 @@
       <c r="B24" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="154" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -15628,7 +15694,7 @@
       <c r="B25" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="153"/>
+      <c r="C25" s="152"/>
       <c r="D25" s="2" t="s">
         <v>245</v>
       </c>
@@ -15657,7 +15723,7 @@
       <c r="B26" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="154"/>
+      <c r="C26" s="153"/>
       <c r="D26" s="9" t="s">
         <v>246</v>
       </c>
@@ -15686,7 +15752,7 @@
       <c r="B27" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="153" t="s">
+      <c r="C27" s="152" t="s">
         <v>208</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -15717,7 +15783,7 @@
       <c r="B28" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="153"/>
+      <c r="C28" s="152"/>
       <c r="D28" s="2" t="s">
         <v>248</v>
       </c>
@@ -15748,7 +15814,7 @@
       <c r="B29" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="153"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="9" t="s">
         <v>249</v>
       </c>
@@ -15777,7 +15843,7 @@
       <c r="B30" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="154" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -15808,7 +15874,7 @@
       <c r="B31" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="153" t="s">
+      <c r="C31" s="152" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -15840,7 +15906,7 @@
       <c r="B32" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="153" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -15918,7 +15984,7 @@
       <c r="B37" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="148" t="s">
         <v>235</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -15930,7 +15996,7 @@
       <c r="F37" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="G37" s="156" t="s">
+      <c r="G37" s="145" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15939,7 +16005,7 @@
       <c r="B38" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="145"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="31" t="s">
         <v>264</v>
       </c>
@@ -15949,14 +16015,14 @@
       <c r="F38" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G38" s="157"/>
+      <c r="G38" s="146"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="146"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="32" t="s">
         <v>265</v>
       </c>
@@ -15966,14 +16032,14 @@
       <c r="F39" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G39" s="158"/>
+      <c r="G39" s="147"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="149" t="s">
         <v>236</v>
       </c>
       <c r="D40" s="30" t="s">
@@ -15985,7 +16051,7 @@
       <c r="F40" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="156" t="s">
+      <c r="G40" s="145" t="s">
         <v>485</v>
       </c>
     </row>
@@ -15994,7 +16060,7 @@
       <c r="B41" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C41" s="145"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="31" t="s">
         <v>275</v>
       </c>
@@ -16004,14 +16070,14 @@
       <c r="F41" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="157"/>
+      <c r="G41" s="146"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="146"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="32" t="s">
         <v>276</v>
       </c>
@@ -16021,14 +16087,14 @@
       <c r="F42" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="158"/>
+      <c r="G42" s="147"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="145" t="s">
+      <c r="C43" s="149" t="s">
         <v>237</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -16040,7 +16106,7 @@
       <c r="F43" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="G43" s="156" t="s">
+      <c r="G43" s="145" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16049,7 +16115,7 @@
       <c r="B44" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="145"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="31" t="s">
         <v>284</v>
       </c>
@@ -16059,14 +16125,14 @@
       <c r="F44" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="157"/>
+      <c r="G44" s="146"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="146"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="32" t="s">
         <v>285</v>
       </c>
@@ -16076,14 +16142,14 @@
       <c r="F45" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="G45" s="158"/>
+      <c r="G45" s="147"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="149" t="s">
         <v>238</v>
       </c>
       <c r="D46" s="30" t="s">
@@ -16095,7 +16161,7 @@
       <c r="F46" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="G46" s="156" t="s">
+      <c r="G46" s="145" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16104,7 +16170,7 @@
       <c r="B47" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="145"/>
+      <c r="C47" s="149"/>
       <c r="D47" s="31" t="s">
         <v>292</v>
       </c>
@@ -16114,14 +16180,14 @@
       <c r="F47" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="157"/>
+      <c r="G47" s="146"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C48" s="146"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="32" t="s">
         <v>293</v>
       </c>
@@ -16131,14 +16197,14 @@
       <c r="F48" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="G48" s="158"/>
+      <c r="G48" s="147"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="149" t="s">
         <v>239</v>
       </c>
       <c r="D49" s="30" t="s">
@@ -16150,7 +16216,7 @@
       <c r="F49" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="156" t="s">
+      <c r="G49" s="145" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16159,7 +16225,7 @@
       <c r="B50" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="145"/>
+      <c r="C50" s="149"/>
       <c r="D50" s="31" t="s">
         <v>295</v>
       </c>
@@ -16169,14 +16235,14 @@
       <c r="F50" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="G50" s="157"/>
+      <c r="G50" s="146"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="146"/>
+      <c r="C51" s="150"/>
       <c r="D51" s="32" t="s">
         <v>296</v>
       </c>
@@ -16186,14 +16252,14 @@
       <c r="F51" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="158"/>
+      <c r="G51" s="147"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="147" t="s">
+      <c r="C52" s="148" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -16205,7 +16271,7 @@
       <c r="F52" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="G52" s="156" t="s">
+      <c r="G52" s="145" t="s">
         <v>480</v>
       </c>
     </row>
@@ -16214,7 +16280,7 @@
       <c r="B53" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C53" s="145"/>
+      <c r="C53" s="149"/>
       <c r="D53" s="31" t="s">
         <v>298</v>
       </c>
@@ -16224,14 +16290,14 @@
       <c r="F53" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="157"/>
+      <c r="G53" s="146"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="148"/>
+      <c r="C54" s="155"/>
       <c r="D54" s="32" t="s">
         <v>299</v>
       </c>
@@ -16241,13 +16307,13 @@
       <c r="F54" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G54" s="158"/>
+      <c r="G54" s="147"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="C55" s="149" t="s">
         <v>241</v>
       </c>
       <c r="D55" s="30" t="s">
@@ -16259,7 +16325,7 @@
       <c r="F55" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G55" s="156" t="s">
+      <c r="G55" s="145" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16267,7 +16333,7 @@
       <c r="B56" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="145"/>
+      <c r="C56" s="149"/>
       <c r="D56" s="31" t="s">
         <v>337</v>
       </c>
@@ -16277,13 +16343,13 @@
       <c r="F56" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="157"/>
+      <c r="G56" s="146"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="146"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="32" t="s">
         <v>338</v>
       </c>
@@ -16293,13 +16359,13 @@
       <c r="F57" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="G57" s="158"/>
+      <c r="G57" s="147"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="149" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="30" t="s">
@@ -16311,7 +16377,7 @@
       <c r="F58" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="G58" s="156" t="s">
+      <c r="G58" s="145" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16319,7 +16385,7 @@
       <c r="B59" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C59" s="145"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="31" t="s">
         <v>340</v>
       </c>
@@ -16329,13 +16395,13 @@
       <c r="F59" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="G59" s="157"/>
+      <c r="G59" s="146"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C60" s="146"/>
+      <c r="C60" s="150"/>
       <c r="D60" s="32" t="s">
         <v>341</v>
       </c>
@@ -16345,13 +16411,13 @@
       <c r="F60" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="G60" s="158"/>
+      <c r="G60" s="147"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="149" t="s">
+      <c r="C61" s="156" t="s">
         <v>243</v>
       </c>
       <c r="D61" s="30" t="s">
@@ -16363,7 +16429,7 @@
       <c r="F61" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="156" t="s">
+      <c r="G61" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16371,7 +16437,7 @@
       <c r="B62" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="C62" s="150"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="31" t="s">
         <v>343</v>
       </c>
@@ -16381,14 +16447,14 @@
       <c r="F62" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="157"/>
+      <c r="G62" s="146"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C63" s="151"/>
+      <c r="C63" s="158"/>
       <c r="D63" s="32" t="s">
         <v>344</v>
       </c>
@@ -16398,14 +16464,14 @@
       <c r="F63" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="158"/>
+      <c r="G63" s="147"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="149" t="s">
         <v>244</v>
       </c>
       <c r="D64" s="30" t="s">
@@ -16417,7 +16483,7 @@
       <c r="F64" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="156" t="s">
+      <c r="G64" s="145" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16425,7 +16491,7 @@
       <c r="B65" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C65" s="145"/>
+      <c r="C65" s="149"/>
       <c r="D65" s="31" t="s">
         <v>373</v>
       </c>
@@ -16435,13 +16501,13 @@
       <c r="F65" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="G65" s="157"/>
+      <c r="G65" s="146"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="C66" s="146"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="95" t="s">
         <v>374</v>
       </c>
@@ -16451,13 +16517,13 @@
       <c r="F66" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G66" s="158"/>
+      <c r="G66" s="147"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="149" t="s">
         <v>245</v>
       </c>
       <c r="D67" s="30" t="s">
@@ -16469,7 +16535,7 @@
       <c r="F67" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="156" t="s">
+      <c r="G67" s="145" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16477,7 +16543,7 @@
       <c r="B68" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C68" s="145"/>
+      <c r="C68" s="149"/>
       <c r="D68" s="31" t="s">
         <v>376</v>
       </c>
@@ -16487,13 +16553,13 @@
       <c r="F68" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="G68" s="157"/>
+      <c r="G68" s="146"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="C69" s="146"/>
+      <c r="C69" s="150"/>
       <c r="D69" s="32" t="s">
         <v>377</v>
       </c>
@@ -16503,13 +16569,13 @@
       <c r="F69" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="G69" s="158"/>
+      <c r="G69" s="147"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C70" s="147" t="s">
+      <c r="C70" s="148" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="30" t="s">
@@ -16521,7 +16587,7 @@
       <c r="F70" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="G70" s="156" t="s">
+      <c r="G70" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16530,7 +16596,7 @@
       <c r="B71" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="145"/>
+      <c r="C71" s="149"/>
       <c r="D71" s="31" t="s">
         <v>379</v>
       </c>
@@ -16540,14 +16606,14 @@
       <c r="F71" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="G71" s="157"/>
+      <c r="G71" s="146"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="C72" s="146"/>
+      <c r="C72" s="150"/>
       <c r="D72" s="32" t="s">
         <v>380</v>
       </c>
@@ -16557,14 +16623,14 @@
       <c r="F72" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="G72" s="158"/>
+      <c r="G72" s="147"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="145" t="s">
+      <c r="C73" s="149" t="s">
         <v>247</v>
       </c>
       <c r="D73" s="30" t="s">
@@ -16576,7 +16642,7 @@
       <c r="F73" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="G73" s="156" t="s">
+      <c r="G73" s="145" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16585,7 +16651,7 @@
       <c r="B74" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C74" s="145"/>
+      <c r="C74" s="149"/>
       <c r="D74" s="31" t="s">
         <v>409</v>
       </c>
@@ -16595,14 +16661,14 @@
       <c r="F74" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="G74" s="157"/>
+      <c r="G74" s="146"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="146"/>
+      <c r="C75" s="150"/>
       <c r="D75" s="32" t="s">
         <v>410</v>
       </c>
@@ -16612,14 +16678,14 @@
       <c r="F75" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="G75" s="158"/>
+      <c r="G75" s="147"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C76" s="145" t="s">
+      <c r="C76" s="149" t="s">
         <v>248</v>
       </c>
       <c r="D76" s="30" t="s">
@@ -16631,7 +16697,7 @@
       <c r="F76" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="G76" s="156" t="s">
+      <c r="G76" s="145" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16640,7 +16706,7 @@
       <c r="B77" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C77" s="145"/>
+      <c r="C77" s="149"/>
       <c r="D77" s="94" t="s">
         <v>412</v>
       </c>
@@ -16650,14 +16716,14 @@
       <c r="F77" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="G77" s="157"/>
+      <c r="G77" s="146"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C78" s="146"/>
+      <c r="C78" s="150"/>
       <c r="D78" s="32" t="s">
         <v>441</v>
       </c>
@@ -16667,14 +16733,14 @@
       <c r="F78" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="G78" s="158"/>
+      <c r="G78" s="147"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C79" s="147" t="s">
+      <c r="C79" s="148" t="s">
         <v>249</v>
       </c>
       <c r="D79" s="30" t="s">
@@ -16686,7 +16752,7 @@
       <c r="F79" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="G79" s="156" t="s">
+      <c r="G79" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16695,7 +16761,7 @@
       <c r="B80" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="C80" s="145"/>
+      <c r="C80" s="149"/>
       <c r="D80" s="31" t="s">
         <v>414</v>
       </c>
@@ -16705,14 +16771,14 @@
       <c r="F80" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="G80" s="157"/>
+      <c r="G80" s="146"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C81" s="146"/>
+      <c r="C81" s="150"/>
       <c r="D81" s="32" t="s">
         <v>415</v>
       </c>
@@ -16722,14 +16788,14 @@
       <c r="F81" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="G81" s="158"/>
+      <c r="G81" s="147"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="C82" s="145" t="s">
+      <c r="C82" s="149" t="s">
         <v>250</v>
       </c>
       <c r="D82" s="30" t="s">
@@ -16741,7 +16807,7 @@
       <c r="F82" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="G82" s="156" t="s">
+      <c r="G82" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16750,7 +16816,7 @@
       <c r="B83" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="C83" s="145"/>
+      <c r="C83" s="149"/>
       <c r="D83" s="94" t="s">
         <v>437</v>
       </c>
@@ -16760,14 +16826,14 @@
       <c r="F83" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="G83" s="157"/>
+      <c r="G83" s="146"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="C84" s="146"/>
+      <c r="C84" s="150"/>
       <c r="D84" s="95" t="s">
         <v>438</v>
       </c>
@@ -16777,14 +16843,14 @@
       <c r="F84" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="G84" s="158"/>
+      <c r="G84" s="147"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="C85" s="145" t="s">
+      <c r="C85" s="149" t="s">
         <v>251</v>
       </c>
       <c r="D85" s="30" t="s">
@@ -16796,7 +16862,7 @@
       <c r="F85" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="G85" s="156" t="s">
+      <c r="G85" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16805,7 +16871,7 @@
       <c r="B86" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C86" s="145"/>
+      <c r="C86" s="149"/>
       <c r="D86" s="31" t="s">
         <v>440</v>
       </c>
@@ -16815,14 +16881,14 @@
       <c r="F86" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="G86" s="157"/>
+      <c r="G86" s="146"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C87" s="146"/>
+      <c r="C87" s="150"/>
       <c r="D87" s="32" t="s">
         <v>442</v>
       </c>
@@ -16832,14 +16898,14 @@
       <c r="F87" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="G87" s="158"/>
+      <c r="G87" s="147"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C88" s="147" t="s">
+      <c r="C88" s="148" t="s">
         <v>252</v>
       </c>
       <c r="D88" s="30" t="s">
@@ -16851,7 +16917,7 @@
       <c r="F88" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="G88" s="156" t="s">
+      <c r="G88" s="145" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16860,7 +16926,7 @@
       <c r="B89" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C89" s="145"/>
+      <c r="C89" s="149"/>
       <c r="D89" s="31" t="s">
         <v>444</v>
       </c>
@@ -16870,14 +16936,14 @@
       <c r="F89" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="G89" s="157"/>
+      <c r="G89" s="146"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="C90" s="146"/>
+      <c r="C90" s="150"/>
       <c r="D90" s="32" t="s">
         <v>445</v>
       </c>
@@ -16887,44 +16953,15 @@
       <c r="F90" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="G90" s="158"/>
+      <c r="G90" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C45"/>
@@ -16937,11 +16974,40 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G81"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17582,7 +17648,7 @@
       <c r="C19" s="8">
         <v>111222666</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="120" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="68" t="s">
